--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.546</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.341</v>
+        <v>16.209</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4420549813.063</v>
+        <v>-0.388</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1870403.922</v>
+        <v>33.147</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.96</v>
+        <v>5.038</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-3139183.189094445</v>
+        <v>23.3236428037761</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-2418548.185602012</v>
+        <v>23.32664994914461</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1680419.230380074</v>
+        <v>23.34194765540258</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3843803.171850275</v>
+        <v>23.29686332780349</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1601624.404206712</v>
+        <v>23.33799828624692</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1329636.6650491</v>
+        <v>23.34398403162664</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-3697435.409632743</v>
+        <v>23.31116011550679</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-498165.69385548</v>
+        <v>23.36483783658474</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-92028.28303040478</v>
+        <v>23.37296896497379</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-290506.3428001124</v>
+        <v>23.36657329255478</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>105321.9474824343</v>
+        <v>23.38013370829648</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>572128.481050386</v>
+        <v>23.39330450724399</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-2082638.755289061</v>
+        <v>23.3078787039471</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1068787.664007096</v>
+        <v>23.34163550224292</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-677747.0909380468</v>
+        <v>23.3477464573093</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1465548.994817826</v>
+        <v>23.32428996591419</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-58407.6195821178</v>
+        <v>23.37681096676474</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1044568.507002608</v>
+        <v>23.42500793925445</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1917451.711345846</v>
+        <v>23.2842487372133</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-781688.6554484108</v>
+        <v>23.34072786324562</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>499794.3448214895</v>
+        <v>23.39262617988073</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2047839.079180907</v>
+        <v>23.29892723984689</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>60413.34194291801</v>
+        <v>23.38632396048026</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2427165.174779078</v>
+        <v>23.48053733743707</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>328740.6642147774</v>
+        <v>23.40652231296254</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1471727.08661427</v>
+        <v>23.4923666808779</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2596082.856665321</v>
+        <v>23.56179526568675</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-1133952.888324604</v>
+        <v>23.29619280399001</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>985455.9681086401</v>
+        <v>23.45299543476075</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2007516.373997636</v>
+        <v>23.51609735874737</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-891842.2492222571</v>
+        <v>23.33243743721873</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>549378.7072854578</v>
+        <v>23.40644099936663</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1188920.639446374</v>
+        <v>23.44598931632612</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1542381.32057361</v>
+        <v>23.27621101070847</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>77537.7473796604</v>
+        <v>23.38237598749007</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>734334.7387252602</v>
+        <v>23.42404530372966</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-1555946.099596805</v>
+        <v>23.29082292462131</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1218752.090459781</v>
+        <v>23.44254048027438</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2196453.723279339</v>
+        <v>23.50991511545759</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1530068.555583173</v>
+        <v>23.52763817149725</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2247467.030297061</v>
+        <v>23.61054329337457</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2548333.412434546</v>
+        <v>23.6514738691587</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-540829.3777970986</v>
+        <v>23.33271473853265</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1609964.283850107</v>
+        <v>23.54788513171092</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1918413.602333855</v>
+        <v>23.5858130437004</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-2428805.181194352</v>
+        <v>23.31960937815017</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>621574.9763080922</v>
+        <v>23.39289694578421</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1492650.656799471</v>
+        <v>23.41964247331359</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-2288973.354735994</v>
+        <v>23.29843290222807</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1587493.602146171</v>
+        <v>23.42254189787203</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1689487.127684765</v>
+        <v>23.42935257126569</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-2235749.814259224</v>
+        <v>23.31698044178085</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4298255.291618377</v>
+        <v>23.48694448965629</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4574727.14509714</v>
+        <v>23.50579881209319</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2647641.878931147</v>
+        <v>23.50489048902301</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3718894.07838564</v>
+        <v>23.53839406652473</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2832855.677387183</v>
+        <v>23.52391662848881</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-1514494.343382713</v>
+        <v>23.30215248456105</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1474556.611067698</v>
+        <v>23.45632129388902</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1985690.869523263</v>
+        <v>23.48355045296453</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-1246428.624516102</v>
+        <v>23.30957689493014</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>511586.3906464133</v>
+        <v>23.40899015475636</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>954999.0677502481</v>
+        <v>23.43187300552027</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1444434.697575493</v>
+        <v>23.26035559801709</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-110669.6410046307</v>
+        <v>23.37061894784177</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>642853.6200601754</v>
+        <v>23.41401769734994</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1505930.161189576</v>
+        <v>23.27254853401276</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1164862.115116545</v>
+        <v>23.44815097065648</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2215688.04415895</v>
+        <v>23.51363288962899</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1051385.895122217</v>
+        <v>23.49575230030067</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1682626.766975498</v>
+        <v>23.57044255736448</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2048859.659930544</v>
+        <v>23.60867625557162</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-887369.2753446497</v>
+        <v>23.28380538426961</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1322265.508312851</v>
+        <v>23.52824235773636</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1532087.907758691</v>
+        <v>23.55417091158135</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-955833.0577862062</v>
+        <v>23.31008992522191</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>552600.719616062</v>
+        <v>23.42484218859838</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1150504.278603579</v>
+        <v>23.47716446767796</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-1170508.573440004</v>
+        <v>23.25035080077236</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>377701.7104809706</v>
+        <v>23.41579555119393</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>837912.7907404891</v>
+        <v>23.45778608752294</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1141987.595705517</v>
+        <v>23.27662158019914</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1705636.404454728</v>
+        <v>23.52120181641823</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2762187.544636643</v>
+        <v>23.61523861565182</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1442587.332851804</v>
+        <v>23.60850845147435</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2095972.097881992</v>
+        <v>23.70732680427215</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2270491.516685098</v>
+        <v>23.7337523950753</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-692197.3281404304</v>
+        <v>23.27544406062344</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1547714.869837383</v>
+        <v>23.61842087747081</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1712801.965174051</v>
+        <v>23.64965188986292</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-1661535.854044148</v>
+        <v>23.34464539916834</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>382024.5927677171</v>
+        <v>23.39423087332968</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>940895.7104672834</v>
+        <v>23.4115426825305</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-2523399.759783181</v>
+        <v>23.2985013523444</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>915721.7418506681</v>
+        <v>23.40062164264986</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>859414.7588281633</v>
+        <v>23.40436159321943</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-2287562.652073561</v>
+        <v>23.31349888237422</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3829599.556605923</v>
+        <v>23.47370185161298</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3400086.120032889</v>
+        <v>23.47267066709775</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1796086.728070461</v>
+        <v>23.46420879794467</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2584223.764553851</v>
+        <v>23.50093409939972</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2340714.862313893</v>
+        <v>23.48890381989837</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1103623.163168106</v>
+        <v>23.32238794769402</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>779358.1327082514</v>
+        <v>23.42202303333346</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1109683.081525715</v>
+        <v>23.4322364321977</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-557891.2311311106</v>
+        <v>23.34849892235862</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1023844.561700585</v>
+        <v>23.44890980890134</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1232162.004345393</v>
+        <v>23.44874975611371</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-1339068.164236075</v>
+        <v>23.28465567263986</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>350573.1365498541</v>
+        <v>23.41719630210764</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>771523.420779582</v>
+        <v>23.43053803098774</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-1387716.886171959</v>
+        <v>23.29373295391943</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1906167.397800927</v>
+        <v>23.50924808071472</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2482189.597441451</v>
+        <v>23.534171730632</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1396434.588642497</v>
+        <v>23.53420773530322</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1889581.47888446</v>
+        <v>23.58946939172416</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2057850.530151058</v>
+        <v>23.60780404506447</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-393746.3613519991</v>
+        <v>23.34967936937435</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1492528.294229876</v>
+        <v>23.544238640572</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1539515.016876935</v>
+        <v>23.55193717349085</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-475751.3740270413</v>
+        <v>23.3450466629917</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>907837.0679684887</v>
+        <v>23.45693810618567</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1296127.58715585</v>
+        <v>23.4758942677987</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-1154644.765736477</v>
+        <v>23.2622126216706</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>630816.247381707</v>
+        <v>23.44852520179214</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>823684.8279292376</v>
+        <v>23.45081369655072</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-1158468.116036107</v>
+        <v>23.28138107234565</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2086704.30700663</v>
+        <v>23.56828199603823</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2686620.445671114</v>
+        <v>23.60149219110793</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1712142.844696491</v>
+        <v>23.64894933603431</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1985452.020342323</v>
+        <v>23.68954903247386</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2264325.934928803</v>
+        <v>23.7266889264566</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-355116.309317918</v>
+        <v>23.32977409322567</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1545377.68161023</v>
+        <v>23.63661247562567</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1718199.02166023</v>
+        <v>23.64026336201211</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-2541613.317640936</v>
+        <v>23.3276519942517</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-2081955.117477521</v>
+        <v>23.33494975102214</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-1308673.4038497</v>
+        <v>23.34792888722912</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-3477769.309744812</v>
+        <v>23.29618302371422</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-1629747.658286085</v>
+        <v>23.33426476523083</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-1623909.904953795</v>
+        <v>23.33664610980658</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-3095381.73289982</v>
+        <v>23.31588300948234</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>-108095.9134752304</v>
+        <v>23.37144109577824</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>107771.4386749544</v>
+        <v>23.37702396413221</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-311230.1701929367</v>
+        <v>23.36583807313892</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-38388.89261432763</v>
+        <v>23.377068433829</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>716935.2956235114</v>
+        <v>23.4008392983637</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3370685.336541487</v>
+        <v>23.45186669624813</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3441489.535515576</v>
+        <v>23.49718000816795</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3172703.51911815</v>
+        <v>23.48584141499013</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-1506007.497063486</v>
+        <v>23.31815423435073</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>-148901.3911642349</v>
+        <v>23.37108257201212</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1099046.488589714</v>
+        <v>23.42187044918138</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1899679.130158744</v>
+        <v>23.28384851289264</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-1082870.591159312</v>
+        <v>23.32303730832518</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>230073.0496695151</v>
+        <v>23.38647081641522</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>387719.5442516839</v>
+        <v>23.38609860675978</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2576531.004920104</v>
+        <v>23.4779933627748</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>281590.6367814243</v>
+        <v>23.39147512962061</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1144729.97816454</v>
+        <v>23.45463841423659</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2311850.035195008</v>
+        <v>23.525718952167</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>-1062147.280406438</v>
+        <v>23.32315725694888</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>970022.5027718237</v>
+        <v>23.45989411035961</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1478438.829840291</v>
+        <v>23.49831053696442</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-425976.6600119596</v>
+        <v>23.35270427479317</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>439611.7421497341</v>
+        <v>23.39839470135415</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1229149.272763342</v>
+        <v>23.44373958284944</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-1406908.730578405</v>
+        <v>23.28365823480893</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-490275.988777429</v>
+        <v>23.34265156330878</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>283615.8995096924</v>
+        <v>23.39244227532564</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-1102786.43149792</v>
+        <v>23.31060959362259</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1121355.882058331</v>
+        <v>23.43622340530692</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2462335.96173972</v>
+        <v>23.51707297124716</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>778445.4498974711</v>
+        <v>23.46345317039779</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1556491.717314439</v>
+        <v>23.53248047923126</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2385143.721466749</v>
+        <v>23.6009326426313</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-67761.26454536479</v>
+        <v>23.3942565111552</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1488265.160904151</v>
+        <v>23.55155533272828</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1797638.647758935</v>
+        <v>23.59223604052368</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-2979055.540643833</v>
+        <v>23.32900190811736</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-503011.55855939</v>
+        <v>23.37613068229298</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>546624.0587946986</v>
+        <v>23.38662234508003</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-3066095.128677739</v>
+        <v>23.30385504817318</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>935190.4261766684</v>
+        <v>23.39234947104714</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1498023.531856987</v>
+        <v>23.40271550315756</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-2547501.35788774</v>
+        <v>23.32439039704539</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>5174719.141613638</v>
+        <v>23.4737100089835</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>5076258.196663237</v>
+        <v>23.46790285076228</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2493488.973800089</v>
+        <v>23.45318329727888</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>3707967.533301671</v>
+        <v>23.48541712012876</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>3769408.123501076</v>
+        <v>23.48181868444388</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-1355298.906067309</v>
+        <v>23.33052092574654</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-1538888.636379673</v>
+        <v>23.37404840149512</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-1478872.036770687</v>
+        <v>23.36833309515602</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-545205.6818579203</v>
+        <v>23.35796599095698</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1329889.751085813</v>
+        <v>23.4404155006209</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1561198.667367409</v>
+        <v>23.44126863755936</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-1649115.490241122</v>
+        <v>23.2933864814407</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>559616.4980969211</v>
+        <v>23.40043019424068</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1218806.470091986</v>
+        <v>23.434328297268</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2802375.447424099</v>
+        <v>23.49425954894052</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>3334835.465132706</v>
+        <v>23.52357515302815</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2134529.281656032</v>
+        <v>23.53286191656267</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2681768.213380739</v>
+        <v>23.58322211054132</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>3040862.320419637</v>
+        <v>23.60427542490564</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>298312.6687003872</v>
+        <v>23.40446717729441</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2272883.983581495</v>
+        <v>23.54239910591761</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>2423344.682342734</v>
+        <v>23.55153845856925</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-321473.6053582532</v>
+        <v>23.3593970542513</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1133254.374632675</v>
+        <v>23.44162660067846</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1560032.227700163</v>
+        <v>23.45262784392043</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-1469837.363991183</v>
+        <v>23.26925460195567</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>338992.5879672554</v>
+        <v>23.39814987356443</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>897075.2447763183</v>
+        <v>23.42170031979283</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-1097118.193511413</v>
+        <v>23.29609027595627</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2440680.779934079</v>
+        <v>23.52001098501655</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>3199065.777860102</v>
+        <v>23.55474580650804</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>2180394.937411598</v>
+        <v>23.60276396880048</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2579104.660480607</v>
+        <v>23.64341682755863</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2701797.57684619</v>
+        <v>23.65631046060428</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>266781.9187881447</v>
+        <v>23.40775977619635</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1964295.863650974</v>
+        <v>23.5937770414695</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>2254852.109180568</v>
+        <v>23.61450111499396</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-1658053.677787164</v>
+        <v>23.28239886914944</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-541424.2698071866</v>
+        <v>23.3445111988407</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>362347.0797648729</v>
+        <v>23.3817697384207</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-1540247.976927917</v>
+        <v>23.27971536585579</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>738294.8203766613</v>
+        <v>23.42193967995642</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>734089.5876934116</v>
+        <v>23.42250046186601</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-1273107.768518004</v>
+        <v>23.29959838552156</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>2915965.623350825</v>
+        <v>23.53556298274856</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>2788485.118936216</v>
+        <v>23.52088190441216</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1286574.330570006</v>
+        <v>23.49347161545876</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1882875.909056149</v>
+        <v>23.58251537572878</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>2009224.090058465</v>
+        <v>23.60450719257326</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-974035.6518456762</v>
+        <v>23.26924512408199</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-929370.887047695</v>
+        <v>23.27850813292197</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-904055.3049905624</v>
+        <v>23.29888470160695</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-479823.8243869749</v>
+        <v>23.32231980852042</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>736158.5903879339</v>
+        <v>23.47090881065647</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>836026.8721585755</v>
+        <v>23.47544470561484</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-823078.1436983296</v>
+        <v>23.25577326415338</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>441277.2855225378</v>
+        <v>23.44618288202745</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>674822.1541869571</v>
+        <v>23.47375560750477</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-895755.5533164849</v>
+        <v>23.27461252082251</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1635491.837302236</v>
+        <v>23.59335596345251</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1742336.522176196</v>
+        <v>23.60519693957524</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>726866.3472794656</v>
+        <v>23.55998579865092</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1177307.368494816</v>
+        <v>23.6554003942033</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1439001.627705905</v>
+        <v>23.72592435855871</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-248042.6397103349</v>
+        <v>23.3377546422558</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1140514.917715572</v>
+        <v>23.64787082329311</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1212685.582781601</v>
+        <v>23.65587809068808</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-255759.5600612905</v>
+        <v>23.33099243274653</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-685816.0601625865</v>
+        <v>23.22020792964777</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>341899.2170786876</v>
+        <v>23.45094023132577</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>486311.5296277869</v>
+        <v>23.46902345388828</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-606293.8237687619</v>
+        <v>23.24423173222363</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1382308.84222104</v>
+        <v>23.62842400178791</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1666980.834133389</v>
+        <v>23.65974407419053</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1005896.605274413</v>
+        <v>23.68393820361102</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1280656.807778894</v>
+        <v>23.79258109643383</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1429244.171419251</v>
+        <v>23.82458889756307</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-220750.7084976325</v>
+        <v>23.31662725259938</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1077526.85692529</v>
+        <v>23.71226484248748</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1135990.870188301</v>
+        <v>23.72844237457403</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-1839427.886336122</v>
+        <v>23.30614891848412</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1531255.272484369</v>
+        <v>23.29473169759044</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-1340439.288835917</v>
+        <v>23.31841783205546</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-1924071.851765676</v>
+        <v>23.26815520920861</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-934322.9786076337</v>
+        <v>23.30800331753575</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-939339.9587770492</v>
+        <v>23.3069659906422</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-1889479.641680696</v>
+        <v>23.28362323342517</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-552532.0103692489</v>
+        <v>23.34380457548057</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-399697.0269105734</v>
+        <v>23.35553792565631</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-175497.6493070061</v>
+        <v>23.36711870671818</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>121871.7768371708</v>
+        <v>23.39421423809815</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>142762.6421685394</v>
+        <v>23.39452157492377</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-1141431.19872496</v>
+        <v>23.26901455904309</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-874734.4683399991</v>
+        <v>23.29657044580479</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-781024.8886637895</v>
+        <v>23.30501726381768</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-780475.6976179054</v>
+        <v>23.29430227861224</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-72210.42288230748</v>
+        <v>23.36980624568388</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>265431.0234237725</v>
+        <v>23.42111358727474</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-869548.7678546036</v>
+        <v>23.26058911454632</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-250238.4296247593</v>
+        <v>23.34590388973179</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>146181.4633039263</v>
+        <v>23.39993478852455</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-809547.1666994102</v>
+        <v>23.27744164713292</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>262163.5880608268</v>
+        <v>23.41932902163822</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>1019818.779062013</v>
+        <v>23.51174359195347</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>241327.3505266163</v>
+        <v>23.44278855251592</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>646848.903418372</v>
+        <v>23.54570640396243</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>842595.5895102907</v>
+        <v>23.58727936311379</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-503564.6596436801</v>
+        <v>23.26836555033625</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>406867.1987158014</v>
+        <v>23.48271767052377</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>634776.083592997</v>
+        <v>23.54073536187475</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-615511.2857113201</v>
+        <v>23.28993791867449</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>108096.8823475577</v>
+        <v>23.38982239364509</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>421130.268366429</v>
+        <v>23.4576961302047</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-733193.6609787153</v>
+        <v>23.23379725428087</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>102301.757809172</v>
+        <v>23.39313294829843</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>287409.3311581149</v>
+        <v>23.4420169330012</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-675536.7768595077</v>
+        <v>23.2577200285722</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>744705.3013884585</v>
+        <v>23.50435215482662</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>1131476.5861819</v>
+        <v>23.58756213543457</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>789427.1880432605</v>
+        <v>23.61366758893163</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1049815.863706601</v>
+        <v>23.69812261663908</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>1151453.549501613</v>
+        <v>23.72647455450465</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-354377.6717555666</v>
+        <v>23.27867725607068</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>755365.3053215038</v>
+        <v>23.61361917244421</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1003966.936714752</v>
+        <v>23.68955465347834</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-2950460.892425618</v>
+        <v>23.30751312076223</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-2374432.169168781</v>
+        <v>23.31822278559935</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-1893514.892495685</v>
+        <v>23.3262806453746</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-2952516.223942543</v>
+        <v>23.28940176405963</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-1678007.650139458</v>
+        <v>23.32377165256961</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-1524237.96209535</v>
+        <v>23.32578696094852</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2909024.279426243</v>
+        <v>23.29952004999747</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-1125382.954629074</v>
+        <v>23.34752905576496</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-1264180.67702434</v>
+        <v>23.34159561696528</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-881853.6969605493</v>
+        <v>23.33308250430761</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-736750.054765303</v>
+        <v>23.34238808142339</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-742642.0635327826</v>
+        <v>23.35943225097031</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-1621405.667347375</v>
+        <v>23.30266132843965</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-1068628.231394282</v>
+        <v>23.32125041373716</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-1082646.205250747</v>
+        <v>23.32252020312179</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1713298.319413234</v>
+        <v>23.28003046259019</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-1308382.707345275</v>
+        <v>23.30222225297971</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-593034.6082915034</v>
+        <v>23.33889170308693</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1714229.94716141</v>
+        <v>23.26263165572191</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-1411872.773834212</v>
+        <v>23.27177598070451</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-818176.4885426915</v>
+        <v>23.31363102661617</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-1681244.657351584</v>
+        <v>23.27786448348903</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-1041730.835962586</v>
+        <v>23.31352886151603</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>90922.26362591604</v>
+        <v>23.38884308821962</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-517831.9891119449</v>
+        <v>23.31801389903733</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-95974.45818337321</v>
+        <v>23.37437890659305</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>636677.5229949739</v>
+        <v>23.45409821935643</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-1173678.618245959</v>
+        <v>23.2563121511823</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-552084.9746824921</v>
+        <v>23.31506634219032</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-527888.598993407</v>
+        <v>23.31810318922633</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-1150665.612189465</v>
+        <v>23.28143746352841</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-824671.6616134652</v>
+        <v>23.29626600348426</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>167479.4310878674</v>
+        <v>23.37939896019067</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-1473201.589091277</v>
+        <v>23.24749777455424</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1012070.444414422</v>
+        <v>23.27777382250699</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-189758.0521312044</v>
+        <v>23.36487768541558</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-1409863.709136896</v>
+        <v>23.26143736713409</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-605778.9432646289</v>
+        <v>23.32663407439789</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1276431.030355348</v>
+        <v>23.46102879422578</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-210792.7010969819</v>
+        <v>23.35152240435906</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>761628.8529849915</v>
+        <v>23.4724841667433</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1384171.391250746</v>
+        <v>23.59483640271782</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-1043504.511495458</v>
+        <v>23.23292116352673</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-489544.1995874122</v>
+        <v>23.31893441415476</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-123341.9824913165</v>
+        <v>23.39785625537215</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-1525471.179613431</v>
+        <v>23.32683545352165</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-345634.407879414</v>
+        <v>23.36717414493963</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>774943.5127518561</v>
+        <v>23.41714879756105</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-1590610.441437209</v>
+        <v>23.29583007549493</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>1385574.627054182</v>
+        <v>23.45524331147836</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1473929.957145594</v>
+        <v>23.45542341925364</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-1558655.929598307</v>
+        <v>23.31127487457318</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3328496.54849841</v>
+        <v>23.52425217532338</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>3421193.003439987</v>
+        <v>23.5343903670016</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1833200.879747023</v>
+        <v>23.53794948689387</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>2272674.190853028</v>
+        <v>23.56768642181283</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>2145045.428949859</v>
+        <v>23.55708365850324</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-214774.2554759721</v>
+        <v>23.33905334426281</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>779889.3095183339</v>
+        <v>23.43265583338461</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>2190142.840873032</v>
+        <v>23.54738897222527</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-842517.8688335968</v>
+        <v>23.31116039282286</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>310437.8527330318</v>
+        <v>23.41092342213845</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>483119.5986720497</v>
+        <v>23.41081163337378</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-1050061.925123709</v>
+        <v>23.24887501703243</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>133598.2225502191</v>
+        <v>23.4069767084569</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>368755.4473471239</v>
+        <v>23.40626998679311</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-1096040.351242413</v>
+        <v>23.26580994597726</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1125401.397074776</v>
+        <v>23.5073186746248</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1396586.537594449</v>
+        <v>23.52223214699312</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>696956.0052106093</v>
+        <v>23.50406539136548</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>978473.5355122035</v>
+        <v>23.56803652032377</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1158722.731299745</v>
+        <v>23.59062424690933</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-330080.8806321461</v>
+        <v>23.33076704865917</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>914603.8665828545</v>
+        <v>23.55037422753383</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>987292.1135000167</v>
+        <v>23.56709285014112</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-538099.7073989031</v>
+        <v>23.31862385622138</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>369971.0791265065</v>
+        <v>23.4258384268842</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>718578.7627327726</v>
+        <v>23.46143861588391</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-792504.3465854882</v>
+        <v>23.23650809135124</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>442797.9983571235</v>
+        <v>23.4493088743441</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>591319.8099111066</v>
+        <v>23.45407401851411</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-696244.9500738361</v>
+        <v>23.267634227287</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1403344.542339836</v>
+        <v>23.58196847781472</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1845265.209873016</v>
+        <v>23.63127434876587</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1084632.987235265</v>
+        <v>23.65657791866613</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1362915.962994804</v>
+        <v>23.72091385411437</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1476406.792784557</v>
+        <v>23.73571610989114</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-261695.7604949952</v>
+        <v>23.32220013650818</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1086670.239557607</v>
+        <v>23.66535442069594</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1326550.413461348</v>
+        <v>23.70782668550531</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-2192231.32992194</v>
+        <v>23.31249508220016</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-1598765.983769338</v>
+        <v>23.31269510714056</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-1319696.161871614</v>
+        <v>23.33236217167326</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-2391106.695388099</v>
+        <v>23.28593970760971</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-1485781.23306461</v>
+        <v>23.29867399531511</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1352766.251050414</v>
+        <v>23.3177053935299</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-2314635.006420974</v>
+        <v>23.29791669735198</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-916591.4157625299</v>
+        <v>23.32668904245437</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-656245.5160857525</v>
+        <v>23.3512072464938</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-565716.9995140869</v>
+        <v>23.33925669388633</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-327444.2406239681</v>
+        <v>23.3498942102155</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-123071.7844222626</v>
+        <v>23.36735402180463</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-1406222.179993911</v>
+        <v>23.29155969389331</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-814467.2750238078</v>
+        <v>23.31285123708566</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-775738.2447646846</v>
+        <v>23.31275098185065</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-1198766.891415708</v>
+        <v>23.29297492984743</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-636027.1529045897</v>
+        <v>23.32818342550291</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>66007.18227914852</v>
+        <v>23.38887268867658</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-1325850.163536215</v>
+        <v>23.26531311213228</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-932420.7212553393</v>
+        <v>23.28635284015788</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-116192.5374322934</v>
+        <v>23.36697853520698</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-1351084.323237464</v>
+        <v>23.27309336939904</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-761392.3310919654</v>
+        <v>23.31725873979722</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>794079.6690264277</v>
+        <v>23.44392373400234</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-355048.45021117</v>
+        <v>23.33606136719586</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>79871.13874569756</v>
+        <v>23.39720799736256</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>519140.7086863609</v>
+        <v>23.47079411357278</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-871352.2571714311</v>
+        <v>23.26756132612206</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-37812.11340222559</v>
+        <v>23.36069396686083</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>324024.2575680998</v>
+        <v>23.43627492278838</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-696086.6478694765</v>
+        <v>23.31003094845286</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-148249.2259587877</v>
+        <v>23.35248534987146</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>478026.6809655504</v>
+        <v>23.42971856362519</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-927546.3579202329</v>
+        <v>23.26305776109881</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-419008.4298304337</v>
+        <v>23.32800984865656</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>126492.3756061785</v>
+        <v>23.41001771767327</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-772791.5420842413</v>
+        <v>23.28522314278147</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>103709.2430567117</v>
+        <v>23.3915840316626</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>1178854.679794795</v>
+        <v>23.5206984415934</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>183619.6357508161</v>
+        <v>23.43901726640159</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>469960.7533678694</v>
+        <v>23.48240361139887</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>1214942.851156581</v>
+        <v>23.64113620538214</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-307261.1179522715</v>
+        <v>23.32706568825273</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>348701.1671529315</v>
+        <v>23.45348447674323</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>767888.1001707037</v>
+        <v>23.54853328889112</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-2849903.200844995</v>
+        <v>23.30021827213895</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-2831823.420168418</v>
+        <v>23.28879216668317</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-2212855.34832381</v>
+        <v>23.31268013184171</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-2938387.040347047</v>
+        <v>23.27548528491729</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-2245955.461799617</v>
+        <v>23.29454946323943</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-2087261.468667572</v>
+        <v>23.30018697012249</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-2347112.14793103</v>
+        <v>23.27958632651033</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-1453151.569869782</v>
+        <v>23.33033414366162</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-1436480.1308066</v>
+        <v>23.33348975407073</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-1588335.197140619</v>
+        <v>23.30109496362595</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-1561093.711921653</v>
+        <v>23.32120131403684</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-641285.679399066</v>
+        <v>23.33705549180135</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-1999531.563648678</v>
+        <v>23.26854667973277</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-1939493.313423323</v>
+        <v>23.27415228431845</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-1508605.686141727</v>
+        <v>23.27792194525853</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-634144.5623056039</v>
+        <v>23.34611541446619</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>540773.7215716294</v>
+        <v>23.41539203060215</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>741975.2457394421</v>
+        <v>23.42956184676972</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-1180030.013094838</v>
+        <v>23.28780231223158</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-4600.763185386723</v>
+        <v>23.38334230542504</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>411927.6482234756</v>
+        <v>23.40819954133903</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>-1003201.109396909</v>
+        <v>23.31504176948776</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>1444630.554743744</v>
+        <v>23.47932885718644</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>1849065.342341464</v>
+        <v>23.51302057560305</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>869816.1302052367</v>
+        <v>23.49231695214013</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1172039.197794685</v>
+        <v>23.53412403611387</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1399356.863578398</v>
+        <v>23.5583086108334</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-460987.495389791</v>
+        <v>23.34078774532991</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>989556.2256350368</v>
+        <v>23.51860168074031</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1053077.459857707</v>
+        <v>23.51832164111028</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-436005.5406354826</v>
+        <v>23.35098230213709</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>629537.922888804</v>
+        <v>23.43476924929448</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1053222.852267162</v>
+        <v>23.47659781023702</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-1041623.101427643</v>
+        <v>23.26854853458034</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>322995.5329295701</v>
+        <v>23.41598285838408</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>541629.2906512409</v>
+        <v>23.43418380137642</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-852840.5698705054</v>
+        <v>23.29993662146818</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1698211.620916268</v>
+        <v>23.54082424607958</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>2088491.873849677</v>
+        <v>23.58088649906708</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>1310704.038270767</v>
+        <v>23.60714212320484</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1650141.277109895</v>
+        <v>23.67385464291439</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1834870.198612253</v>
+        <v>23.69556237345599</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-381545.6925956589</v>
+        <v>23.31653331149379</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1259342.149223809</v>
+        <v>23.61350491965635</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1378838.901456037</v>
+        <v>23.62084773404858</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-2065178.558704804</v>
+        <v>23.33813101929407</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-1519478.526591033</v>
+        <v>23.34016841041317</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-1236308.003221338</v>
+        <v>23.34648691457934</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-2697669.656968378</v>
+        <v>23.30418675104844</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-1207020.249524295</v>
+        <v>23.33407594725434</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-1271865.788723374</v>
+        <v>23.33386158231977</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1988668.812836643</v>
+        <v>23.32553121393856</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-81518.8211941116</v>
+        <v>23.36483112657387</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-309694.9050975154</v>
+        <v>23.3678684038295</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-143086.8066230688</v>
+        <v>23.36990386424396</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>153796.3613826251</v>
+        <v>23.38506844529859</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>230244.6033953288</v>
+        <v>23.39525395598961</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-1190949.626286163</v>
+        <v>23.32609395097703</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-731566.112295812</v>
+        <v>23.34079806230587</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-594196.5247910568</v>
+        <v>23.34172132574494</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-1587957.41807355</v>
+        <v>23.29559523217576</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-1001351.530778577</v>
+        <v>23.3130579867989</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-513048.5609167265</v>
+        <v>23.34132672249068</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-1857363.43453319</v>
+        <v>23.25929126893629</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-1423876.551836516</v>
+        <v>23.27710304239029</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-759852.1900087048</v>
+        <v>23.32639596389429</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-1965371.451142909</v>
+        <v>23.27230515514221</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-1103811.077193132</v>
+        <v>23.31113024727685</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>87737.63655066199</v>
+        <v>23.38429747438632</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-590985.0552897363</v>
+        <v>23.32040929027146</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-278961.6097217137</v>
+        <v>23.35704708043434</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>135914.5852140049</v>
+        <v>23.40068883421606</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-1279664.226114331</v>
+        <v>23.25484172477421</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-498741.1645003323</v>
+        <v>23.31330568541466</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-272798.2886941624</v>
+        <v>23.34515829396856</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-646068.6709747177</v>
+        <v>23.33678089732251</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>110814.6523125402</v>
+        <v>23.38046443574484</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>416531.6762533315</v>
+        <v>23.4057778131507</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-1287336.47488123</v>
+        <v>23.26692921127611</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-338378.844426023</v>
+        <v>23.3468131058925</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-108022.1116512424</v>
+        <v>23.36886194321534</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-1125811.098237125</v>
+        <v>23.29979957578078</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>592844.0308241501</v>
+        <v>23.42782892005918</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>1164989.451452534</v>
+        <v>23.48192599489196</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>627954.0668805074</v>
+        <v>23.48224172294902</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>771829.3953834968</v>
+        <v>23.50304455823354</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1272801.789702079</v>
+        <v>23.56066970866995</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>-525030.4387270615</v>
+        <v>23.31306838025289</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>487173.6947841207</v>
+        <v>23.45788691628123</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>618769.7490754825</v>
+        <v>23.47641359440085</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-2516554.84233334</v>
+        <v>23.31037229933549</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-2455145.467303778</v>
+        <v>23.30543812429379</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-2330992.966942067</v>
+        <v>23.3016240874436</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2745267.251492169</v>
+        <v>23.2898339474335</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2115193.065498729</v>
+        <v>23.29783309571429</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2192698.887074815</v>
+        <v>23.28827456031976</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2211615.535254058</v>
+        <v>23.31156235477257</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1645682.899593096</v>
+        <v>23.3185871501285</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1820779.248341318</v>
+        <v>23.30643731208069</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1399247.294709768</v>
+        <v>23.29971239193482</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1490938.778174912</v>
+        <v>23.29425804769724</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-1097946.671517468</v>
+        <v>23.30695925357436</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-1442500.949219087</v>
+        <v>23.28695383005936</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1383117.467621821</v>
+        <v>23.29758451096634</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-1329402.314153919</v>
+        <v>23.28539156319111</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1656078.923494059</v>
+        <v>23.26919189654517</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1367215.272092431</v>
+        <v>23.27222705350135</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1313806.416046068</v>
+        <v>23.27567513732003</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1661636.762178547</v>
+        <v>23.25549652329951</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1597589.990877189</v>
+        <v>23.24857490256608</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1305139.480053078</v>
+        <v>23.26953817273048</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1763516.152777889</v>
+        <v>23.26217676702521</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1361850.572282767</v>
+        <v>23.27411619706843</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1152252.945942978</v>
+        <v>23.2984750919199</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-883091.071328554</v>
+        <v>23.27399409827985</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-769595.7149591548</v>
+        <v>23.27760753978853</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-776385.2851618258</v>
+        <v>23.28897057504732</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1218549.847693235</v>
+        <v>23.23511647829782</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-898006.0259681053</v>
+        <v>23.26655747744257</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-876813.1633542221</v>
+        <v>23.26235560578428</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-562322.4315512424</v>
+        <v>23.34005674867815</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-189384.3257581026</v>
+        <v>23.35567289114391</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-38231.53786745869</v>
+        <v>23.36543601875555</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-1096131.837009733</v>
+        <v>23.27778263385296</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-594123.7205122309</v>
+        <v>23.31796486318768</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-461781.064098402</v>
+        <v>23.32801452296211</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-913996.3148626775</v>
+        <v>23.30376172816685</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>152105.014310209</v>
+        <v>23.39309398652931</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>296393.5884971085</v>
+        <v>23.4100815631473</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>196308.7559379058</v>
+        <v>23.40864208421975</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>244827.6558635591</v>
+        <v>23.40764494259319</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>496807.4023293106</v>
+        <v>23.44929827215827</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-184482.0345748659</v>
+        <v>23.32748866431877</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>84779.71064011357</v>
+        <v>23.39740464035162</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>150037.7412853092</v>
+        <v>23.40742074952221</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-766669.6058423899</v>
+        <v>23.36514893211519</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>481659.6532738349</v>
+        <v>23.38927507408089</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>1141561.651870987</v>
+        <v>23.41602188314135</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-2210988.924628695</v>
+        <v>23.30869798352665</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-280795.3751462024</v>
+        <v>23.36774083685627</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>275307.8783741253</v>
+        <v>23.38473762842006</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-1414931.638907496</v>
+        <v>23.33969510814651</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2056719.271108286</v>
+        <v>23.43202184596569</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2436026.394478347</v>
+        <v>23.44626310774273</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>1208528.638210522</v>
+        <v>23.44647209165772</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1732251.656484773</v>
+        <v>23.46448368449589</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>1925394.809974649</v>
+        <v>23.4752500337383</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>201902.7353248504</v>
+        <v>23.39267394986459</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>2189105.587015185</v>
+        <v>23.47697919479348</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>2309838.222249005</v>
+        <v>23.50760182217956</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-1034343.553543335</v>
+        <v>23.32758647105672</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-162829.7873299543</v>
+        <v>23.37056993315537</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>217985.5626529197</v>
+        <v>23.394970501578</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-1656863.242616131</v>
+        <v>23.26028568254771</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-979959.036439337</v>
+        <v>23.30749933133477</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-624515.0241604308</v>
+        <v>23.33429734282655</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1483903.059157009</v>
+        <v>23.28727242209725</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-4064.39665462376</v>
+        <v>23.37715425236429</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>695202.3137456449</v>
+        <v>23.42361565288466</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>135769.0267053406</v>
+        <v>23.39910561071714</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>417448.3735547562</v>
+        <v>23.4319561329934</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>780548.3738051965</v>
+        <v>23.46347064666256</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-457946.7408801284</v>
+        <v>23.33174128380503</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>640531.8456205078</v>
+        <v>23.44980738856934</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>870870.6560874276</v>
+        <v>23.48533461826171</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-256714.9419739892</v>
+        <v>23.37000551576812</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>584660.4500495527</v>
+        <v>23.42416474664393</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>1068432.276989722</v>
+        <v>23.46897205915437</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-1097088.017701157</v>
+        <v>23.2732437977355</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-107733.3615081625</v>
+        <v>23.3665956589087</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>176701.847330737</v>
+        <v>23.39278070505152</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-730576.2000805519</v>
+        <v>23.31998451282709</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>1139325.961724852</v>
+        <v>23.47556476533079</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>1746759.402868677</v>
+        <v>23.53178988229253</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>1254981.537248203</v>
+        <v>23.56949753599229</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1465865.854243224</v>
+        <v>23.60670481530689</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>1634487.501903906</v>
+        <v>23.62612072282252</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>79504.75536637966</v>
+        <v>23.37945599096428</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>1093661.498465044</v>
+        <v>23.5490977488434</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>1422765.032781134</v>
+        <v>23.61246338965423</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-1556881.856895157</v>
+        <v>23.34058994796255</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>780945.3034723415</v>
+        <v>23.39574501153156</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>1475493.493294063</v>
+        <v>23.41714297767955</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-2238057.059095765</v>
+        <v>23.31134161780343</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1185318.725673629</v>
+        <v>23.40225318569674</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1302732.024497528</v>
+        <v>23.41581949596131</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-1654048.330924749</v>
+        <v>23.32997718995019</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>3705948.306438442</v>
+        <v>23.46798672553298</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>4126817.595888827</v>
+        <v>23.4819341103567</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>2751435.149710339</v>
+        <v>23.50539602229107</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>3389577.444950498</v>
+        <v>23.52840615550213</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>3214717.746057059</v>
+        <v>23.52592289372096</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-1060403.238175188</v>
+        <v>23.33027931216242</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1174057.532150348</v>
+        <v>23.43033453612847</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>1844174.7437401</v>
+        <v>23.4622275301108</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-1240365.720606265</v>
+        <v>23.31618952309348</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>220748.7406890428</v>
+        <v>23.39763272288556</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>598387.2454996577</v>
+        <v>23.41595420326075</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-1383633.810223578</v>
+        <v>23.27314836593937</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-170449.0981563461</v>
+        <v>23.36330178956876</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>445778.4483006338</v>
+        <v>23.40263060485184</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-1294431.026106018</v>
+        <v>23.28159209449216</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>966711.018430285</v>
+        <v>23.43428180602912</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>1883095.290614455</v>
+        <v>23.48518191057377</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>868902.354192615</v>
+        <v>23.47408413691693</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1204800.932188307</v>
+        <v>23.516455739094</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1570811.314537649</v>
+        <v>23.5562708086965</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>-893636.2178182548</v>
+        <v>23.28857371751187</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>945332.0417445834</v>
+        <v>23.47195769233373</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1175084.900212966</v>
+        <v>23.50905524205929</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>-1028016.105006779</v>
+        <v>23.30807790081288</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>237120.564797632</v>
+        <v>23.39313838163134</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>841514.2755596268</v>
+        <v>23.44650672616961</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-1198380.372616002</v>
+        <v>23.24941780829878</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>109249.0344010825</v>
+        <v>23.37885587928733</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>596064.4509267914</v>
+        <v>23.42748028541588</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>-1119525.009106704</v>
+        <v>23.26707998428063</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1146819.986085544</v>
+        <v>23.46814921637673</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>2219929.149629903</v>
+        <v>23.55576062902101</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>1103878.163883432</v>
+        <v>23.54262373416609</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1542722.396669766</v>
+        <v>23.61368002953315</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>2075892.854247737</v>
+        <v>23.67600361549502</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>-764836.1063691739</v>
+        <v>23.27271357848717</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1081779.965811587</v>
+        <v>23.5318895313411</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1471855.648070469</v>
+        <v>23.58704528396098</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>-2946980.275814182</v>
+        <v>23.33118498629141</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-320559.6783068773</v>
+        <v>23.37163270017653</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1319519.086991172</v>
+        <v>23.39831997648972</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-3000221.402258636</v>
+        <v>23.31692357702845</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>2184501.988956059</v>
+        <v>23.42360762509525</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>2942201.744707211</v>
+        <v>23.43796333356381</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>-2807653.411661672</v>
+        <v>23.33487626192735</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>6321631.792696943</v>
+        <v>23.4753424780851</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>6197765.849563666</v>
+        <v>23.47816821050611</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>3643567.140724342</v>
+        <v>23.49043390511742</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>3609563.434937376</v>
+        <v>23.48820024950814</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>3759217.980980127</v>
+        <v>23.49570689483295</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-1773005.441081093</v>
+        <v>23.32674056221025</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>626958.8990913403</v>
+        <v>23.40409279182284</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>3831885.888206949</v>
+        <v>23.46424692724288</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-1605742.779085522</v>
+        <v>23.3238117284523</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>509332.5801115483</v>
+        <v>23.3993372478028</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>974821.7365424546</v>
+        <v>23.41621426830672</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-2030102.203918016</v>
+        <v>23.2736151085384</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-59244.74191742211</v>
+        <v>23.37486612055682</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>665148.5827551201</v>
+        <v>23.40316627051624</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-2266564.346397893</v>
+        <v>23.28787415588856</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1854144.669244411</v>
+        <v>23.44585999997145</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>2555451.349991656</v>
+        <v>23.48208028688725</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1099947.578442032</v>
+        <v>23.45678607380262</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1692975.54905811</v>
+        <v>23.49906290590204</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>2158569.078995398</v>
+        <v>23.5327494014388</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-1173306.644723374</v>
+        <v>23.29166966415093</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>1357415.332804772</v>
+        <v>23.46341678399744</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1787675.441280548</v>
+        <v>23.50318012359466</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-1089671.588929289</v>
+        <v>23.31904691946722</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>613738.2674955847</v>
+        <v>23.40818461372791</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1298795.553198764</v>
+        <v>23.43661276438359</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-1602274.90324154</v>
+        <v>23.26233867797448</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>466612.8363988125</v>
+        <v>23.40541171488664</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1036457.039364948</v>
+        <v>23.43614392381302</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-1654567.054771999</v>
+        <v>23.27944723335585</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2125021.668733707</v>
+        <v>23.48938724013621</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>3003601.867077573</v>
+        <v>23.53081930605528</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>2019009.326348264</v>
+        <v>23.56854790564469</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>2585420.633311129</v>
+        <v>23.61984469790522</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>2752611.38191806</v>
+        <v>23.63835759985892</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>-834318.6998429429</v>
+        <v>23.29988492198163</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1772050.301559089</v>
+        <v>23.53955071472636</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2170122.453561192</v>
+        <v>23.58685937286707</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-2747990.951982183</v>
+        <v>23.35790765357553</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-729405.7310100094</v>
+        <v>23.37759841014106</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>3064767.229612567</v>
+        <v>23.39433934230005</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-3290564.463946822</v>
+        <v>23.35108400201493</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>5901682.484738876</v>
+        <v>23.43179752553474</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>6932025.914654948</v>
+        <v>23.43445442797734</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-2769145.04195528</v>
+        <v>23.35042794380969</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>10831043.88835888</v>
+        <v>23.44572086536864</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>12343250.33629419</v>
+        <v>23.44653549113334</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>5863269.167122255</v>
+        <v>23.44408375645405</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>5887366.73926834</v>
+        <v>23.45257516860641</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>5972209.068917663</v>
+        <v>23.4485538269289</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-1708115.562308209</v>
+        <v>23.35496796785796</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>494018.4609294744</v>
+        <v>23.39517919755059</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>4362846.55440893</v>
+        <v>23.43901281573467</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-583873.9411652577</v>
+        <v>23.3650985583634</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>1349745.223491673</v>
+        <v>23.39754522441071</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2394902.629442857</v>
+        <v>23.40939424578445</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>1113872.99029244</v>
+        <v>23.39817002443907</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>3140859.587759825</v>
+        <v>23.44262855848436</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>4592981.798448611</v>
+        <v>23.46128055721723</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-2162025.210551253</v>
+        <v>23.33479936650398</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>3390017.113416896</v>
+        <v>23.43556286902686</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>5304050.307049376</v>
+        <v>23.46008840576109</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>2141705.526898228</v>
+        <v>23.44405303030729</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>2945501.558556374</v>
+        <v>23.47287914330298</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>3499431.801965528</v>
+        <v>23.48234516685155</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-157268.9505997375</v>
+        <v>23.36334357668518</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>2562868.559899912</v>
+        <v>23.44598140356288</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>3272821.395972621</v>
+        <v>23.47328006112873</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-459425.6593824765</v>
+        <v>23.36919529850876</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>1620781.280978146</v>
+        <v>23.4079586943687</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>2323160.507250153</v>
+        <v>23.42028340247465</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>1049583.643344241</v>
+        <v>23.40463938644318</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>3373232.224159203</v>
+        <v>23.47123863302408</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>3958629.0132983</v>
+        <v>23.48132641275782</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>-1246622.997627896</v>
+        <v>23.34149638945969</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>4713723.492907003</v>
+        <v>23.47898077340634</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>5623928.06735721</v>
+        <v>23.49647096574452</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>4344570.940237779</v>
+        <v>23.53467910247798</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>4485377.73322033</v>
+        <v>23.5594442605651</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>4787563.761354145</v>
+        <v>23.57409941756757</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-7966.790922141717</v>
+        <v>23.37845669932166</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>3287771.286046702</v>
+        <v>23.49742013967718</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>4084856.718854704</v>
+        <v>23.54612616298737</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-2730254.113899193</v>
+        <v>23.32702736104579</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-25329.56606580798</v>
+        <v>23.37954442006903</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1348546.796793141</v>
+        <v>23.39902505492705</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-2978661.957028751</v>
+        <v>23.30547768560801</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>104354.0325631644</v>
+        <v>23.37723760925483</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>972485.5571753683</v>
+        <v>23.39274808852189</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-2500751.891797884</v>
+        <v>23.32820918413073</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>3705408.962200712</v>
+        <v>23.44571445780135</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>4311113.683707608</v>
+        <v>23.45617268136512</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>3162579.950174277</v>
+        <v>23.48584978666916</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3289527.865028749</v>
+        <v>23.49518600447347</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>3346398.547941142</v>
+        <v>23.50117523463293</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>-1832162.620947743</v>
+        <v>23.31283187320775</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>1425243.686159047</v>
+        <v>23.4294482538091</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>1674095.833861984</v>
+        <v>23.43906186131219</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-1389802.826768612</v>
+        <v>23.31773052921944</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>558281.8064178877</v>
+        <v>23.4001097857931</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>843363.6030027667</v>
+        <v>23.40939966136569</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-1670398.788148174</v>
+        <v>23.28687476474904</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>66239.66725809152</v>
+        <v>23.37241400738377</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>555575.1337597403</v>
+        <v>23.39597798014533</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1672234.080188332</v>
+        <v>23.29709119092904</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1493464.020580847</v>
+        <v>23.43063458502651</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>2352622.342381136</v>
+        <v>23.47689718676389</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>1017051.491696062</v>
+        <v>23.46086068123023</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1542983.665668653</v>
+        <v>23.49885093031994</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>1884158.206983792</v>
+        <v>23.52808352108556</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-1045481.514575707</v>
+        <v>23.28936175920314</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1034800.772171787</v>
+        <v>23.45059255322327</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1485372.992910779</v>
+        <v>23.49000151953776</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-1186898.749080851</v>
+        <v>23.31917811148845</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>362876.9191644904</v>
+        <v>23.40326161025943</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1063622.704272348</v>
+        <v>23.44257503397941</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-1514755.778128556</v>
+        <v>23.27114246342942</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>90803.21546270352</v>
+        <v>23.38553988992897</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>595292.1103291205</v>
+        <v>23.42316318009564</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>-1481150.225825048</v>
+        <v>23.292177099491</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1340522.647799099</v>
+        <v>23.46245563133028</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>2597811.653100999</v>
+        <v>23.53696247989738</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>1468194.220643644</v>
+        <v>23.54213949732606</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2056234.56004809</v>
+        <v>23.60337601632785</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>2455260.609481701</v>
+        <v>23.65116968285253</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>-918981.7205496664</v>
+        <v>23.28292606306746</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1422111.523170787</v>
+        <v>23.53433194853174</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1822784.936599351</v>
+        <v>23.59262864720132</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-2639510.593432117</v>
+        <v>23.33587315281513</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-1980444.624064439</v>
+        <v>23.33771556712835</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-1466433.148609474</v>
+        <v>23.34777274651064</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-3345348.104934576</v>
+        <v>23.30667875015072</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-1483297.420118264</v>
+        <v>23.33926505181853</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-1302052.146232472</v>
+        <v>23.34305475993575</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-2696711.452075169</v>
+        <v>23.32948806846191</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-19173.96368279101</v>
+        <v>23.37154305949521</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>276333.0093781556</v>
+        <v>23.37884984160797</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-232698.4341422865</v>
+        <v>23.36938780191917</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>104008.2840571004</v>
+        <v>23.38109699403633</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>390226.9045067105</v>
+        <v>23.38897739642955</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-1498560.56658439</v>
+        <v>23.31567136110657</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-801613.1367036642</v>
+        <v>23.34910850045666</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-401499.7968351152</v>
+        <v>23.3580624491382</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-1652626.169573291</v>
+        <v>23.31498588462725</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-548466.1333748109</v>
+        <v>23.35678560412062</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>258699.3773258887</v>
+        <v>23.3934810767969</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-1889562.569019537</v>
+        <v>23.28449574684803</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-983674.1291650245</v>
+        <v>23.32481438105118</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>14344.95502961515</v>
+        <v>23.37363440522031</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>-1901925.949574257</v>
+        <v>23.29769939700117</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-184786.6791266976</v>
+        <v>23.36447901553954</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>1501689.227263479</v>
+        <v>23.44613445764158</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>79167.94541233371</v>
+        <v>23.38648889992686</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>689178.3638827864</v>
+        <v>23.43365783291004</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1440626.306924829</v>
+        <v>23.49202609302633</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>-1178903.729794597</v>
+        <v>23.28156307109774</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>402040.3560748029</v>
+        <v>23.40499551468195</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1011886.884535601</v>
+        <v>23.46229488951389</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-886794.7252247705</v>
+        <v>23.33940416473695</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>139318.3733806952</v>
+        <v>23.39025579775734</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>911276.2718895952</v>
+        <v>23.43834646313588</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-1446715.969706693</v>
+        <v>23.28386847973911</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-235903.5096749185</v>
+        <v>23.35968568172613</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>541309.6091880505</v>
+        <v>23.41313803950744</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-1228698.973151392</v>
+        <v>23.30654887282644</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>826640.3826308157</v>
+        <v>23.42357897232116</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>2105796.928625688</v>
+        <v>23.50752240493962</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>981169.4316492567</v>
+        <v>23.48021599923186</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1351740.857051802</v>
+        <v>23.51995181148589</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1857793.058526677</v>
+        <v>23.58342688917552</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>-961964.8021554075</v>
+        <v>23.29396393476994</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>604406.0468169076</v>
+        <v>23.46417674907493</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1610631.979599686</v>
+        <v>23.54858997513879</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>-3260948.435340781</v>
+        <v>23.35339487160277</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-1652614.173346667</v>
+        <v>23.36295763240461</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>-98362.86879053035</v>
+        <v>23.37544368877222</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-6037008.276760359</v>
+        <v>23.31881564661743</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>737657.6993239005</v>
+        <v>23.37672851757577</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1227643.839827999</v>
+        <v>23.38323177731758</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-3643213.736910405</v>
+        <v>23.34587480178282</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>5250834.215220029</v>
+        <v>23.41245345259723</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>5692199.247591875</v>
+        <v>23.41688125272757</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>1699641.528621122</v>
+        <v>23.39737210039379</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>2522057.800929893</v>
+        <v>23.40667578542266</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>3107710.749510228</v>
+        <v>23.41658063474298</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-2996608.011576817</v>
+        <v>23.34885416332148</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1942040.023827069</v>
+        <v>23.39354734280019</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>2842358.297087499</v>
+        <v>23.41757014581784</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-2717802.876132298</v>
+        <v>23.33454782528257</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-367339.194663297</v>
+        <v>23.36717826081978</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1285414.546425435</v>
+        <v>23.39386884263646</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-3290256.455933342</v>
+        <v>23.31591304816369</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-844583.3220411325</v>
+        <v>23.354549390267</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1954778.386418888</v>
+        <v>23.40187210088182</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-3736811.715140527</v>
+        <v>23.31082325132904</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>849144.4980148845</v>
+        <v>23.38887287700376</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>3641377.181985316</v>
+        <v>23.43537150541451</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>294844.3552801797</v>
+        <v>23.38480048432293</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1521188.117371137</v>
+        <v>23.41829172659858</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>3264215.891294884</v>
+        <v>23.46658140074837</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-2062111.71561713</v>
+        <v>23.31523075533567</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>1288248.232101213</v>
+        <v>23.40458141740356</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>2336505.307996294</v>
+        <v>23.43841620135147</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-1712952.998211123</v>
+        <v>23.33974740556298</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>129638.0053426356</v>
+        <v>23.37176134591222</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1080841.152304059</v>
+        <v>23.3962652854786</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-2660363.656877929</v>
+        <v>23.30578782075604</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-152761.4398066097</v>
+        <v>23.36253767299815</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1161192.322362645</v>
+        <v>23.39850460607859</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-2409841.476648557</v>
+        <v>23.31262915374987</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>2058039.710220778</v>
+        <v>23.41828831094806</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>3385340.461186259</v>
+        <v>23.45634218030995</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>2240283.900490505</v>
+        <v>23.45003418600523</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2684854.132540793</v>
+        <v>23.47647640629598</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>3655671.53440189</v>
+        <v>23.52521350675835</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>-1814469.728962088</v>
+        <v>23.31449641800748</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>912340.6522317545</v>
+        <v>23.41967176682565</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>2580999.394652518</v>
+        <v>23.48363317230642</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>-1334447.355417066</v>
+        <v>23.34360788206877</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>270654.3416059989</v>
+        <v>23.37312360926208</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>1295757.30335047</v>
+        <v>23.40067235847362</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>-2394807.279655147</v>
+        <v>23.30381546572799</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>1831720.930872358</v>
+        <v>23.41690563998664</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>2388807.584225999</v>
+        <v>23.43482566012199</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>-1492123.013852351</v>
+        <v>23.33392129361477</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>4840977.927197993</v>
+        <v>23.48676237492376</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>4985699.87628981</v>
+        <v>23.48690125186675</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>2840713.298550781</v>
+        <v>23.50433029547101</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>2740274.805974992</v>
+        <v>23.50004014248703</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>3064416.727656674</v>
+        <v>23.52030024954002</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>-907036.3977045909</v>
+        <v>23.33487727186341</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>-379019.0131174899</v>
+        <v>23.36240012287482</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>3346237.974030908</v>
+        <v>23.51156454499104</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>-381266.6777588594</v>
+        <v>23.36295010906813</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>790442.9518708765</v>
+        <v>23.41518586905583</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>1019549.717068922</v>
+        <v>23.42432673585849</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-1412497.670485863</v>
+        <v>23.2972936047873</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>200963.5932886757</v>
+        <v>23.39432358673988</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>684061.8812196492</v>
+        <v>23.4192754695695</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-1163262.741379536</v>
+        <v>23.31377196025278</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>1642694.380884048</v>
+        <v>23.47136092893321</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>2249215.671903645</v>
+        <v>23.50218459975643</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>1205295.309954562</v>
+        <v>23.49843918067544</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>1476543.242587845</v>
+        <v>23.52819084491453</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1784260.635458496</v>
+        <v>23.55245645189009</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>-331971.5676644755</v>
+        <v>23.35353900187903</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>1254326.692598906</v>
+        <v>23.48702989120796</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1514634.054779989</v>
+        <v>23.52144029777514</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-255749.79946865</v>
+        <v>23.36701783946702</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>792331.5597113792</v>
+        <v>23.42047911724838</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1086086.043407781</v>
+        <v>23.44802070944437</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>-1185043.655499277</v>
+        <v>23.28335137641665</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>427102.8847089527</v>
+        <v>23.41308540702616</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>735098.1581510435</v>
+        <v>23.44184519530308</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-828765.5559245192</v>
+        <v>23.30909163979522</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>1973743.140607807</v>
+        <v>23.51662867832047</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>2580330.960903054</v>
+        <v>23.5653047934349</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>1659276.140071191</v>
+        <v>23.6016917901344</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>1868487.083220229</v>
+        <v>23.62588298882245</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>2176228.318481847</v>
+        <v>23.64999952213668</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-342383.3099942494</v>
+        <v>23.33991267080286</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1321567.733378466</v>
+        <v>23.54818612953725</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1702123.974378125</v>
+        <v>23.59934173867951</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>-2736646.929393942</v>
+        <v>23.32445359118051</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-317306.6170557921</v>
+        <v>23.3763403318745</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>793268.9932161778</v>
+        <v>23.3911764502987</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-2948629.325455392</v>
+        <v>23.30760790291422</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>461040.0435008149</v>
+        <v>23.38582987064702</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>697355.5924441072</v>
+        <v>23.39311598474299</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-2488840.779779922</v>
+        <v>23.32632085135521</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>3249961.317840759</v>
+        <v>23.44071217110989</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>3840910.989725571</v>
+        <v>23.45209462897324</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>2679722.280441096</v>
+        <v>23.4722894898379</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>3172709.847474746</v>
+        <v>23.49528491626272</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>2951296.489233415</v>
+        <v>23.48881641640069</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>-1823822.815381984</v>
+        <v>23.30931844335477</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>978131.6697300954</v>
+        <v>23.42249950475357</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>1207843.492717142</v>
+        <v>23.42567332873078</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>-1333099.498598599</v>
+        <v>23.31509623534793</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>436639.5280291169</v>
+        <v>23.39999520668756</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>739447.4325342312</v>
+        <v>23.40557646776093</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>-1621576.324489296</v>
+        <v>23.29625805448761</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-30877.4345541546</v>
+        <v>23.3850499134799</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>572248.3177411086</v>
+        <v>23.41068943407936</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-1474171.171956432</v>
+        <v>23.31229197274157</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>1447190.299641922</v>
+        <v>23.44187585290904</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>2588592.918272808</v>
+        <v>23.49771820530656</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>1086896.747315315</v>
+        <v>23.47872967346072</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>1592547.169157693</v>
+        <v>23.52472420153845</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1954023.467734906</v>
+        <v>23.55216400660581</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-1028151.301349413</v>
+        <v>23.29820831965226</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>1461921.825764804</v>
+        <v>23.48582901396066</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1457491.48538204</v>
+        <v>23.50472438085374</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>-1059846.903189655</v>
+        <v>23.32402804846431</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>296757.1904234478</v>
+        <v>23.39965114903131</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>983580.9099516103</v>
+        <v>23.43443679577145</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-1413820.400902955</v>
+        <v>23.27501323206052</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-4576.87247178252</v>
+        <v>23.38050372209993</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>558911.9528590364</v>
+        <v>23.42167198498374</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>-1320923.098096208</v>
+        <v>23.29948218617003</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1124755.570570871</v>
+        <v>23.44753073548353</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>2494771.718732348</v>
+        <v>23.53109499934711</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>1468279.988300286</v>
+        <v>23.54582941239583</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>1856866.537192428</v>
+        <v>23.59618365272373</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>2330984.127249667</v>
+        <v>23.64864874816728</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>-896330.754421676</v>
+        <v>23.28105918624068</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>1035706.169522727</v>
+        <v>23.50541610545401</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1659019.758010124</v>
+        <v>23.57096863669006</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.140978762039421</v>
+        <v>6.14097876203936</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.85188127301736</v>
+        <v>10.85188127301747</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.67714445303055</v>
+        <v>15.67714445303059</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2.64509683753284</v>
+        <v>-2.645096837532869</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14.4505675533946</v>
+        <v>14.45056755339467</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.52435898081587</v>
+        <v>16.52435898081598</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9078593583924253</v>
+        <v>0.907859358392372</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.1923274172541</v>
+        <v>23.19232741725414</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.0212718211619</v>
+        <v>26.0212718211618</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.67429207901633</v>
+        <v>23.67429207901626</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.74546125943182</v>
+        <v>27.74546125943185</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.54665515924633</v>
+        <v>32.54665515924634</v>
       </c>
     </row>
     <row r="14">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.48475225828207</v>
+        <v>15.48475225828198</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>19.57427899665981</v>
+        <v>19.57427899665976</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.10633300192395</v>
+        <v>10.10633300192388</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.00236557943211</v>
+        <v>26.00236557943207</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>38.46233921745246</v>
+        <v>38.46233921745245</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.398109433439799</v>
+        <v>1.398109433439792</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.36273081028982</v>
+        <v>16.36273081028989</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.24733345723553</v>
+        <v>33.24733345723551</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.012580194683121</v>
+        <v>2.012580194683171</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.38934601299604</v>
+        <v>27.38934601299608</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>55.87763631930129</v>
+        <v>55.87763631930127</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.5048991954708</v>
+        <v>32.50489919547076</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>52.81984362131257</v>
+        <v>52.8198436213124</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>72.8036549211096</v>
+        <v>72.80365492110957</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6.168858173874952</v>
+        <v>6.168858173874963</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>44.47145540140701</v>
+        <v>44.47145540140697</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>62.94243986962128</v>
+        <v>62.94243986962124</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.22271170368149</v>
+        <v>14.22271170368151</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.32482922288418</v>
+        <v>34.3248292228842</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.24514572307501</v>
+        <v>43.245145723075</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.570351625755176</v>
+        <v>1.570351625755112</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.92344136120117</v>
+        <v>27.92344136120111</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>38.60831469426895</v>
+        <v>38.6083146942689</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.537791214489935</v>
+        <v>3.537791214489879</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.77503622801359</v>
+        <v>44.77503622801358</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>59.30552531947059</v>
+        <v>59.30552531947045</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60.23918751691564</v>
+        <v>60.23918751691551</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>75.98246840921978</v>
+        <v>75.98246840921986</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>82.58496915600635</v>
+        <v>82.58496915600634</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.59392098774644</v>
+        <v>14.59392098774648</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>62.58631946744057</v>
+        <v>62.58631946744063</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>69.46899857675345</v>
+        <v>69.46899857675348</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.281989602917026</v>
+        <v>6.281989602917029</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.87793251126045</v>
+        <v>31.87793251126052</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.18718651747554</v>
+        <v>39.18718651747553</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.260316610893931</v>
+        <v>4.26031661089397</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.19882362749475</v>
+        <v>42.1988236274948</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>43.19702176186147</v>
+        <v>43.19702176186149</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.672690647669224</v>
+        <v>6.67269064766921</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>65.09238605095459</v>
+        <v>65.09238605095453</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>67.56428517042147</v>
+        <v>67.56428517042143</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>61.61637527848507</v>
+        <v>61.61637527848499</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>75.75907916257474</v>
+        <v>75.75907916257481</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>64.06157343830677</v>
+        <v>64.06157343830678</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6.331657405227293</v>
+        <v>6.331657405227268</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>46.45646398761279</v>
+        <v>46.45646398761277</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>53.3178937760963</v>
+        <v>53.31789377609631</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.588402704181966</v>
+        <v>8.588402704181963</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.08029019955167</v>
+        <v>34.08029019955168</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.50994295067257</v>
+        <v>40.50994295067261</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.233105935375484</v>
+        <v>2.233105935375498</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.79033410046338</v>
+        <v>24.7903341004634</v>
       </c>
     </row>
     <row r="67">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.39471863645549</v>
+        <v>3.394718636455462</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44.65974984037697</v>
+        <v>44.65974984037696</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>60.89551820638309</v>
+        <v>60.89551820638316</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>50.6482733895819</v>
+        <v>50.64827338958187</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>65.04945344086416</v>
+        <v>65.04945344086407</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>73.40472013432593</v>
+        <v>73.40472013432611</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.077078916330745</v>
+        <v>6.077078916330752</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>57.33516413301571</v>
+        <v>57.33516413301575</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>62.20252706136479</v>
+        <v>62.2025270613648</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.549177733873631</v>
+        <v>9.549177733873652</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.5555276145895</v>
+        <v>36.55552761458947</v>
       </c>
     </row>
     <row r="79">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2.219670088116381</v>
+        <v>2.219670088116416</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.54899033707834</v>
+        <v>34.54899033707842</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>44.15899716260484</v>
+        <v>44.15899716260488</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.876663789815634</v>
+        <v>4.876663789815613</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>59.1998130052031</v>
+        <v>59.19981300520307</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>79.3552777851603</v>
+        <v>79.35527778516035</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>67.29720048654214</v>
+        <v>67.2972004865422</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>85.7020470456567</v>
+        <v>85.70204704565674</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>90.6179913660125</v>
+        <v>90.6179913660124</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.835855924229808</v>
+        <v>6.835855924229829</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>70.99123918583371</v>
+        <v>70.99123918583378</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>75.71965036303565</v>
+        <v>75.71965036303563</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>12.72019758979933</v>
+        <v>12.72019758979939</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.86784930058559</v>
+        <v>29.86784930058563</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.55737404279761</v>
+        <v>34.55737404279765</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.966014115429846</v>
+        <v>1.966014115429825</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.62427476151564</v>
+        <v>35.62427476151566</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.07320521952185</v>
+        <v>35.07320521952187</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.209438759425307</v>
+        <v>6.209438759425282</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>60.90219567846744</v>
+        <v>60.90219567846738</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>57.06197153881324</v>
+        <v>57.0619715388132</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>50.37411846377152</v>
+        <v>50.37411846377157</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>60.77912741754032</v>
+        <v>60.77912741754041</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>57.56431553731919</v>
+        <v>57.5643155373191</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.8471627905875</v>
+        <v>11.84716279058752</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.12416925405912</v>
+        <v>37.1241692540591</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.55842778046622</v>
+        <v>41.55842778046632</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.5724572299636</v>
+        <v>18.57245722996361</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.50822884198103</v>
+        <v>41.50822884198107</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.52891112593383</v>
+        <v>44.52891112593385</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.015111635549037</v>
+        <v>4.01511163554903</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.59107720850757</v>
+        <v>32.59107720850763</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.71037573919607</v>
+        <v>39.71037573919614</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.221170856493572</v>
+        <v>5.221170856493465</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>56.11327465882908</v>
+        <v>56.11327465882913</v>
       </c>
     </row>
     <row r="115">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.5202420522834</v>
+        <v>58.52024205228342</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>69.77093489359714</v>
+        <v>69.77093489359711</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>73.60983857110142</v>
+        <v>73.60983857110159</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.52791485423284</v>
+        <v>17.52791485423289</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>61.28484145268528</v>
+        <v>61.28484145268534</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.37481770184147</v>
+        <v>62.37481770184141</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.14435381462354</v>
+        <v>18.14435381462353</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.91552648074799</v>
+        <v>42.915526480748</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>49.86731301167367</v>
+        <v>49.86731301167366</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.550933951263211</v>
+        <v>2.550933951263239</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.83446157319977</v>
+        <v>39.8344615731998</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.86189258256655</v>
+        <v>43.86189258256658</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4.562270539507413</v>
+        <v>4.562270539507399</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>66.46931506388674</v>
+        <v>66.4693150638868</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>77.91371008076969</v>
+        <v>77.91371008076975</v>
       </c>
     </row>
     <row r="131">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>82.58886599570512</v>
+        <v>82.58886599570525</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>90.44431638574717</v>
+        <v>90.4443163857471</v>
       </c>
     </row>
     <row r="134">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>70.92429763044483</v>
+        <v>70.92429763044474</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.87423241659472</v>
+        <v>75.87423241659478</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.64936272773032</v>
+        <v>9.649362727730363</v>
       </c>
     </row>
     <row r="138">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>17.90236101871128</v>
+        <v>17.90236101871134</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.4894646410574452</v>
+        <v>-0.4894646410574026</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.93846056833462</v>
+        <v>13.93846056833453</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.98403723590366</v>
+        <v>13.98403723590372</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4.584950833624173</v>
+        <v>4.584950833624092</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.89131145794087</v>
+        <v>25.89131145794084</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.43095243304358</v>
+        <v>27.43095243304352</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>23.3844540070994</v>
+        <v>23.38445400709934</v>
       </c>
     </row>
     <row r="147">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.21265757400807</v>
+        <v>34.21265757400782</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>62.75748266071435</v>
+        <v>62.7574826607144</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>63.51569583236464</v>
+        <v>63.51569583236463</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>60.63737645384137</v>
+        <v>60.63737645384133</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.241726650666756</v>
+        <v>9.241726650666727</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.93978340816799</v>
+        <v>24.939783408168</v>
       </c>
     </row>
     <row r="154">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1.032667175259011</v>
+        <v>1.032667175259075</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.0526100699477</v>
+        <v>12.05261006994776</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.76614176686399</v>
+        <v>29.76614176686397</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.44088000584305</v>
+        <v>31.44088000584299</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>58.41846675185166</v>
+        <v>58.41846675185175</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.78675784045327</v>
+        <v>31.78675784045325</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>47.4953244737962</v>
+        <v>47.49532447379622</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>68.73613960753238</v>
+        <v>68.73613960753235</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>7.006702916566585</v>
+        <v>7.006702916566514</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>44.61247830510228</v>
+        <v>44.61247830510217</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>54.02084091233394</v>
+        <v>54.02084091233397</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.57825370479931</v>
+        <v>20.57825370479929</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.9406809107774</v>
+        <v>32.94068091077746</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.21694134151172</v>
+        <v>44.21694134151181</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3.225941308839673</v>
+        <v>3.225941308839694</v>
       </c>
     </row>
     <row r="170">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.38647008699633</v>
+        <v>31.38647008699628</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.879970364026665</v>
+        <v>9.879970364026629</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>43.72676483340358</v>
+        <v>43.72676483340348</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>64.1336771374697</v>
+        <v>64.13367713746975</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>44.15406501391551</v>
+        <v>44.15406501391543</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.63728001157047</v>
+        <v>61.63728001157048</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.25763943432007</v>
+        <v>80.25763943432004</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.11363716396939</v>
+        <v>25.11363716396936</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>60.66626892065882</v>
+        <v>60.66626892065874</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>67.73494171023214</v>
+        <v>67.73494171023204</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7.187757974133003</v>
+        <v>7.187757974133085</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.37404056651908</v>
+        <v>23.37404056651913</v>
       </c>
     </row>
     <row r="183">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3.284597927249521</v>
+        <v>3.284597927249543</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.79270725608198</v>
+        <v>33.79270725608207</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>38.08407154053039</v>
+        <v>38.08407154053052</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>8.917708768567447</v>
+        <v>8.917708768567429</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>62.70672668599468</v>
+        <v>62.7067266859945</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>62.0208983633709</v>
+        <v>62.02089836337078</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>52.30821292200077</v>
+        <v>52.30821292200083</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>64.79935568036473</v>
+        <v>64.79935568036457</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>65.43128382543914</v>
+        <v>65.43128382543934</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>12.48839979271824</v>
+        <v>12.4883997927182</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.56840692570855</v>
+        <v>10.56840692570856</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>11.19606427318344</v>
+        <v>11.19606427318346</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.50316131126974</v>
+        <v>20.50316131126978</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>41.68552337706966</v>
+        <v>41.68552337706963</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>44.29854729448843</v>
+        <v>44.29854729448849</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4.933661967637747</v>
+        <v>4.93366196763786</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.03554000178398</v>
+        <v>34.03554000178406</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.72091526126371</v>
+        <v>42.72091526126368</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>60.39399457229597</v>
+        <v>60.39399457229599</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>66.80314797424145</v>
+        <v>66.80314797424143</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>64.60020206978166</v>
+        <v>64.60020206978174</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>74.32658924969745</v>
+        <v>74.32658924969738</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>80.70897200174139</v>
+        <v>80.70897200174153</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.05319407587652</v>
+        <v>32.05319407587646</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>67.73824349017852</v>
+        <v>67.7382434901786</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>70.457414699514</v>
+        <v>70.45741469951419</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.17820073293162</v>
+        <v>22.17820073293158</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.46871391219471</v>
+        <v>42.46871391219466</v>
       </c>
     </row>
     <row r="212">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2.750507743058193</v>
+        <v>2.75050774305824</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>32.17682846681576</v>
+        <v>32.17682846681583</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.2558019943437</v>
+        <v>41.25580199434378</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>10.35683872390573</v>
+        <v>10.35683872390577</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>62.93519971443553</v>
+        <v>62.93519971443544</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>74.20623023088146</v>
+        <v>74.20623023088147</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>74.51057400806225</v>
+        <v>74.51057400806221</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>83.26024296612843</v>
+        <v>83.26024296612849</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>85.9527341184266</v>
+        <v>85.95273411842653</v>
       </c>
     </row>
     <row r="222">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>70.4928065819316</v>
+        <v>70.49280658193176</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>76.97622308295487</v>
+        <v>76.9762230829548</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>4.663995908509477</v>
+        <v>4.663995908509456</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.47881086531942</v>
+        <v>19.47881086531941</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.46954405888461</v>
+        <v>31.46954405888458</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2.827634959545282</v>
+        <v>2.827634959545325</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>38.08674484957284</v>
+        <v>38.08674484957289</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.02167134668879</v>
+        <v>38.02167134668886</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8.664485913789434</v>
+        <v>8.664485913789449</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>67.88440262916892</v>
+        <v>67.88440262916895</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>66.0822415906632</v>
+        <v>66.08224159066323</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.51818735683113</v>
+        <v>53.51818735683119</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>65.96553115573271</v>
+        <v>65.96553115573269</v>
       </c>
     </row>
     <row r="236">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5.987914325836318</v>
+        <v>5.987914325836375</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6.935928190902747</v>
+        <v>6.935928190902839</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>7.473253818854396</v>
+        <v>7.473253818854442</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.66089174607722</v>
+        <v>15.6608917460772</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.53986092408219</v>
+        <v>43.53986092408222</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>45.82955254750859</v>
+        <v>45.82955254750863</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4.651896586804426</v>
+        <v>4.651896586804494</v>
       </c>
     </row>
     <row r="244">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>44.7071338700938</v>
+        <v>44.70713387009383</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.779093966994804</v>
+        <v>4.779093966994779</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>66.61584502802162</v>
+        <v>66.61584502802165</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>69.2259921852025</v>
+        <v>69.22599218520247</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>52.88120644967347</v>
+        <v>52.88120644967346</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>69.12961789992332</v>
+        <v>69.1296178999233</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>78.569513019505</v>
+        <v>78.56951301950492</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.56366266712928</v>
+        <v>17.56366266712929</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>68.49390841470392</v>
+        <v>68.49390841470385</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>71.14102209603539</v>
+        <v>71.1410220960354</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.42167521238399</v>
+        <v>19.421675212384</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>4.018061169861227</v>
+        <v>4.018061169861198</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>37.95005990930619</v>
+        <v>37.95005990930616</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.71811047339835</v>
+        <v>42.71811047339838</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.374128555236222</v>
+        <v>8.374128555236172</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>68.35604202055583</v>
+        <v>68.3560420205558</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>76.942559114652</v>
+        <v>76.94255911465204</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>71.46217168260495</v>
+        <v>71.462171682605</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>83.69951176264293</v>
+        <v>83.69951176264286</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>90.31733371753</v>
+        <v>90.31733371752996</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.66416757104084</v>
+        <v>16.6641675710408</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>75.45906888304958</v>
+        <v>75.45906888304955</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>78.10671987976298</v>
+        <v>78.10671987976306</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2.257624270446073</v>
+        <v>2.257624270446083</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>6.346286288786715</v>
+        <v>6.346286288786754</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8.877926122335062</v>
+        <v>8.877926122335037</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-3.111813795742634</v>
+        <v>-3.111813795742624</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.2039679940455</v>
+        <v>12.20396799404548</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.12633317616164</v>
+        <v>12.1263331761617</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-0.04901408486124836</v>
+        <v>-0.04901408486128389</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.85109101541386</v>
+        <v>18.8510910154138</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>21.01168218795985</v>
+        <v>21.01168218795976</v>
       </c>
     </row>
     <row r="277">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.205903719118</v>
+        <v>29.20590371911795</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.64198470970705</v>
+        <v>29.64198470970712</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>2.434927981686126</v>
+        <v>2.434927981686091</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>8.095591355070955</v>
+        <v>8.09559135507094</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>10.0845860631906</v>
+        <v>10.08458606319048</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>8.767811545845657</v>
+        <v>8.767811545845639</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.00629125104777</v>
+        <v>25.00629125104778</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.74743566268529</v>
+        <v>32.74743566268532</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>3.409229181029737</v>
+        <v>3.409229181029755</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.97015956125088</v>
+        <v>19.97015956125089</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.57079359376425</v>
+        <v>30.57079359376423</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6.885109586949493</v>
+        <v>6.885109586949511</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>33.06631629046945</v>
+        <v>33.06631629046946</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>51.57534690109765</v>
+        <v>51.57534690109769</v>
       </c>
     </row>
     <row r="292">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>49.99479892945153</v>
+        <v>49.99479892945158</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>57.05581812140493</v>
+        <v>57.05581812140488</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>8.191491380800588</v>
+        <v>8.191491380800571</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.58479080486393</v>
+        <v>41.58479080486394</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>49.94415297373862</v>
+        <v>49.94415297373871</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.237812610311956</v>
+        <v>9.237812610311938</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.72173425914772</v>
+        <v>29.72173425914769</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>38.58309270660865</v>
+        <v>38.5830927066086</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>2.453798453551094</v>
+        <v>2.453798453551073</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.03928844765083</v>
+        <v>30.03928844765079</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.1509714055986</v>
+        <v>36.15097140559863</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>6.285564111768021</v>
+        <v>6.285564111768</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>49.1241054122613</v>
+        <v>49.12410541226127</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>60.79022762567172</v>
+        <v>60.79022762567178</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>61.82100148605117</v>
+        <v>61.82100148605122</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>73.41825883277713</v>
+        <v>73.41825883277711</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>77.94502404362095</v>
+        <v>77.94502404362086</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>10.61262333534091</v>
+        <v>10.61262333534092</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>60.86938703262206</v>
+        <v>60.8693870326221</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>72.12777181339024</v>
+        <v>72.1277718133902</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1.419249765826407</v>
+        <v>1.419249765826397</v>
       </c>
     </row>
     <row r="314">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>10.46207063082404</v>
+        <v>10.46207063082409</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-2.800341742315211</v>
+        <v>-2.800341742315183</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>9.917718384617729</v>
+        <v>9.917718384617611</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>11.45215462023206</v>
+        <v>11.45215462023204</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.142992907279627</v>
+        <v>0.1429929072796199</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.40302158643015</v>
+        <v>16.40302158643016</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>15.13771397364286</v>
+        <v>15.13771397364296</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.79155988492639</v>
+        <v>14.79155988492622</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.74478813967339</v>
+        <v>16.74478813967344</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.66547629175735</v>
+        <v>16.66547629175719</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>4.469662642315221</v>
+        <v>4.469662642315228</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.03562024201656</v>
+        <v>12.03562024201646</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>11.84375387965529</v>
+        <v>11.84375387965528</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>1.33143327466437</v>
+        <v>1.33143327466442</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7.318000967211972</v>
+        <v>7.318000967211976</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>17.89422892950129</v>
+        <v>17.89422892950127</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-2.898321399700524</v>
+        <v>-2.8983213997004</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>2.315553859102213</v>
+        <v>2.315553859102149</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.55330790032933</v>
+        <v>12.55330790032931</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.1766342270658967</v>
+        <v>0.1766342270659251</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.251191355591</v>
+        <v>10.2511913555909</v>
       </c>
     </row>
     <row r="336">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.61633198352983</v>
+        <v>14.61633198352969</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.42935321112694</v>
+        <v>24.4293532111271</v>
       </c>
     </row>
     <row r="339">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-1.098507713664805</v>
+        <v>-1.09850771366483</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.60369505902911</v>
+        <v>13.60369505902909</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>14.17599824363999</v>
+        <v>14.17599824363995</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5.656990004152249</v>
+        <v>5.656990004152217</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>11.60789675148646</v>
+        <v>11.60789675148649</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.71927158374737</v>
+        <v>29.71927158374738</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-4.704350497378361</v>
+        <v>-4.704350497378353</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>5.113695069290824</v>
+        <v>5.113695069290781</v>
       </c>
     </row>
     <row r="348">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.7609399037847027</v>
+        <v>-0.7609399037847489</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.87910843589926</v>
+        <v>14.8791084358993</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>51.48949607446806</v>
+        <v>51.48949607446804</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.60756972357807</v>
+        <v>20.60756972357814</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>48.53633502693715</v>
+        <v>48.53633502693714</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.41628058099869</v>
+        <v>66.41628058099866</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-3.812365313692414</v>
+        <v>-3.812365313692386</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>12.36525814227498</v>
+        <v>12.36525814227506</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>23.0596733369588</v>
+        <v>23.05967333695878</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>9.289032597001995</v>
+        <v>9.289032597001999</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.72584688907706</v>
+        <v>22.72584688907709</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>35.48777953946635</v>
+        <v>35.48777953946636</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>5.533793666109752</v>
+        <v>5.533793666109815</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>45.06693317489451</v>
+        <v>45.06693317489445</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>46.24057107390429</v>
+        <v>46.24057107390431</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.747985333360315</v>
+        <v>7.747985333360312</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>67.05320646205323</v>
+        <v>67.0532064620532</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>68.17807084530999</v>
+        <v>68.17807084531005</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>59.5099310347785</v>
+        <v>59.50993103477843</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>67.38456633317865</v>
+        <v>67.3845663331786</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>65.09766988651059</v>
+        <v>65.09766988651054</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.74891030950637</v>
+        <v>22.74891030950639</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.87119985260546</v>
+        <v>40.87119985260542</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>66.56533777403808</v>
+        <v>66.56533777403817</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>10.0807622425256</v>
+        <v>10.08076224252562</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.7715338053101</v>
+        <v>32.77153380531009</v>
       </c>
     </row>
     <row r="375">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2.558454883687556</v>
+        <v>2.558454883687592</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.7285178402509</v>
+        <v>29.72851784025091</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.1263819273188</v>
+        <v>35.12638192731877</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3.677908587078971</v>
+        <v>3.677908587078949</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>50.2616340232269</v>
+        <v>50.26163402322692</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>55.94839764775191</v>
+        <v>55.94839764775197</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>48.24235504641334</v>
+        <v>48.24235504641332</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>56.95932672104161</v>
+        <v>56.95932672104169</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>62.54060307129693</v>
+        <v>62.54060307129687</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>16.26915321725771</v>
+        <v>16.2691532172577</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>55.4576378478465</v>
+        <v>55.4576378478466</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.74620308776895</v>
+        <v>57.74620308776896</v>
       </c>
     </row>
     <row r="388">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.65193377425585</v>
+        <v>35.65193377425588</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>44.12291692545762</v>
+        <v>44.12291692545765</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>4.200909149390959</v>
+        <v>4.200909149391009</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>39.21131239284348</v>
+        <v>39.21131239284349</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.42065315402741</v>
+        <v>43.42065315402743</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.634867133561286</v>
+        <v>8.634867133561229</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>62.99667692193194</v>
+        <v>62.99667692193196</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>74.4387265972574</v>
+        <v>74.43872659725744</v>
       </c>
     </row>
     <row r="397">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>78.76767130613035</v>
+        <v>78.7676713061303</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>83.10658678600551</v>
+        <v>83.10658678600539</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16.48827942391831</v>
+        <v>16.48827942391834</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>68.90467141928407</v>
+        <v>68.90467141928406</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>78.22977545391885</v>
+        <v>78.22977545391892</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.29205075242837</v>
+        <v>4.292050752428331</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>10.3479411334832</v>
+        <v>10.34794113348315</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>13.19564953133554</v>
+        <v>13.19564953133555</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.79611365984735</v>
+        <v>-1.796113659847347</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>8.978813925834309</v>
+        <v>8.978813925834331</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.56192061912851</v>
+        <v>10.56192061912846</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1.495400171150592</v>
+        <v>1.495400171150571</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.69618483339355</v>
+        <v>16.6961848333935</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.52689911521417</v>
+        <v>19.52689911521418</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.57955077237964</v>
+        <v>17.57955077237962</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.404983687291</v>
+        <v>21.40498368729099</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>24.68615239703776</v>
+        <v>24.68615239703781</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>3.705894072336715</v>
+        <v>3.705894072336736</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>13.36611313672583</v>
+        <v>13.36611313672588</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>13.99835279086683</v>
+        <v>13.99835279086677</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>5.523243246359502</v>
+        <v>5.523243246359513</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>15.44645988328087</v>
+        <v>15.44645988328085</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.82596379572329</v>
+        <v>27.82596379572334</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-0.606887480518516</v>
+        <v>-0.606887480518548</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>7.484793082634713</v>
+        <v>7.48479308263472</v>
       </c>
     </row>
     <row r="423">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>1.276228427139085</v>
+        <v>1.276228427139081</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>12.35605012660909</v>
+        <v>12.35605012660911</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>41.58207430429135</v>
+        <v>41.58207430429137</v>
       </c>
     </row>
     <row r="427">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.87768117397045</v>
+        <v>28.87768117397053</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>41.064758403815</v>
+        <v>41.06475840381503</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>2.080638238300697</v>
+        <v>2.080638238300722</v>
       </c>
     </row>
     <row r="431">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.80254126568181</v>
+        <v>35.80254126568185</v>
       </c>
     </row>
     <row r="433">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.43416612421433</v>
+        <v>23.43416612421432</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.06965837385552</v>
+        <v>37.0696583738555</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.10763652475401</v>
+        <v>3.107636524754025</v>
       </c>
     </row>
     <row r="437">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.8739568502988</v>
+        <v>29.87395685029882</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>8.733931451582659</v>
+        <v>8.733931451582656</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.06780314953643</v>
+        <v>29.06780314953642</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>54.01001625178363</v>
+        <v>54.01001625178359</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.95152461377154</v>
+        <v>32.95152461377152</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>42.76024576211256</v>
+        <v>42.76024576211265</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>68.27988373282257</v>
+        <v>68.27988373282254</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>15.95929812546974</v>
+        <v>15.95929812546981</v>
       </c>
     </row>
     <row r="446">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>53.40796203269407</v>
+        <v>53.40796203269403</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>0.5405859420178096</v>
+        <v>0.5405859420177883</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>0.7063016348332951</v>
+        <v>0.7063016348332631</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>6.379640526011151</v>
+        <v>6.379640526011102</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-4.750592333299874</v>
+        <v>-4.750592333299952</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.651838004919167</v>
+        <v>2.651838004919128</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>4.348353972198108</v>
+        <v>4.348353972198105</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>3.739455363606801</v>
+        <v>3.739455363606819</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.47020430316829</v>
+        <v>12.47020430316841</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.6330237299907</v>
+        <v>12.63302372999073</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>3.756783630000523</v>
+        <v>3.756783630000488</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.149631874718455</v>
+        <v>4.149631874718406</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.41414253371212</v>
+        <v>17.41414253371209</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-2.657725720842038</v>
+        <v>-2.657725720842027</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-1.777364359316842</v>
+        <v>-1.777364359316771</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>4.540888034683544</v>
+        <v>4.540888034683586</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.61772631849617</v>
+        <v>16.61772631849618</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>35.22746988495292</v>
+        <v>35.2274698849529</v>
       </c>
     </row>
     <row r="465">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>4.862173888063378</v>
+        <v>4.862173888063428</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.5769924251714</v>
+        <v>26.57699242517139</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.2719165305483</v>
+        <v>34.27191653054825</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>9.730999098306967</v>
+        <v>9.730999098306988</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.04306639338436</v>
+        <v>51.04306639338435</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>57.86871433579407</v>
+        <v>57.86871433579404</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>48.33804426752373</v>
+        <v>48.33804426752367</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>55.86958608987366</v>
+        <v>55.86958608987354</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>61.53444986239924</v>
+        <v>61.5344498623992</v>
       </c>
     </row>
     <row r="475">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>51.73649925199088</v>
+        <v>51.73649925199085</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.34608501583959</v>
+        <v>53.34608501583971</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.13517968481158</v>
+        <v>18.13517968481157</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.97356786589278</v>
+        <v>38.97356786589275</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>47.25939695413915</v>
+        <v>47.25939695413908</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>2.902740628894126</v>
+        <v>2.90274062889414</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.02930848937626</v>
+        <v>34.02930848937628</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.0162831099605</v>
+        <v>39.01628310996053</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.890449287342904</v>
+        <v>8.8904492873429</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>62.04922270334303</v>
+        <v>62.04922270334296</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>70.18187463784854</v>
+        <v>70.18187463784859</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>66.991001972395</v>
+        <v>66.99100197239498</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>77.43522162084538</v>
+        <v>77.43522162084541</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>83.11918675734709</v>
+        <v>83.11918675734699</v>
       </c>
     </row>
     <row r="490">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>66.06191176880463</v>
+        <v>66.06191176880462</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>69.80053348507458</v>
+        <v>69.80053348507457</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>9.333204792048384</v>
+        <v>9.333204792048395</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>13.9122100785571</v>
+        <v>13.91221007855716</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>16.28831278551642</v>
+        <v>16.28831278551645</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0.2604559897748686</v>
+        <v>0.2604559897749219</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.84925905004774</v>
+        <v>14.84925905004775</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>14.21462370521858</v>
+        <v>14.21462370521863</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>8.881809956446769</v>
+        <v>8.881809956446805</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.9333916119177</v>
+        <v>25.93339161191777</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.8932987280049</v>
+        <v>23.89329872800494</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.77309090462172</v>
+        <v>24.77309090462176</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.69255145313964</v>
+        <v>28.69255145313974</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.70182345257679</v>
+        <v>29.7018234525768</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>10.67489858514847</v>
+        <v>10.67489858514845</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.84163007514026</v>
+        <v>16.84163007514029</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>18.68566960906789</v>
+        <v>18.68566960906788</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>3.636105080608445</v>
+        <v>3.636105080608417</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.1421139338165</v>
+        <v>12.14211393381646</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>19.22269303240988</v>
+        <v>19.22269303240993</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-4.750528618242178</v>
+        <v>-4.750528618242239</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>2.580794444532902</v>
+        <v>2.580794444532945</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.8110699440551</v>
+        <v>13.81106994405508</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-3.703871296759278</v>
+        <v>-3.703871296759271</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>9.607652789371045</v>
+        <v>9.607652789370995</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.01765617669367</v>
+        <v>28.01765617669358</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.17909035262671</v>
+        <v>13.17909035262677</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.29761835074851</v>
+        <v>20.29761835074846</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.762637250299</v>
+        <v>29.76263725029905</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-3.023197819602704</v>
+        <v>-3.023197819602675</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>15.09229399648251</v>
+        <v>15.09229399648249</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.33361227578919</v>
+        <v>20.33361227578914</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>15.09506614882492</v>
+        <v>15.09506614882496</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.6459797877228</v>
+        <v>28.64597978772283</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.11940595778284</v>
+        <v>34.11940595778282</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-0.2198994451269023</v>
+        <v>-0.2198994451268774</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.59598438945465</v>
+        <v>19.59598438945466</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24.40623314101288</v>
+        <v>24.40623314101286</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.1852572999519</v>
+        <v>5.185257299951896</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>37.97145344822604</v>
+        <v>37.97145344822606</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.88607597421512</v>
+        <v>48.88607597421516</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>44.35023100607175</v>
+        <v>44.35023100607172</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.40297830974879</v>
+        <v>48.40297830974876</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>62.51460218172529</v>
+        <v>62.51460218172522</v>
       </c>
     </row>
     <row r="535">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.61530498105568</v>
+        <v>40.61530498105575</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>44.38446848058896</v>
+        <v>44.38446848058894</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>3.595991047193046</v>
+        <v>3.595991047193014</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>4.158857229611531</v>
+        <v>4.158857229611527</v>
       </c>
     </row>
     <row r="540">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2.686047866785653</v>
+        <v>-2.686047866785625</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.049751617563164</v>
+        <v>4.049751617563167</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>3.221176690020194</v>
+        <v>3.221176690020254</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>5.062765290772901</v>
+        <v>5.062765290772905</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.58987227951277</v>
+        <v>10.5898722795128</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.87981671479211</v>
+        <v>8.879816714792032</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>6.483611846973417</v>
+        <v>6.483611846973378</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.161333048834738</v>
+        <v>5.161333048834781</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.82865471090127</v>
+        <v>10.82865471090128</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.510204361892061</v>
+        <v>5.51020436189199</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.380964627470146</v>
+        <v>6.380964627470039</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>7.168608262386858</v>
+        <v>7.168608262386819</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>0.4311228206693443</v>
+        <v>0.4311228206693478</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.006486530658599</v>
+        <v>5.00648653065856</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>5.852439078031072</v>
+        <v>5.852439078031082</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.035004026647208</v>
+        <v>-4.035004026647197</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-2.851807320589582</v>
+        <v>-2.851807320589625</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>2.550908133461974</v>
+        <v>2.550908133462013</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-3.100841709112981</v>
+        <v>-3.10084170911303</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.678070311112119</v>
+        <v>3.678070311112126</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.215450503993061</v>
+        <v>7.215450503993083</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>4.654767526437134</v>
+        <v>4.654767526437155</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.483125500421448</v>
+        <v>7.483125500421405</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>7.313926198908632</v>
+        <v>7.313926198908749</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-4.215437831569783</v>
+        <v>-4.21543783156979</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.906929097413485</v>
+        <v>3.906929097413435</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>4.443942119530128</v>
+        <v>4.443942119530139</v>
       </c>
     </row>
     <row r="568">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.91427961059676</v>
+        <v>25.91427961059674</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>1.659411676491178</v>
+        <v>1.659411676491128</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.11007584834064</v>
+        <v>13.11007584834062</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>16.12877467890581</v>
+        <v>16.12877467890583</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.61608712303028</v>
+        <v>7.616087123030294</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.83148483252189</v>
+        <v>29.83148483252186</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.83816719261646</v>
+        <v>32.8381671926165</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>32.701926490617</v>
+        <v>32.70192649061701</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.19481527812218</v>
+        <v>34.19481527812223</v>
       </c>
     </row>
     <row r="579">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>20.88986861959069</v>
+        <v>20.88986861959065</v>
       </c>
     </row>
     <row r="581">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.35578401218708</v>
+        <v>31.35578401218709</v>
       </c>
     </row>
     <row r="583">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.7831446894042</v>
+        <v>30.78314468940422</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.42901076218716</v>
+        <v>36.42901076218718</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.599207364125419</v>
+        <v>4.599207364125434</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.86021362451065</v>
+        <v>23.86021362451059</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.40945413997484</v>
+        <v>29.40945413997488</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.76343825489212</v>
+        <v>13.7634382548921</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>45.41169767570057</v>
+        <v>45.41169767570067</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>48.86953677062369</v>
+        <v>48.86953677062365</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>42.93002545690854</v>
+        <v>42.93002545690848</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>49.97981815320904</v>
+        <v>49.97981815320895</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>52.57970233874676</v>
+        <v>52.57970233874673</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.42559095731936</v>
+        <v>29.42559095731946</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>56.62477012057774</v>
+        <v>56.62477012057782</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>58.27725797494197</v>
+        <v>58.27725797494198</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.36959565941282</v>
+        <v>11.36959565941276</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.25469072842629</v>
+        <v>24.25469072842626</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.88494257124983</v>
+        <v>29.88494257124981</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-1.909084603310749</v>
+        <v>-1.909084603310681</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>9.763514575758308</v>
+        <v>9.763514575758293</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.89282423002298</v>
+        <v>15.89282423002293</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.285447732499676</v>
+        <v>3.285447732499705</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.59803089762857</v>
+        <v>26.59803089762866</v>
       </c>
     </row>
     <row r="606">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.82004454610122</v>
+        <v>29.82004454610118</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.37231683557507</v>
+        <v>36.37231683557506</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>44.81855223252364</v>
+        <v>44.81855223252361</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>15.83029344264721</v>
+        <v>15.83029344264724</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>41.81198596384106</v>
+        <v>41.81198596384103</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>47.26005952922008</v>
+        <v>47.26005952922013</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.97575010926971</v>
+        <v>21.9757501092697</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>37.33476670631754</v>
+        <v>37.33476670631752</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>46.16585398269748</v>
+        <v>46.16585398269746</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>3.303567043603607</v>
+        <v>3.303567043603717</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.36813665298413</v>
+        <v>24.36813665298416</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.42410982543653</v>
+        <v>30.42410982543656</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>12.45170872370144</v>
+        <v>12.45170872370141</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>48.82270024396806</v>
+        <v>48.82270024396809</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>60.63773366562988</v>
+        <v>60.63773366562984</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>62.70583926378774</v>
+        <v>62.70583926378781</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>68.76261430213368</v>
+        <v>68.7626143021336</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>73.60556991414359</v>
+        <v>73.60556991414364</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.9835239699222</v>
+        <v>28.98352396992217</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>58.60053003064452</v>
+        <v>58.60053003064455</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>68.2115309304306</v>
+        <v>68.21153093043056</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>14.23320084977264</v>
+        <v>14.23320084977262</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.89679235481037</v>
+        <v>32.89679235481033</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>38.44158365296527</v>
+        <v>38.44158365296534</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>5.823034981846853</v>
+        <v>5.823034981846924</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.69907615540774</v>
+        <v>37.69907615540782</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.79234530928944</v>
+        <v>38.79234530928952</v>
       </c>
     </row>
     <row r="634">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>58.18650736686992</v>
+        <v>58.18650736686988</v>
       </c>
     </row>
     <row r="636">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>69.23687781321502</v>
+        <v>69.23687781321513</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>67.0405553528194</v>
+        <v>67.0405553528193</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.11909334543096</v>
+        <v>13.119093345431</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.6567312142503</v>
+        <v>41.65673121425036</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>50.21519980227801</v>
+        <v>50.2151998022781</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>9.550345786093878</v>
+        <v>9.550345786093906</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.70750411880133</v>
+        <v>29.70750411880134</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.91730755011233</v>
+        <v>34.91730755011239</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>4.398561603974414</v>
+        <v>4.398561603974464</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.91942314896814</v>
+        <v>23.91942314896819</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.83488984991293</v>
+        <v>33.834889849913</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>7.634372436101433</v>
+        <v>7.634372436101451</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>40.87242472093929</v>
+        <v>40.87242472093923</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>54.34297533294517</v>
+        <v>54.34297533294519</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.52180974616996</v>
+        <v>45.52180974616993</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>52.81263668227089</v>
+        <v>52.81263668227092</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>60.75705362636216</v>
+        <v>60.75705362636222</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>6.939103201190804</v>
+        <v>6.939103201190811</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.5256188949594</v>
+        <v>47.52561889495952</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.59632522576476</v>
+        <v>52.59632522576477</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.151256267030547</v>
+        <v>9.151256267030568</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.70103126017287</v>
+        <v>30.70103126017288</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.99600474806088</v>
+        <v>40.9960047480608</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>2.853727307574044</v>
+        <v>2.853727307574083</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.83240005074808</v>
+        <v>28.8324000507481</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.50396167546157</v>
+        <v>38.5039616754616</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.343022530511146</v>
+        <v>6.343022530511139</v>
       </c>
     </row>
     <row r="665">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.24529474061231</v>
+        <v>56.24529474061232</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>68.0061592711061</v>
+        <v>68.00615927110611</v>
       </c>
     </row>
     <row r="669">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>5.819908455380503</v>
+        <v>5.819908455380517</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>56.14034209836097</v>
+        <v>56.14034209836103</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>66.76993521224948</v>
+        <v>66.76993521224952</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>8.563047586477452</v>
+        <v>8.563047586477484</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>24.69355596555015</v>
+        <v>24.69355596555018</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.76631593822466</v>
+        <v>34.76631593822481</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>5.170919870171257</v>
+        <v>5.170919870171289</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>42.31044573617669</v>
+        <v>42.31044573617665</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.73804670039962</v>
+        <v>47.73804670039949</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>8.288887915041318</v>
+        <v>8.288887915041268</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>68.03136250291666</v>
+        <v>68.03136250291654</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>67.22077790682887</v>
+        <v>67.22077790682899</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>61.86963441051579</v>
+        <v>61.86963441051594</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>61.54106011499498</v>
+        <v>61.54106011499493</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>62.98715653006147</v>
+        <v>62.98715653006155</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.241889769062265</v>
+        <v>9.24188976906235</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.82228261320181</v>
+        <v>32.82228261320191</v>
       </c>
     </row>
     <row r="687">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.06784080950534</v>
+        <v>32.06784080950538</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.0081666681285</v>
+        <v>37.00816666812848</v>
       </c>
     </row>
     <row r="691">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.92877973537436</v>
+        <v>25.92877973537431</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.89578553785022</v>
+        <v>34.89578553785024</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1.030517764017066</v>
+        <v>1.030517764017038</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>47.62995028181127</v>
+        <v>47.6299502818112</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>55.56074404077415</v>
+        <v>55.56074404077417</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>45.02917549626237</v>
+        <v>45.02917549626238</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.93167343651349</v>
+        <v>54.93167343651342</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>62.70624596874752</v>
+        <v>62.7062459687476</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>6.740618784187561</v>
+        <v>6.740618784187532</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>49.70938971410132</v>
+        <v>49.70938971410136</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>57.01471531112071</v>
+        <v>57.01471531112083</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>12.38299541492554</v>
+        <v>12.38299541492557</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.70460001464184</v>
+        <v>34.70460001464185</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.68163968712287</v>
+        <v>43.68163968712285</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>2.173115816293549</v>
+        <v>2.17311581629361</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.79372009787281</v>
+        <v>33.79372009787286</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.50314289491452</v>
+        <v>42.50314289491453</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>3.559910082844379</v>
+        <v>3.559910082844375</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>56.33311294176391</v>
+        <v>56.33311294176387</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>68.60045058796824</v>
+        <v>68.60045058796821</v>
       </c>
     </row>
     <row r="712">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>79.96607943910526</v>
+        <v>79.96607943910539</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>83.41308555129822</v>
+        <v>83.41308555129818</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>9.171481689308674</v>
+        <v>9.171481689308727</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>63.81071849896369</v>
+        <v>63.81071849896379</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>72.1557987883898</v>
+        <v>72.15579878838986</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>16.96769597350965</v>
+        <v>16.96769597350973</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>24.08910091994574</v>
+        <v>24.08910091994572</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>37.47463540651951</v>
+        <v>37.47463540651952</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>13.12245321961225</v>
+        <v>13.12245321961231</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>50.94643624751983</v>
+        <v>50.94643624751985</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>55.18606260042544</v>
+        <v>55.18606260042552</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.25294900647508</v>
+        <v>16.25294900647499</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>67.37710923609323</v>
+        <v>67.37710923609305</v>
       </c>
     </row>
     <row r="726">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>59.20715925827575</v>
+        <v>59.20715925827591</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>59.34091592516567</v>
+        <v>59.34091592516563</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>59.81184416458706</v>
+        <v>59.81184416458704</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>17.02185649023614</v>
+        <v>17.02185649023611</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.4505307923899</v>
+        <v>29.45053079238989</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>51.28589766719172</v>
+        <v>51.28589766719162</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>23.10272706766141</v>
+        <v>23.10272706766139</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.89104341589264</v>
+        <v>34.89104341589261</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.26284938484891</v>
+        <v>41.26284938484893</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.58262368217834</v>
+        <v>34.58262368217841</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>48.99576688077766</v>
+        <v>48.99576688077755</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>59.32126453856912</v>
+        <v>59.3212645385692</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>12.6178718678479</v>
+        <v>12.61787186784785</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>48.68372928532332</v>
+        <v>48.68372928532351</v>
       </c>
     </row>
     <row r="741">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.20523710185623</v>
+        <v>47.20523710185621</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>54.91516388822888</v>
+        <v>54.91516388822892</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>60.22840437864484</v>
+        <v>60.22840437864477</v>
       </c>
     </row>
     <row r="745">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>51.65816886093017</v>
+        <v>51.65816886093012</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>58.5824199238719</v>
+        <v>58.58241992387192</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>23.20402910605203</v>
+        <v>23.20402910605202</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.86243725805342</v>
+        <v>38.86243725805343</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>44.14947884466946</v>
+        <v>44.14947884466942</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.87702803699378</v>
+        <v>35.8770280369939</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>56.27741945312906</v>
+        <v>56.27741945312913</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>61.41689008168599</v>
+        <v>61.41689008168602</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.66367319538337</v>
+        <v>16.66367319538344</v>
       </c>
     </row>
     <row r="755">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>71.76921707963169</v>
+        <v>71.7692170796316</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>78.11526011380151</v>
+        <v>78.11526011380147</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>79.78284607931859</v>
+        <v>79.78284607931866</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>83.36165906708291</v>
+        <v>83.36165906708287</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.56622099026483</v>
+        <v>26.56622099026491</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>66.25394789431596</v>
+        <v>66.25394789431594</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>75.85255926381396</v>
+        <v>75.85255926381411</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.33101304598129</v>
+        <v>8.331013045981297</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.49223417338851</v>
+        <v>26.49223417338853</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.71662176216085</v>
+        <v>35.71662176216088</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3.336387390126955</v>
+        <v>3.336387390127015</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.47946622439124</v>
+        <v>27.47946622439131</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>34.27779873644455</v>
+        <v>34.27779873644457</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.771760818828287</v>
+        <v>8.771760818828241</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>53.17100446917456</v>
+        <v>53.1710044691746</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>57.50425205057154</v>
+        <v>57.50425205057151</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>60.07054249083073</v>
+        <v>60.07054249083072</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>61.41157411387921</v>
+        <v>61.41157411387925</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.01233533392212</v>
+        <v>62.0123353339221</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>6.982587845180991</v>
+        <v>6.982587845180912</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>41.97100468020408</v>
+        <v>41.97100468020414</v>
       </c>
     </row>
     <row r="777">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.53696174789141</v>
+        <v>10.53696174789144</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.13964292675471</v>
+        <v>33.13964292675472</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>36.44730874801113</v>
+        <v>36.4473087480111</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>4.057390252508881</v>
+        <v>4.057390252508906</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.55850897506759</v>
+        <v>27.55850897506761</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.18045775065403</v>
+        <v>34.18045775065406</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>5.988751804555175</v>
+        <v>5.988751804555172</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>45.12545939112857</v>
+        <v>45.12545939112854</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>55.74701171246298</v>
+        <v>55.74701171246303</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>45.22800491380404</v>
+        <v>45.22800491380406</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>54.82876095770048</v>
+        <v>54.82876095770055</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>61.05681412055135</v>
+        <v>61.05681412055128</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>7.256210549649641</v>
+        <v>7.256210549649627</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>45.86950684416811</v>
+        <v>45.86950684416819</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>54.23283271215656</v>
+        <v>54.23283271215655</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>9.659078342427236</v>
+        <v>9.659078342427215</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.86052144887701</v>
+        <v>31.86052144887706</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>41.89911477494918</v>
+        <v>41.89911477494919</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1.352626813274703</v>
+        <v>1.352626813274707</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.17922587395981</v>
+        <v>28.17922587395979</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.60851521628264</v>
+        <v>36.60851521628268</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>4.053448382713565</v>
+        <v>4.053448382713562</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.1241238617941</v>
+        <v>47.12412386179403</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>66.31567765138016</v>
+        <v>66.31567765138023</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>59.7536053094331</v>
+        <v>59.75360530943306</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>73.00748555896442</v>
+        <v>73.00748555896445</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>82.00116017828203</v>
+        <v>82.00116017828208</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>5.600736326296683</v>
+        <v>5.600736326296655</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>59.25367895303185</v>
+        <v>59.25367895303192</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>68.43627247868659</v>
+        <v>68.43627247868662</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>9.407415826801387</v>
+        <v>9.407415826801412</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>13.71583203604393</v>
+        <v>13.71583203604394</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>17.07600457645216</v>
+        <v>17.07600457645212</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1.155412141019102</v>
+        <v>1.155412141019124</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>15.35276074046705</v>
+        <v>15.35276074046706</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.73467926521041</v>
+        <v>16.7346792652105</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7.87838796307793</v>
+        <v>7.878387963077945</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.52873755449671</v>
+        <v>26.52873755449678</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.58708720531622</v>
+        <v>28.58708720531623</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.26885740415797</v>
+        <v>24.26885740415795</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.73194998148167</v>
+        <v>27.73194998148172</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.67576287975577</v>
+        <v>30.67576287975578</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>10.99016039860426</v>
+        <v>10.99016039860422</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.27888015310719</v>
+        <v>18.27888015310722</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.46329045337793</v>
+        <v>22.46329045337787</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>7.992981126443087</v>
+        <v>7.992981126443077</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.46632901819528</v>
+        <v>20.46632901819527</v>
       </c>
     </row>
     <row r="825">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1.765572042186484</v>
+        <v>1.765572042186463</v>
       </c>
     </row>
     <row r="827">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.85113463906017</v>
+        <v>26.85113463906012</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>3.768917947574842</v>
+        <v>3.768917947574828</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.43790459593284</v>
+        <v>24.4379045959328</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.73780023740297</v>
+        <v>44.73780023740307</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.06910204747471</v>
+        <v>28.06910204747466</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>38.91116237956162</v>
+        <v>38.91116237956159</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>52.26707186601486</v>
+        <v>52.26707186601487</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>5.356492985045165</v>
+        <v>5.356492985045122</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.92779218316763</v>
+        <v>33.92779218316759</v>
       </c>
     </row>
     <row r="837">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.29311445498787</v>
+        <v>14.29311445498785</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.60531689904776</v>
+        <v>28.60531689904773</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>39.37256832266365</v>
+        <v>39.37256832266363</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>3.126650101304364</v>
+        <v>3.126650101304346</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.82433132702714</v>
+        <v>22.82433132702715</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.46815253399656</v>
+        <v>35.4681525339966</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>8.40130032750303</v>
+        <v>8.401300327502994</v>
       </c>
     </row>
     <row r="845">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>57.95819447582404</v>
+        <v>57.9581944758241</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>48.19361815174787</v>
+        <v>48.19361815174789</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>56.32579329067698</v>
+        <v>56.32579329067703</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>67.43108865273571</v>
+        <v>67.43108865273572</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>5.19678566039013</v>
+        <v>5.196785660390102</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.1484852545219</v>
+        <v>40.14848525452192</v>
       </c>
     </row>
     <row r="852">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>15.19656457290678</v>
+        <v>15.19656457290674</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>20.85162873598005</v>
+        <v>20.85162873597994</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.31653181023767</v>
+        <v>26.31653181023758</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1.904687999032948</v>
+        <v>1.904687999032934</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.68749324791454</v>
+        <v>29.68749324791451</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.69691918335309</v>
+        <v>31.696919183353</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>13.01313756669868</v>
+        <v>13.01313756669873</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>46.33454546030554</v>
+        <v>46.33454546030561</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>47.98811246970266</v>
+        <v>47.98811246970271</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.06480514301244</v>
+        <v>36.06480514301242</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.61443928075282</v>
+        <v>40.61443928075286</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.85429084673594</v>
+        <v>43.85429084673591</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>9.80636401916151</v>
+        <v>9.806364019161578</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.58633368504783</v>
+        <v>37.58633368504785</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.65063754746572</v>
+        <v>42.65063754746579</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.14873002536234</v>
+        <v>10.14873002536235</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.43033497313309</v>
+        <v>24.43033497313308</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.4725986304158</v>
+        <v>34.47259863041575</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>3.344885896165579</v>
+        <v>3.344885896165508</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.67689337033534</v>
+        <v>20.67689337033536</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>40.51542264130069</v>
+        <v>40.51542264130074</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2.469439533416491</v>
+        <v>2.469439533416573</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.15983809207324</v>
+        <v>32.15983809207327</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>50.23731144818012</v>
+        <v>50.23731144818011</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.48086587471656</v>
+        <v>29.48086587471662</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>41.20441892738217</v>
+        <v>41.20441892738215</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>57.86734755436285</v>
+        <v>57.86734755436287</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.617586198446464</v>
+        <v>6.617586198446425</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>39.18456013825182</v>
+        <v>39.18456013825178</v>
       </c>
     </row>
     <row r="882">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>13.81150938514996</v>
+        <v>13.81150938514999</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.63483840313912</v>
+        <v>27.63483840313913</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.77087349613304</v>
+        <v>34.77087349613309</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>3.383922985816167</v>
+        <v>3.383922985816071</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.32557525436458</v>
+        <v>25.32557525436469</v>
       </c>
     </row>
     <row r="888">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.398782548093113</v>
+        <v>7.398782548093099</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>43.11356157047215</v>
+        <v>43.1135615704721</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>53.72356909625113</v>
+        <v>53.72356909625123</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>53.1051394336224</v>
+        <v>53.10513943362237</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>58.35258127940054</v>
+        <v>58.35258127940033</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>69.8115308263402</v>
+        <v>69.81153082634029</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>4.885267427374586</v>
+        <v>4.885267427374544</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>37.61188377010804</v>
+        <v>37.61188377010792</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>57.63878217374463</v>
+        <v>57.63878217374462</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>16.7130969810505</v>
+        <v>16.71309698105055</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.68018674237751</v>
+        <v>28.68018674237749</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.32300412930714</v>
+        <v>36.32300412930719</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>5.837317475293968</v>
+        <v>5.837317475294075</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>42.59065229330258</v>
+        <v>42.59065229330255</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>47.43500474370195</v>
+        <v>47.43500474370185</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>14.8085853138058</v>
+        <v>14.80858531380576</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>65.11982955561739</v>
+        <v>65.11982955561732</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>66.26952563589185</v>
+        <v>66.26952563589194</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>59.98461880204697</v>
+        <v>59.98461880204688</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>58.80644398191595</v>
+        <v>58.80644398191599</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>62.6087297438817</v>
+        <v>62.60872974388172</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>15.84350857889048</v>
+        <v>15.84350857889051</v>
       </c>
     </row>
     <row r="911">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>66.57432618459595</v>
+        <v>66.57432618459596</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.74992383470978</v>
+        <v>21.7499238347098</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.84614470451328</v>
+        <v>36.8461447045133</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.79793945189353</v>
+        <v>39.79793945189354</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.436332403433696</v>
+        <v>5.436332403433763</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.68197894482435</v>
+        <v>29.68197894482445</v>
       </c>
     </row>
     <row r="918">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>10.69270902007908</v>
+        <v>10.69270902007903</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>49.21320989897492</v>
+        <v>49.21320989897493</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>57.53960367684634</v>
+        <v>57.5396036768463</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>51.09429011052872</v>
+        <v>51.09429011052867</v>
       </c>
     </row>
     <row r="923">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>19.8194802146179</v>
+        <v>19.81948021461789</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>52.51555046868471</v>
+        <v>52.5155504686846</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>57.88088939310006</v>
+        <v>57.88088939310004</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.59365392116473</v>
+        <v>22.59365392116474</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>39.26625914557838</v>
+        <v>39.26625914557835</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>43.93922894575046</v>
+        <v>43.93922894575044</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>4.674790775122407</v>
+        <v>4.674790775122432</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.58641319638345</v>
+        <v>34.58641319638353</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.30092989630032</v>
+        <v>40.3009298963003</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>12.61440518438203</v>
+        <v>12.61440518438201</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>60.11708299723585</v>
+        <v>60.1170829972359</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>70.39878018816337</v>
+        <v>70.39878018816346</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>68.19073742808096</v>
+        <v>68.19073742808091</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>73.42693980700929</v>
+        <v>73.4269398070093</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>81.12919172517648</v>
+        <v>81.1291917251767</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>17.94848351576915</v>
+        <v>17.94848351576913</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>60.29439470810023</v>
+        <v>60.29439470810017</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>69.97917530861265</v>
+        <v>69.97917530861262</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>7.700902153215775</v>
+        <v>7.700902153215704</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.46377368458204</v>
+        <v>24.46377368458203</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.15861354895255</v>
+        <v>32.15861354895254</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2.833658708782981</v>
+        <v>2.833658708782988</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.38804274456661</v>
+        <v>30.38804274456665</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.29776732035561</v>
+        <v>32.29776732035562</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>8.287964674287256</v>
+        <v>8.287964674287281</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>50.65571032887606</v>
+        <v>50.6557103288761</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>55.0185032893544</v>
+        <v>55.01850328935441</v>
       </c>
     </row>
     <row r="952">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>61.24858919009858</v>
+        <v>61.24858919009857</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>58.83491398053256</v>
+        <v>58.83491398053249</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>6.446121428571981</v>
+        <v>6.44612142857201</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.50422964648234</v>
+        <v>37.50422964648229</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.05045753675435</v>
+        <v>40.05045753675437</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>10.7005657358589</v>
+        <v>10.70056573585888</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.89017411777253</v>
+        <v>31.89017411777256</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.51578264810942</v>
+        <v>35.51578264810943</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>4.016806755714306</v>
+        <v>4.016806755714359</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.23090378202085</v>
+        <v>26.23090378202084</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.65354999452776</v>
+        <v>34.65354999452773</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>7.854933611461501</v>
+        <v>7.854933611461483</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>45.12512754741401</v>
+        <v>45.12512754741394</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>59.68693284571624</v>
+        <v>59.68693284571627</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>47.13705414993135</v>
+        <v>47.13705414993134</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>56.66255087868069</v>
+        <v>56.66255087868062</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>63.47208005314866</v>
+        <v>63.47208005314863</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>6.968001818276552</v>
+        <v>6.968001818276555</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>54.66469511291293</v>
+        <v>54.66469511291297</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.57983311262583</v>
+        <v>54.57983311262584</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>10.99395872183331</v>
+        <v>10.99395872183329</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>31.04916131506105</v>
+        <v>31.04916131506108</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>41.2027417928301</v>
+        <v>41.20274179283008</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>2.284183092922891</v>
+        <v>2.284183092922998</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.58310266943008</v>
+        <v>26.58310266943015</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.29907394957978</v>
+        <v>36.29907394957986</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.854836440836358</v>
+        <v>5.854836440836323</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>44.37924491600197</v>
+        <v>44.37924491600195</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>65.9597830241056</v>
+        <v>65.95978302410559</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>60.81309035985386</v>
+        <v>60.8130903598539</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>69.85135908519595</v>
+        <v>69.85135908519602</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>80.87902383212555</v>
+        <v>80.87902383212553</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>5.463369923307237</v>
+        <v>5.463369923307226</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>51.15659585320989</v>
+        <v>51.15659585320985</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>65.89814052606567</v>
+        <v>65.89814052606565</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.546</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.341</v>
+        <v>16.934</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.787</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.989</v>
+        <v>14.15</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.96</v>
+        <v>0.955</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.14097876203936</v>
+        <v>9.554854839316949</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.85188127301747</v>
+        <v>12.92936039493036</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.67714445303059</v>
+        <v>13.92354093320614</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2.645096837532869</v>
+        <v>2.543584895518364</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14.45056755339467</v>
+        <v>12.84243909854515</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.52435898081598</v>
+        <v>13.50194447932568</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.907859358392372</v>
+        <v>6.219068732575323</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.19232741725414</v>
+        <v>19.56987062537303</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.0212718211618</v>
+        <v>22.30650833625477</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.67429207901626</v>
+        <v>21.23414281771628</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.74546125943185</v>
+        <v>25.16282505435603</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.54665515924634</v>
+        <v>29.53718908770737</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.881834218371939</v>
+        <v>8.296813207485364</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.48475225828198</v>
+        <v>14.92304883600005</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>19.57427899665976</v>
+        <v>16.50004444946779</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.10633300192388</v>
+        <v>8.983328644633474</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.00236557943207</v>
+        <v>27.81833789261304</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>38.46233921745245</v>
+        <v>41.24955800395607</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.398109433439792</v>
+        <v>2.58184208166643</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.36273081028989</v>
+        <v>13.81737191498178</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.24733345723551</v>
+        <v>29.52738154853647</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.012580194683171</v>
+        <v>3.852620358515349</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.38934601299608</v>
+        <v>25.60193346036268</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>55.87763631930127</v>
+        <v>55.08127752368215</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.50489919547076</v>
+        <v>29.26367513955503</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>52.8198436213124</v>
+        <v>49.71825725186223</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>72.80365492110957</v>
+        <v>71.57415350268062</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6.168858173874963</v>
+        <v>5.358617879465754</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>44.47145540140697</v>
+        <v>42.16159660170005</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>62.94243986962124</v>
+        <v>60.14078537830669</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.22271170368151</v>
+        <v>12.87143791390562</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.3248292228842</v>
+        <v>34.19989218171015</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.245145723075</v>
+        <v>43.43908285259286</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.570351625755112</v>
+        <v>3.270512878580703</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.92344136120111</v>
+        <v>26.12674436928168</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>38.6083146942689</v>
+        <v>38.28624981629429</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.537791214489879</v>
+        <v>3.555907197459888</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.77503622801358</v>
+        <v>43.90442785422513</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>59.30552531947045</v>
+        <v>57.28505546638571</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60.23918751691551</v>
+        <v>53.61077721678917</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>75.98246840921986</v>
+        <v>68.58517434904313</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>82.58496915600634</v>
+        <v>76.88246972346892</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.59392098774648</v>
+        <v>17.04823573702126</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>62.58631946744063</v>
+        <v>59.14574133870049</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>69.46899857675348</v>
+        <v>66.06956677822878</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.281989602917029</v>
+        <v>4.63830715233388</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.87793251126052</v>
+        <v>30.65023542935529</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.18718651747553</v>
+        <v>39.34447177804948</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.26031661089397</v>
+        <v>3.035700549346377</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.1988236274948</v>
+        <v>37.24086791316008</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>43.19702176186149</v>
+        <v>40.09281901138218</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.67269064766921</v>
+        <v>3.926485611047902</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>65.09238605095453</v>
+        <v>59.28950542033316</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>67.56428517042143</v>
+        <v>65.47984836495765</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>61.61637527848499</v>
+        <v>60.67845642494513</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>75.75907916257481</v>
+        <v>71.55153781659931</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>64.06157343830678</v>
+        <v>59.5206903328954</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6.331657405227268</v>
+        <v>5.771982088111471</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>46.45646398761277</v>
+        <v>42.22832128971581</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>53.31789377609631</v>
+        <v>49.39327730645212</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.588402704181963</v>
+        <v>6.769002423473005</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.08029019955168</v>
+        <v>36.39754697300479</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.50994295067261</v>
+        <v>42.32909273020104</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.233105935375498</v>
+        <v>2.303863277488023</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.7903341004634</v>
+        <v>21.86019083679457</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.53425481108724</v>
+        <v>33.56280643340998</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.394718636455462</v>
+        <v>2.669694816947779</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44.65974984037696</v>
+        <v>43.97416246301312</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>60.89551820638316</v>
+        <v>58.44985462671033</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>50.64827338958187</v>
+        <v>46.40984939741483</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>65.04945344086407</v>
+        <v>64.7468672114117</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>73.40472013432611</v>
+        <v>72.28922668618624</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.077078916330752</v>
+        <v>5.061648505454006</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>57.33516413301575</v>
+        <v>55.17988371030009</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>62.2025270613648</v>
+        <v>58.6719777584983</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.549177733873652</v>
+        <v>7.190568189204047</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.55552761458947</v>
+        <v>37.47155617369226</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47.26013589825551</v>
+        <v>45.40614764303928</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2.219670088116416</v>
+        <v>3.04313247263833</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.54899033707842</v>
+        <v>35.11466609662081</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>44.15899716260488</v>
+        <v>39.86317117125425</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.876663789815613</v>
+        <v>3.225819613281505</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>59.19981300520307</v>
+        <v>57.91803992772508</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>79.35527778516035</v>
+        <v>74.37855005666158</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>67.2972004865422</v>
+        <v>60.87951617265594</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>85.70204704565674</v>
+        <v>81.02162956718644</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>90.6179913660124</v>
+        <v>84.57835816790769</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.835855924229829</v>
+        <v>5.592012878993362</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>70.99123918583378</v>
+        <v>67.90934659337799</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>75.71965036303563</v>
+        <v>71.82399894675463</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>12.72019758979939</v>
+        <v>15.21343956189234</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.86784930058563</v>
+        <v>29.59157287593828</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.55737404279765</v>
+        <v>37.21122859308689</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.966014115429825</v>
+        <v>2.930711311800568</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.62427476151566</v>
+        <v>34.17857022265446</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.07320521952187</v>
+        <v>36.22816694690553</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.209438759425282</v>
+        <v>4.85522112018305</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>60.90219567846738</v>
+        <v>60.55977287356597</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>57.0619715388132</v>
+        <v>58.92162956581235</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>50.37411846377157</v>
+        <v>49.0010013583873</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>60.77912741754041</v>
+        <v>58.76415623607588</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>57.5643155373191</v>
+        <v>56.13059429952958</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.84716279058752</v>
+        <v>11.31922176515434</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.1241692540591</v>
+        <v>34.90124049827539</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.55842778046632</v>
+        <v>37.39663611182843</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.57245722996361</v>
+        <v>22.71393274678294</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.50822884198107</v>
+        <v>40.93039233199131</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.52891112593385</v>
+        <v>43.59862981991054</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.01511163554903</v>
+        <v>3.045316193375513</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.59107720850763</v>
+        <v>32.20829563583609</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.71037573919614</v>
+        <v>35.99776979422451</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.221170856493465</v>
+        <v>4.63975608250826</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>56.11327465882913</v>
+        <v>56.47008288970065</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>65.01309597896294</v>
+        <v>60.48208834146321</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.52024205228342</v>
+        <v>56.12202363177022</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>69.77093489359711</v>
+        <v>68.19277031547666</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>73.60983857110159</v>
+        <v>72.45943220900537</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.52791485423289</v>
+        <v>19.98617289752342</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>61.28484145268534</v>
+        <v>55.76986506646141</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.37481770184141</v>
+        <v>62.56930333662388</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.14435381462353</v>
+        <v>21.5031269225983</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.915526480748</v>
+        <v>42.31234223727476</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>49.86731301167366</v>
+        <v>44.9811640346251</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.550933951263239</v>
+        <v>3.040997356862981</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.8344615731998</v>
+        <v>36.84016834848038</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.86189258256658</v>
+        <v>39.43027546736883</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4.562270539507399</v>
+        <v>4.235459721888159</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>66.4693150638868</v>
+        <v>64.061116543298</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>77.91371008076975</v>
+        <v>72.49581274330438</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>74.89016576548606</v>
+        <v>68.05113165203467</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>82.58886599570525</v>
+        <v>75.63433078967689</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>90.4443163857471</v>
+        <v>83.39584694239387</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>16.49050308954885</v>
+        <v>20.87400848477645</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>70.92429763044474</v>
+        <v>67.05011055821049</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.87423241659478</v>
+        <v>71.68563123070612</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.649362727730363</v>
+        <v>11.36272285573544</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.72620231897947</v>
+        <v>14.89860381875196</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>17.90236101871134</v>
+        <v>15.42419669005159</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.4894646410574026</v>
+        <v>2.834432666864451</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.93846056833453</v>
+        <v>11.33914093478537</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.98403723590372</v>
+        <v>11.89315677907245</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4.584950833624092</v>
+        <v>7.65081909788303</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.89131145794084</v>
+        <v>23.63974197066125</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.43095243304352</v>
+        <v>23.56200394509801</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>23.38445400709934</v>
+        <v>21.40399990560515</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.25790287627605</v>
+        <v>24.0490379076034</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.21265757400782</v>
+        <v>31.05274595789337</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>62.7574826607144</v>
+        <v>62.03978631012055</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>63.51569583236463</v>
+        <v>64.77026305390753</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>60.63737645384133</v>
+        <v>62.28454789706952</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.241726650666727</v>
+        <v>8.793533497338696</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.939783408168</v>
+        <v>28.43053443749723</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>39.37517395104655</v>
+        <v>40.64845261567075</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1.032667175259075</v>
+        <v>2.045051110984836</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.05261006994776</v>
+        <v>9.969799960697788</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.76614176686397</v>
+        <v>25.13814304643724</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.44088000584299</v>
+        <v>28.44260837688523</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>58.41846675185175</v>
+        <v>55.32117836406407</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.78675784045325</v>
+        <v>28.11827644582671</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>47.49532447379622</v>
+        <v>47.48492763326107</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>68.73613960753235</v>
+        <v>66.46323942222992</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>7.006702916566514</v>
+        <v>6.203659026593396</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>44.61247830510217</v>
+        <v>42.90028730007849</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>54.02084091233397</v>
+        <v>51.61365157806662</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.57825370479929</v>
+        <v>23.03523944146154</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.94068091077746</v>
+        <v>34.36553719063467</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.21694134151181</v>
+        <v>44.15494489976797</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3.225941308839694</v>
+        <v>3.686183592670844</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.49508453518938</v>
+        <v>16.73211622289978</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.38647008699628</v>
+        <v>27.84753591647327</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.879970364026629</v>
+        <v>8.380504745461291</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>43.72676483340348</v>
+        <v>40.70728701337127</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>64.13367713746975</v>
+        <v>61.78552874286312</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>44.15406501391543</v>
+        <v>39.50807188679998</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.63728001157048</v>
+        <v>55.4615857754828</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.25763943432004</v>
+        <v>75.76798691787641</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.11363716396936</v>
+        <v>24.82066213728576</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>60.66626892065874</v>
+        <v>58.80306549293867</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>67.73494171023204</v>
+        <v>65.69213917475726</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7.187757974133085</v>
+        <v>6.940425933956885</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.37404056651913</v>
+        <v>22.95616056584942</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.23567099168804</v>
+        <v>30.97329729323904</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3.284597927249543</v>
+        <v>3.37804608281639</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.79270725608207</v>
+        <v>30.53119386087494</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>38.08407154053052</v>
+        <v>38.29702796516477</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>8.917708768567429</v>
+        <v>8.56904661527593</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>62.7067266859945</v>
+        <v>60.65390785545843</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>62.02089836337078</v>
+        <v>63.26545537249045</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>52.30821292200083</v>
+        <v>48.71333668067572</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>64.79935568036457</v>
+        <v>61.45314128821926</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>65.43128382543934</v>
+        <v>62.45201354111256</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>12.4883997927182</v>
+        <v>12.25781126854044</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.56840692570856</v>
+        <v>10.21178463366596</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>11.19606427318346</v>
+        <v>10.98975710918642</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.50316131126978</v>
+        <v>24.71425676680999</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>41.68552337706963</v>
+        <v>42.40841950829214</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>44.29854729448849</v>
+        <v>41.9102399002675</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4.93366196763786</v>
+        <v>3.849182938417925</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.03554000178406</v>
+        <v>32.67845045569473</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.72091526126368</v>
+        <v>39.55548876747785</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>60.39399457229599</v>
+        <v>59.55475938672484</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>66.80314797424143</v>
+        <v>62.65790163950511</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>64.60020206978174</v>
+        <v>61.40673965608786</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>74.32658924969738</v>
+        <v>72.52929094046127</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>80.70897200174153</v>
+        <v>76.59688784577203</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.05319407587646</v>
+        <v>32.98932498368976</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>67.7382434901786</v>
+        <v>62.05709885651656</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>70.45741469951419</v>
+        <v>65.08225878599883</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.17820073293158</v>
+        <v>25.29424735047857</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.46871391219466</v>
+        <v>42.71320861477795</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>48.42140181769413</v>
+        <v>44.57926787974088</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2.75050774305824</v>
+        <v>3.747301571947069</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>32.17682846681583</v>
+        <v>27.99359661525522</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.25580199434378</v>
+        <v>36.10177579866491</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>10.35683872390577</v>
+        <v>8.947353262836572</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>62.93519971443544</v>
+        <v>58.70947391180533</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>74.20623023088147</v>
+        <v>69.18311769885746</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>74.51057400806221</v>
+        <v>66.04000690742484</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>83.26024296612849</v>
+        <v>75.32281469793452</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>85.95273411842653</v>
+        <v>79.66431222585494</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.61480502398501</v>
+        <v>33.1703196927613</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>70.49280658193176</v>
+        <v>68.01493137282412</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>76.9762230829548</v>
+        <v>73.3567500293907</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>4.663995908509456</v>
+        <v>5.243333370965665</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.47881086531941</v>
+        <v>19.7829128981699</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.46954405888458</v>
+        <v>30.63356293367426</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2.827634959545325</v>
+        <v>2.602245820754643</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>38.08674484957289</v>
+        <v>38.44128340144584</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.02167134668886</v>
+        <v>36.14367588179313</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8.664485913789449</v>
+        <v>8.687624629051133</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>67.88440262916895</v>
+        <v>64.30225581710501</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>66.08224159066323</v>
+        <v>65.53954647636192</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.51818735683119</v>
+        <v>49.67937980245236</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>65.96553115573269</v>
+        <v>63.11415472449215</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>68.60295373525095</v>
+        <v>65.34467658404886</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5.987914325836375</v>
+        <v>7.208045547976145</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6.935928190902839</v>
+        <v>7.155818276654205</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>7.473253818854442</v>
+        <v>7.700280561439065</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.6608917460772</v>
+        <v>16.79861684033854</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.53986092408222</v>
+        <v>44.7706186190498</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>45.82955254750863</v>
+        <v>46.03074903827236</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4.651896586804494</v>
+        <v>3.163015513838321</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>38.46192840224342</v>
+        <v>38.92308759963505</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>44.70713387009383</v>
+        <v>46.02683832589982</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.779093966994779</v>
+        <v>3.605346410260207</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>66.61584502802165</v>
+        <v>65.50923189755858</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>69.22599218520247</v>
+        <v>68.24692777487624</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>52.88120644967346</v>
+        <v>53.34418211849566</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>69.1296178999233</v>
+        <v>67.92964837828069</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>78.56951301950492</v>
+        <v>77.341706954874</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.56366266712929</v>
+        <v>15.5599641500732</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>68.49390841470385</v>
+        <v>66.0835464995715</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>71.1410220960354</v>
+        <v>69.52460738700979</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.421675212384</v>
+        <v>19.46039508289148</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>4.018061169861198</v>
+        <v>3.24841918299893</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>37.95005990930616</v>
+        <v>36.89568923729517</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.71811047339838</v>
+        <v>38.44678385280513</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.374128555236172</v>
+        <v>6.35350617462834</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>68.3560420205558</v>
+        <v>64.61163357267156</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>76.94255911465204</v>
+        <v>71.18954369709905</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>71.462171682605</v>
+        <v>68.88048984564726</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>83.69951176264286</v>
+        <v>79.39519543600113</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>90.31733371752996</v>
+        <v>84.31752946887595</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.6641675710408</v>
+        <v>15.21374514143142</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>75.45906888304955</v>
+        <v>72.0141650565637</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>78.10671987976306</v>
+        <v>75.26004218856934</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2.257624270446083</v>
+        <v>7.13013683544991</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>6.346286288786754</v>
+        <v>7.291289650698427</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8.877926122335037</v>
+        <v>8.442597285279227</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-3.111813795742624</v>
+        <v>2.318015363146973</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.20396799404548</v>
+        <v>10.57894744546435</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.1263331761617</v>
+        <v>10.37749538131328</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-0.04901408486128389</v>
+        <v>5.290977781022363</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.8510910154138</v>
+        <v>16.34226742990413</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>21.01168218795976</v>
+        <v>18.82792027956837</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.99854218253496</v>
+        <v>23.50471828648665</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.20590371911795</v>
+        <v>28.02496728009312</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.64198470970712</v>
+        <v>32.35887924769303</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>2.434927981686091</v>
+        <v>6.413084592608318</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>8.09559135507094</v>
+        <v>7.946390210373121</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>10.08458606319048</v>
+        <v>9.959114453717056</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>8.767811545845639</v>
+        <v>8.646069098427915</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.00629125104778</v>
+        <v>27.80885025474407</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.74743566268532</v>
+        <v>34.4484262315592</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>3.409229181029755</v>
+        <v>3.15174396407458</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.97015956125089</v>
+        <v>18.21610282889417</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.57079359376423</v>
+        <v>29.76518738391426</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6.885109586949511</v>
+        <v>7.509165470838045</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>33.06631629046946</v>
+        <v>34.88669550442047</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>51.57534690109769</v>
+        <v>51.39667855493303</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.36673280538636</v>
+        <v>35.47286258603478</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>49.99479892945158</v>
+        <v>49.98151246128522</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>57.05581812140488</v>
+        <v>55.54795577002314</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>8.191491380800571</v>
+        <v>7.624082887729823</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.58479080486394</v>
+        <v>42.52409776809904</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>49.94415297373871</v>
+        <v>50.52682560042444</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.237812610311938</v>
+        <v>8.789364108577637</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.72173425914769</v>
+        <v>27.47902336638942</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>38.5830927066086</v>
+        <v>39.07063307436249</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>2.453798453551073</v>
+        <v>2.539275371427529</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.03928844765079</v>
+        <v>26.73155067380376</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.15097140559863</v>
+        <v>35.79796540100936</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>6.285564111768</v>
+        <v>6.907875292395719</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>49.12410541226127</v>
+        <v>48.1110008636638</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>60.79022762567178</v>
+        <v>58.86006136641146</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>61.82100148605122</v>
+        <v>59.18958882047598</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>73.41825883277711</v>
+        <v>72.38961682282719</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>77.94502404362086</v>
+        <v>72.0083947485909</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>10.61262333534092</v>
+        <v>10.14255151947842</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>60.8693870326221</v>
+        <v>58.43755612418651</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>72.1277718133902</v>
+        <v>68.9558076950964</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1.419249765826397</v>
+        <v>4.003328690423945</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>6.347528559492535</v>
+        <v>12.16280603140377</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>10.46207063082409</v>
+        <v>12.50367004571622</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-2.800341742315183</v>
+        <v>1.903062447035744</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>9.917718384617611</v>
+        <v>9.872101086178979</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>11.45215462023204</v>
+        <v>14.10624768014505</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.1429929072796199</v>
+        <v>2.629776129502133</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.40302158643016</v>
+        <v>15.57203903518957</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>15.13771397364296</v>
+        <v>12.018770966557</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.79155988492622</v>
+        <v>13.32605692124324</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.74478813967344</v>
+        <v>15.08889874477911</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.66547629175719</v>
+        <v>15.21834712551598</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>4.469662642315228</v>
+        <v>7.25907503359587</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.03562024201646</v>
+        <v>14.07452545217842</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>11.84375387965528</v>
+        <v>14.15256476061296</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>1.33143327466442</v>
+        <v>1.767454809645162</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7.318000967211976</v>
+        <v>6.742509793984937</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>17.89422892950127</v>
+        <v>17.00985903860909</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-2.8983213997004</v>
+        <v>1.767559933155017</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>2.315553859102149</v>
+        <v>5.060114526396479</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.55330790032931</v>
+        <v>12.5319430558987</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.1766342270659251</v>
+        <v>4.096486228221004</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.2511913555909</v>
+        <v>7.908265318940096</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.0943997069308</v>
+        <v>29.96797172523031</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.61633198352969</v>
+        <v>10.61953944956268</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.4293532111271</v>
+        <v>22.32438654898826</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>41.47190648241527</v>
+        <v>41.38659747420577</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-1.09850771366483</v>
+        <v>2.413191963564515</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.60369505902909</v>
+        <v>11.68800352313018</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>14.17599824363995</v>
+        <v>12.96383355188945</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5.656990004152217</v>
+        <v>3.263334084164594</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>11.60789675148649</v>
+        <v>10.03965721284618</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.71927158374738</v>
+        <v>26.81599557792704</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-4.704350497378353</v>
+        <v>1.61727872506809</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>5.113695069290781</v>
+        <v>7.147951456944696</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.62173075647219</v>
+        <v>24.48196696612299</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.7609399037847489</v>
+        <v>3.295023794090241</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.8791084358993</v>
+        <v>13.2222883119214</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>51.48949607446804</v>
+        <v>49.31346995145908</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.60756972357814</v>
+        <v>18.41071698184104</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>48.53633502693714</v>
+        <v>46.8560601928654</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.41628058099866</v>
+        <v>65.28965127424988</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-3.812365313692386</v>
+        <v>2.475735064481452</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>12.36525814227506</v>
+        <v>11.55290328737234</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>23.05967333695878</v>
+        <v>21.17919728279607</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>9.289032597001999</v>
+        <v>13.01239746724597</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.72584688907709</v>
+        <v>19.6523052483292</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>35.48777953946636</v>
+        <v>37.40203140169528</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>5.533793666109815</v>
+        <v>3.390954187895026</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>45.06693317489445</v>
+        <v>43.90954109889496</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>46.24057107390431</v>
+        <v>43.88891231355166</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.747985333360312</v>
+        <v>6.322916996016634</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>67.0532064620532</v>
+        <v>61.94996469954415</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>68.17807084531005</v>
+        <v>67.32861520427214</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>59.50993103477843</v>
+        <v>54.4235447437616</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>67.3845663331786</v>
+        <v>59.38324988169588</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>65.09766988651054</v>
+        <v>62.11556569592703</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.74891030950639</v>
+        <v>22.1536237515316</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.87119985260542</v>
+        <v>40.78216364784353</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>66.56533777403817</v>
+        <v>67.95133691483412</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>10.08076224252562</v>
+        <v>12.13442443274628</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.77153380531009</v>
+        <v>32.56720813817168</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.1700008729273</v>
+        <v>34.87865388435617</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2.558454883687592</v>
+        <v>2.906510304727973</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.72851784025091</v>
+        <v>30.51055456114289</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.12638192731877</v>
+        <v>32.58825920694585</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3.677908587078949</v>
+        <v>6.670685294980935</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>50.26163402322692</v>
+        <v>49.2977574209002</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>55.94839764775197</v>
+        <v>53.00080312489746</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>48.24235504641332</v>
+        <v>46.0503389254999</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>56.95932672104169</v>
+        <v>53.96721751375858</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>62.54060307129687</v>
+        <v>57.70365720327281</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>16.2691532172577</v>
+        <v>19.50979613303267</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>55.4576378478466</v>
+        <v>48.57668760669003</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.74620308776896</v>
+        <v>52.77599153910629</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>13.58629180910854</v>
+        <v>15.63274039293093</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.65193377425588</v>
+        <v>31.65043243306295</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>44.12291692545765</v>
+        <v>42.44114846651838</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>4.200909149391009</v>
+        <v>3.001012940903035</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>39.21131239284349</v>
+        <v>38.81757593550532</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.42065315402743</v>
+        <v>40.46187070036339</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.634867133561229</v>
+        <v>8.546162765709695</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>62.99667692193196</v>
+        <v>60.17288778647902</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>74.43872659725744</v>
+        <v>70.55502985561854</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>68.12851822613584</v>
+        <v>61.54778888381399</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>78.7676713061303</v>
+        <v>71.98412636106276</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>83.10658678600539</v>
+        <v>75.12749487295052</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16.48827942391834</v>
+        <v>18.5673951631156</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>68.90467141928406</v>
+        <v>65.52103693697485</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>78.22977545391892</v>
+        <v>75.21264314212858</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.292050752428331</v>
+        <v>8.504267640765313</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>10.34794113348315</v>
+        <v>11.03030838346283</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>13.19564953133555</v>
+        <v>11.74886269844864</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.796113659847347</v>
+        <v>2.986340331915155</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>8.978813925834331</v>
+        <v>9.959161130739773</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.56192061912846</v>
+        <v>11.00980829245868</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1.495400171150571</v>
+        <v>6.00101721907151</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.6961848333935</v>
+        <v>15.63448994565641</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.52689911521418</v>
+        <v>16.86301751951692</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.57955077237962</v>
+        <v>15.07364177063972</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.40498368729099</v>
+        <v>18.29918665291353</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>24.68615239703781</v>
+        <v>21.68198693122593</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>3.705894072336736</v>
+        <v>7.436580147994189</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>13.36611313672588</v>
+        <v>11.27585698033133</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>13.99835279086677</v>
+        <v>13.73638733942018</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>5.523243246359513</v>
+        <v>5.698978512887198</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>15.44645988328085</v>
+        <v>14.14506782292192</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.82596379572334</v>
+        <v>27.52060285904945</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-0.606887480518548</v>
+        <v>2.754839629895859</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>7.48479308263472</v>
+        <v>5.708138359786293</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.27219387259304</v>
+        <v>25.27789731961822</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>1.276228427139081</v>
+        <v>5.356107906617389</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>12.35605012660911</v>
+        <v>10.64198435021592</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>41.58207430429137</v>
+        <v>40.27200743516018</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>16.81128964107767</v>
+        <v>14.67576838045842</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.87768117397053</v>
+        <v>25.9158035977362</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>41.06475840381503</v>
+        <v>41.92817598576413</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>2.080638238300722</v>
+        <v>3.337580147926712</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.59503688259678</v>
+        <v>20.73777825976914</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.80254126568185</v>
+        <v>29.96369903783271</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.50646327322621</v>
+        <v>10.05843108504419</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.43416612421432</v>
+        <v>21.89385675357572</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.0696583738555</v>
+        <v>37.28044712288127</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.107636524754025</v>
+        <v>3.094603239520847</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.02147796908204</v>
+        <v>14.46136721352551</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.87395685029882</v>
+        <v>30.76726514240857</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>8.733931451582656</v>
+        <v>10.29514008452204</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.06780314953642</v>
+        <v>26.55948919583635</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>54.01001625178359</v>
+        <v>51.86974608251923</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.95152461377152</v>
+        <v>29.68183140251456</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>42.76024576211265</v>
+        <v>38.18504401020859</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>68.27988373282254</v>
+        <v>64.66522933884063</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>15.95929812546981</v>
+        <v>19.41507146380873</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>38.80720680330487</v>
+        <v>34.52427287906986</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>53.40796203269403</v>
+        <v>50.25311184209718</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>0.5405859420177883</v>
+        <v>2.057070799112736</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>0.7063016348332631</v>
+        <v>2.552011304810446</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>6.379640526011102</v>
+        <v>8.449540556918119</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-4.750592333299952</v>
+        <v>1.67861011831312</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.651838004919128</v>
+        <v>2.466713393047034</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>4.348353972198105</v>
+        <v>3.934800317844001</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>3.739455363606819</v>
+        <v>7.622642410692698</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.47020430316841</v>
+        <v>9.347008280666827</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.63302372999073</v>
+        <v>9.620931906540836</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>3.756783630000488</v>
+        <v>3.555824116578503</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.149631874718406</v>
+        <v>3.874021923912427</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.41414253371209</v>
+        <v>19.1008913366161</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-2.657725720842027</v>
+        <v>1.767462829469203</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-1.777364359316771</v>
+        <v>2.466869219933919</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>4.540888034683586</v>
+        <v>2.770876948208002</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.61772631849618</v>
+        <v>17.12316813745724</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>35.2274698849529</v>
+        <v>32.82556236383112</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.4143372793278</v>
+        <v>35.24200997747609</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>4.862173888063428</v>
+        <v>3.411069448153413</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.57699242517139</v>
+        <v>25.46587400640615</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.27191653054825</v>
+        <v>30.56227800616994</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>9.730999098306988</v>
+        <v>8.353325153817593</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.04306639338435</v>
+        <v>51.52829968911539</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>57.86871433579404</v>
+        <v>55.50351556848145</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>48.33804426752367</v>
+        <v>46.76248837630862</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>55.86958608987354</v>
+        <v>55.4760700256878</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>61.5344498623992</v>
+        <v>55.04886177564777</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>14.98068756519011</v>
+        <v>16.96251644975187</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>51.73649925199085</v>
+        <v>47.4850036311451</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.34608501583971</v>
+        <v>53.60974968171841</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.13517968481157</v>
+        <v>18.99451500002225</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.97356786589275</v>
+        <v>35.99354945334203</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>47.25939695413908</v>
+        <v>46.99175293421368</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>2.90274062889414</v>
+        <v>2.930713430324911</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.02930848937628</v>
+        <v>32.90091861669687</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.01628310996053</v>
+        <v>36.59069513585813</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.8904492873429</v>
+        <v>7.960524315790018</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>62.04922270334296</v>
+        <v>59.46834446498215</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>70.18187463784859</v>
+        <v>67.29652279227781</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>66.99100197239498</v>
+        <v>64.2864601432855</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>77.43522162084541</v>
+        <v>73.56279311368888</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>83.11918675734699</v>
+        <v>76.51800534492864</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.72445861805103</v>
+        <v>13.64889064022555</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>66.06191176880462</v>
+        <v>63.48834785353134</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>69.80053348507457</v>
+        <v>67.42060431300619</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>9.333204792048395</v>
+        <v>12.25700822248465</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>13.91221007855716</v>
+        <v>13.76221862772025</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>16.28831278551645</v>
+        <v>14.4969667790572</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0.2604559897749219</v>
+        <v>4.564544390978163</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.84925905004775</v>
+        <v>15.13298625018508</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>14.21462370521863</v>
+        <v>16.25637065383115</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>8.881809956446805</v>
+        <v>12.00671815289423</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.93339161191777</v>
+        <v>23.42555308817001</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.89329872800494</v>
+        <v>24.91143406538005</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.77309090462176</v>
+        <v>21.91703482945507</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.69255145313974</v>
+        <v>26.26906886367239</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.7018234525768</v>
+        <v>29.80773856422118</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>10.67489858514845</v>
+        <v>15.01915401854545</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.84163007514029</v>
+        <v>14.52014778552417</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>18.68566960906788</v>
+        <v>17.34408745008006</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>3.636105080608417</v>
+        <v>4.423634856452676</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.14211393381646</v>
+        <v>10.59526914021133</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>19.22269303240993</v>
+        <v>20.66312480246914</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-4.750528618242239</v>
+        <v>1.450583722127238</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>2.580794444532945</v>
+        <v>4.772533383413254</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.81106994405508</v>
+        <v>17.31883936628637</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-3.703871296759271</v>
+        <v>1.408323278468735</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>9.607652789370995</v>
+        <v>8.267524685947862</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.01765617669358</v>
+        <v>28.48254587887259</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.17909035262677</v>
+        <v>11.72979189913002</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.29761835074846</v>
+        <v>18.36050945368186</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.76263725029905</v>
+        <v>30.7395232008245</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-3.023197819602675</v>
+        <v>3.438440826192718</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>15.09229399648249</v>
+        <v>12.69726060594387</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.33361227578914</v>
+        <v>20.62695296915199</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>15.09506614882496</v>
+        <v>17.95537842290034</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.64597978772283</v>
+        <v>28.86361947334065</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.11940595778282</v>
+        <v>33.31436439569987</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-0.2198994451268774</v>
+        <v>3.478651108756484</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.59598438945466</v>
+        <v>21.10863599815977</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24.40623314101286</v>
+        <v>23.72902584391168</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.185257299951896</v>
+        <v>8.394087964854194</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>37.97145344822606</v>
+        <v>37.50213106980051</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.88607597421516</v>
+        <v>48.98067480358749</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>44.35023100607172</v>
+        <v>40.0928011574337</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.40297830974876</v>
+        <v>43.19984341307207</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>62.51460218172522</v>
+        <v>59.82773345381089</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>11.62383639446738</v>
+        <v>12.59406742248638</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.61530498105575</v>
+        <v>36.9341769143949</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>44.38446848058894</v>
+        <v>40.91687731056436</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>3.595991047193014</v>
+        <v>4.019478103706128</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>4.158857229611527</v>
+        <v>5.644432310198539</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>5.296814485855805</v>
+        <v>5.62460851784078</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2.686047866785625</v>
+        <v>2.097671176179915</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.049751617563167</v>
+        <v>4.597534224738556</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>3.221176690020254</v>
+        <v>6.395066299620165</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>5.062765290772905</v>
+        <v>8.070859309335106</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.5898722795128</v>
+        <v>10.62852645926972</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.879816714792032</v>
+        <v>9.50435820853431</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>6.483611846973378</v>
+        <v>5.382351547880674</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.161333048834781</v>
+        <v>4.049927771192067</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.82865471090128</v>
+        <v>10.8193426383653</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.51020436189199</v>
+        <v>3.079698519588305</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.380964627470039</v>
+        <v>6.324538904821345</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>7.168608262386819</v>
+        <v>6.550468723309319</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>0.4311228206693478</v>
+        <v>2.21010160280688</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.00648653065856</v>
+        <v>4.54075284749343</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>5.852439078031082</v>
+        <v>5.551776319896273</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.035004026647197</v>
+        <v>1.767486026924338</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-2.851807320589625</v>
+        <v>2.05945177680708</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>2.550908133462013</v>
+        <v>4.345935844112571</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-3.10084170911303</v>
+        <v>2.328286637606976</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.678070311112126</v>
+        <v>4.927497732632904</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.215450503993083</v>
+        <v>6.54672036243683</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>4.654767526437155</v>
+        <v>3.079877176445201</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.483125500421405</v>
+        <v>4.538826572940941</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>7.313926198908749</v>
+        <v>5.231468283171719</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-4.21543783156979</v>
+        <v>1.76752001924185</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.906929097413435</v>
+        <v>3.602175254686262</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>4.443942119530139</v>
+        <v>4.195099726120777</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>15.66485304227022</v>
+        <v>18.88632481609315</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.95824771087485</v>
+        <v>23.00815509654962</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.91427961059674</v>
+        <v>22.72469815073517</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>1.659411676491128</v>
+        <v>3.679613654726701</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.11007584834062</v>
+        <v>13.64908271357208</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>16.12877467890583</v>
+        <v>15.13927924958998</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.616087123030294</v>
+        <v>11.61424200857586</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.83148483252186</v>
+        <v>27.31433516177702</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.8381671926165</v>
+        <v>30.25278746652672</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>32.70192649061701</v>
+        <v>29.44742080890532</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.19481527812223</v>
+        <v>31.35102432498678</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>41.94803595611747</v>
+        <v>35.7617709150033</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>20.88986861959065</v>
+        <v>21.64478530558023</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.31409596649856</v>
+        <v>26.66822091038047</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.35578401218709</v>
+        <v>29.03721246711786</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>20.10292273722147</v>
+        <v>18.42881083480583</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.78314468940422</v>
+        <v>30.20656571173017</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.42901076218718</v>
+        <v>38.99164042148235</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.599207364125434</v>
+        <v>3.468136621516486</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.86021362451059</v>
+        <v>20.14659401827943</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.40945413997488</v>
+        <v>25.53665070788942</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.7634382548921</v>
+        <v>11.06395279742704</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>45.41169767570067</v>
+        <v>44.71714513662225</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>48.86953677062365</v>
+        <v>49.62330731230668</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>42.93002545690848</v>
+        <v>42.8118922903071</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>49.97981815320895</v>
+        <v>49.30981343441046</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>52.57970233874673</v>
+        <v>52.21833710625712</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.42559095731946</v>
+        <v>29.56211913405542</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>56.62477012057782</v>
+        <v>53.32897841355545</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>58.27725797494198</v>
+        <v>56.68920885481833</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.36959565941276</v>
+        <v>15.61970315442482</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.25469072842626</v>
+        <v>26.82033801088432</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.88494257124981</v>
+        <v>31.67814620432766</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-1.909084603310681</v>
+        <v>1.821408282891387</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>9.763514575758293</v>
+        <v>10.54148827942254</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.89282423002293</v>
+        <v>14.59608010256071</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.285447732499705</v>
+        <v>8.198907242938073</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.59803089762866</v>
+        <v>28.92978334340338</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>37.61390293414257</v>
+        <v>33.84212615284699</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.82004454610118</v>
+        <v>27.50024885885168</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.37231683557506</v>
+        <v>33.71319139841899</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>44.81855223252361</v>
+        <v>37.45790938169783</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>15.83029344264724</v>
+        <v>18.77793692777306</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>41.81198596384103</v>
+        <v>37.87881876192979</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>47.26005952922013</v>
+        <v>41.61808791154093</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.9757501092697</v>
+        <v>21.5232684527771</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>37.33476670631752</v>
+        <v>34.08462360203949</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>46.16585398269746</v>
+        <v>44.23939211404174</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>3.303567043603717</v>
+        <v>2.921651910633507</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.36813665298416</v>
+        <v>22.39997856728782</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.42410982543656</v>
+        <v>26.20560177876652</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>12.45170872370141</v>
+        <v>11.69412242984166</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>48.82270024396809</v>
+        <v>46.88097550678105</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>60.63773366562984</v>
+        <v>55.16641246193177</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>62.70583926378781</v>
+        <v>57.98796487902252</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>68.7626143021336</v>
+        <v>64.14167605517811</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>73.60556991414364</v>
+        <v>66.93711637818598</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.98352396992217</v>
+        <v>29.46955169035945</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>58.60053003064455</v>
+        <v>56.10534251099499</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>68.21153093043056</v>
+        <v>59.4063324293317</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>14.23320084977262</v>
+        <v>13.97638628782402</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.89679235481033</v>
+        <v>29.11002783097561</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>38.44158365296534</v>
+        <v>36.63013087928567</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>5.823034981846924</v>
+        <v>3.691107460271716</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.69907615540782</v>
+        <v>33.59094772753203</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.79234530928952</v>
+        <v>37.73783458349246</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.59226632176669</v>
+        <v>9.789780257684367</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>58.18650736686988</v>
+        <v>54.44452858389187</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>61.766587193398</v>
+        <v>63.39116290029577</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>61.22150168690389</v>
+        <v>57.20336845166031</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>69.23687781321513</v>
+        <v>62.44177720364405</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>67.0405553528193</v>
+        <v>65.43136448644327</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.119093345431</v>
+        <v>13.00667354127142</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.65673121425036</v>
+        <v>40.09618973916585</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>50.2151998022781</v>
+        <v>49.91755176563848</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>9.550345786093906</v>
+        <v>9.373865082996943</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.70750411880134</v>
+        <v>32.83251773477913</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.91730755011239</v>
+        <v>37.04115993677268</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>4.398561603974464</v>
+        <v>3.043121049008853</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.91942314896819</v>
+        <v>22.65889054584435</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.834889849913</v>
+        <v>33.5775912273917</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>7.634372436101451</v>
+        <v>5.704772767988342</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>40.87242472093923</v>
+        <v>42.87157842793134</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>54.34297533294519</v>
+        <v>50.25759076210257</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.52180974616993</v>
+        <v>44.88042187555489</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>52.81263668227092</v>
+        <v>51.17754141092277</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>60.75705362636222</v>
+        <v>58.47941112742238</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>6.939103201190811</v>
+        <v>6.812304328854633</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.52561889495952</v>
+        <v>43.70493059102541</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.59632522576477</v>
+        <v>51.39820649262497</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.151256267030568</v>
+        <v>7.261678578582757</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.70103126017288</v>
+        <v>30.74473904724961</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.9960047480608</v>
+        <v>39.08838351779011</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>2.853727307574083</v>
+        <v>2.849382790462521</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.8324000507481</v>
+        <v>25.75472491425168</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.5039616754616</v>
+        <v>39.46025532081331</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.343022530511139</v>
+        <v>5.872933023921949</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.47636206172876</v>
+        <v>44.01984378314636</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>66.95290410266672</v>
+        <v>63.60608109553048</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.24529474061232</v>
+        <v>54.23759016339088</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>68.00615927110611</v>
+        <v>66.99046706608438</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>82.29493204002826</v>
+        <v>78.36214552942909</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>5.819908455380517</v>
+        <v>5.291176638488434</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>56.14034209836103</v>
+        <v>54.38028229906747</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>66.76993521224952</v>
+        <v>66.04882957560575</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>8.563047586477484</v>
+        <v>8.561131017616532</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>24.69355596555018</v>
+        <v>22.27346439684728</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.76631593822481</v>
+        <v>34.93387862618343</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>5.170919870171289</v>
+        <v>3.04309986120516</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>42.31044573617665</v>
+        <v>42.27472028433566</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.73804670039949</v>
+        <v>46.57378234902524</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>8.288887915041268</v>
+        <v>7.891839724233407</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>68.03136250291654</v>
+        <v>63.83260310014403</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>67.22077790682899</v>
+        <v>65.4556065329906</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>61.86963441051594</v>
+        <v>59.12233902546632</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>61.54106011499493</v>
+        <v>58.00040388417186</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>62.98715653006155</v>
+        <v>60.59883233829215</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.24188976906235</v>
+        <v>7.667530962175036</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.82228261320191</v>
+        <v>30.71323314821483</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>64.31168275766431</v>
+        <v>61.47649925582762</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>9.620139621155339</v>
+        <v>14.24469557532076</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.06784080950538</v>
+        <v>34.24152626032543</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.00816666812848</v>
+        <v>36.2911469296846</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1.532240319993633</v>
+        <v>3.114927419101694</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.92877973537431</v>
+        <v>27.79559369323322</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.89578553785024</v>
+        <v>32.75252476353404</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1.030517764017038</v>
+        <v>5.323277567689622</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>47.6299502818112</v>
+        <v>46.79149728824286</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>55.56074404077417</v>
+        <v>49.7313873007776</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>45.02917549626238</v>
+        <v>44.56507331861043</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.93167343651342</v>
+        <v>51.60051713891974</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>62.7062459687476</v>
+        <v>55.90935248342336</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>6.740618784187532</v>
+        <v>10.38386741095761</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>49.70938971410136</v>
+        <v>44.26180265255424</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>57.01471531112083</v>
+        <v>49.75275963614152</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>12.38299541492557</v>
+        <v>12.23687047401748</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.70460001464185</v>
+        <v>32.7299816817754</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.68163968712285</v>
+        <v>40.42302300323467</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>2.17311581629361</v>
+        <v>3.055685388863044</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.79372009787286</v>
+        <v>34.06873548046474</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.50314289491453</v>
+        <v>40.02446920512851</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>3.559910082844375</v>
+        <v>5.64749861451017</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>56.33311294176387</v>
+        <v>54.43689678697714</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>68.60045058796821</v>
+        <v>63.76506636285137</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>68.28826081945047</v>
+        <v>64.61940425919919</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>79.96607943910539</v>
+        <v>71.05103240654839</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>83.41308555129818</v>
+        <v>77.34517642138785</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>9.171481689308727</v>
+        <v>8.055777517706435</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>63.81071849896379</v>
+        <v>58.46703498356689</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>72.15579878838986</v>
+        <v>68.21934196105727</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>16.96769597350973</v>
+        <v>19.38864904533253</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>24.08910091994572</v>
+        <v>24.35242120597749</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>37.47463540651952</v>
+        <v>37.44499114919769</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>13.12245321961231</v>
+        <v>10.53479451498108</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>50.94643624751985</v>
+        <v>51.02161672761643</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>55.18606260042552</v>
+        <v>54.63157969857498</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.25294900647499</v>
+        <v>13.01846698500381</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>67.37710923609305</v>
+        <v>63.06106859892365</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>73.06161002800415</v>
+        <v>68.635272056204</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>59.20715925827591</v>
+        <v>56.79151982261185</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>59.34091592516563</v>
+        <v>57.08099814330899</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>59.81184416458704</v>
+        <v>57.79659596271321</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>17.02185649023611</v>
+        <v>16.98551016753462</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.45053079238989</v>
+        <v>28.70469385416256</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>51.28589766719162</v>
+        <v>48.8559710582296</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>23.10272706766139</v>
+        <v>24.90425155823269</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.89104341589261</v>
+        <v>34.87437279761401</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.26284938484893</v>
+        <v>38.26777723718409</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.58262368217841</v>
+        <v>37.96324238464062</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>48.99576688077755</v>
+        <v>51.17239202561932</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>59.3212645385692</v>
+        <v>55.19150994894431</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>12.61787186784785</v>
+        <v>9.620294770536553</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>48.68372928532351</v>
+        <v>45.91085605812859</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>61.11721668073795</v>
+        <v>53.84635048451728</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.20523710185621</v>
+        <v>47.14923548696477</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>54.91516388822892</v>
+        <v>51.4388995862838</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>60.22840437864477</v>
+        <v>54.64756391294351</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.12835717285371</v>
+        <v>26.00505426597675</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>51.65816886093012</v>
+        <v>46.45841747260289</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>58.58241992387192</v>
+        <v>52.05115530953424</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>23.20402910605202</v>
+        <v>24.45284479589832</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.86243725805343</v>
+        <v>33.62856439034167</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>44.14947884466942</v>
+        <v>40.2373549900325</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.8770280369939</v>
+        <v>39.16063700369315</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>56.27741945312913</v>
+        <v>57.66131273692291</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>61.41689008168602</v>
+        <v>58.41501442655311</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.66367319538344</v>
+        <v>11.71687902767037</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.46888299484024</v>
+        <v>58.71694689067984</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>71.7692170796316</v>
+        <v>66.44448241175732</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>78.11526011380147</v>
+        <v>68.97686632817236</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>79.78284607931866</v>
+        <v>72.2313617371731</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>83.36165906708287</v>
+        <v>77.6448051878979</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.56622099026491</v>
+        <v>27.13163190327179</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>66.25394789431594</v>
+        <v>58.26054291035081</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>75.85255926381411</v>
+        <v>69.5742945452518</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.331013045981297</v>
+        <v>6.027533635125376</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.49223417338853</v>
+        <v>24.3054802733199</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.71662176216088</v>
+        <v>33.69883678260892</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3.336387390127015</v>
+        <v>2.503515198466769</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.47946622439131</v>
+        <v>28.56040551914987</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>34.27779873644457</v>
+        <v>30.55114075230124</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.771760818828241</v>
+        <v>6.389236878460196</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>53.1710044691746</v>
+        <v>52.06466298166725</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>57.50425205057151</v>
+        <v>56.77796627480896</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>60.07054249083072</v>
+        <v>57.49045794947088</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>61.41157411387925</v>
+        <v>57.36267717894207</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.0123353339221</v>
+        <v>59.90238908207077</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>6.982587845180912</v>
+        <v>4.576341063223108</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>41.97100468020414</v>
+        <v>37.27686065257473</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.64397263483849</v>
+        <v>41.71157721042788</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.53696174789144</v>
+        <v>8.56514386965199</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.13964292675472</v>
+        <v>32.05579441756844</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>36.4473087480111</v>
+        <v>33.49709364389602</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>4.057390252508906</v>
+        <v>2.503498525501602</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.55850897506761</v>
+        <v>26.66971827765164</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.18045775065406</v>
+        <v>31.15238486392073</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>5.988751804555172</v>
+        <v>5.11707250624908</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>45.12545939112854</v>
+        <v>41.45733868332979</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>55.74701171246303</v>
+        <v>48.40304192140084</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>45.22800491380406</v>
+        <v>41.51721327829243</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>54.82876095770055</v>
+        <v>50.55921038285354</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>61.05681412055128</v>
+        <v>53.39238596474851</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>7.256210549649627</v>
+        <v>5.662620301764001</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>45.86950684416819</v>
+        <v>43.97853351700945</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>54.23283271215655</v>
+        <v>49.9480341084619</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>9.659078342427215</v>
+        <v>7.426592105872757</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.86052144887706</v>
+        <v>31.20943909815576</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>41.89911477494919</v>
+        <v>38.91539385693083</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1.352626813274707</v>
+        <v>2.502871901826495</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.17922587395979</v>
+        <v>26.8192862561745</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.60851521628268</v>
+        <v>35.4431719175022</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>4.053448382713562</v>
+        <v>5.832955146498922</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.12412386179403</v>
+        <v>43.65242197473628</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>66.31567765138023</v>
+        <v>59.93142684505217</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>59.75360530943306</v>
+        <v>56.64048896141457</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>73.00748555896445</v>
+        <v>71.76647086411238</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>82.00116017828208</v>
+        <v>75.26371867319341</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>5.600736326296655</v>
+        <v>5.055650992674678</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>59.25367895303192</v>
+        <v>55.9918941456349</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>68.43627247868662</v>
+        <v>65.34176370704667</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>9.407415826801412</v>
+        <v>12.81004341533762</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>13.71583203604394</v>
+        <v>14.74785500313921</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>17.07600457645212</v>
+        <v>15.62472404800998</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1.155412141019124</v>
+        <v>4.245807568459917</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>15.35276074046706</v>
+        <v>13.14434187560939</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.7346792652105</v>
+        <v>14.32319665704015</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7.878387963077945</v>
+        <v>11.92605829235543</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.52873755449678</v>
+        <v>22.93985486102116</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.58708720531623</v>
+        <v>24.76251606585103</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.26885740415795</v>
+        <v>21.83753646223466</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.73194998148172</v>
+        <v>25.11640307927826</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.67576287975578</v>
+        <v>28.0744504550625</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>10.99016039860422</v>
+        <v>11.88669875928588</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.27888015310722</v>
+        <v>15.78679530798763</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.46329045337787</v>
+        <v>19.42327351261984</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>7.992981126443077</v>
+        <v>7.481047629457986</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.46632901819527</v>
+        <v>21.73872635862489</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.58462336967094</v>
+        <v>30.54742444703322</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1.765572042186463</v>
+        <v>2.602980745308798</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.70140446929119</v>
+        <v>11.08410867573761</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.85113463906012</v>
+        <v>24.91643200476418</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>3.768917947574828</v>
+        <v>4.308760972494763</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.4379045959328</v>
+        <v>21.25742208552097</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.73780023740307</v>
+        <v>43.48187925732033</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.06910204747466</v>
+        <v>27.6057286667442</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>38.91116237956159</v>
+        <v>37.26826353873072</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>52.26707186601487</v>
+        <v>48.71959846842513</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>5.356492985045122</v>
+        <v>4.186818381714733</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.92779218316759</v>
+        <v>30.53144769252207</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.94912290911019</v>
+        <v>40.5750327491365</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.29311445498785</v>
+        <v>14.9836167106927</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.60531689904773</v>
+        <v>30.97465994432159</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>39.37256832266363</v>
+        <v>37.17007861939682</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>3.126650101304346</v>
+        <v>2.834715775189267</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.82433132702715</v>
+        <v>23.04267944086716</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.4681525339966</v>
+        <v>32.48002893114624</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>8.401300327502994</v>
+        <v>7.382463549059022</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.94751717518137</v>
+        <v>38.73092194324953</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>57.9581944758241</v>
+        <v>54.80683220804941</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>48.19361815174789</v>
+        <v>47.45508032511457</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>56.32579329067703</v>
+        <v>55.30642507603442</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>67.43108865273572</v>
+        <v>61.94214490327084</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>5.196785660390102</v>
+        <v>4.754256411847329</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.14848525452192</v>
+        <v>40.57902935478801</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>62.60121830271619</v>
+        <v>59.56121783509704</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>15.19656457290674</v>
+        <v>15.51829092130363</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>20.85162873597994</v>
+        <v>23.36276781643433</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.31653181023758</v>
+        <v>26.42194143409044</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1.904687999032934</v>
+        <v>3.451732651111758</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.68749324791451</v>
+        <v>27.2658343834417</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.696919183353</v>
+        <v>27.51927856855288</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>13.01313756669873</v>
+        <v>14.35497343632575</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>46.33454546030561</v>
+        <v>44.67830755815795</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>47.98811246970271</v>
+        <v>46.12315076626182</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.06480514301242</v>
+        <v>32.29918173867197</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.61443928075286</v>
+        <v>36.35597530039378</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.85429084673591</v>
+        <v>43.30935814005898</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>9.806364019161578</v>
+        <v>12.35816350283031</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.58633368504785</v>
+        <v>37.07246464674527</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.65063754746579</v>
+        <v>41.7755742897288</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.14873002536235</v>
+        <v>7.321729700252543</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.43033497313308</v>
+        <v>24.66167942621636</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.47259863041575</v>
+        <v>34.77913491124286</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>3.344885896165508</v>
+        <v>2.46656485967285</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.67689337033536</v>
+        <v>16.74796227564142</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>40.51542264130074</v>
+        <v>39.17919013929584</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2.469439533416573</v>
+        <v>5.71185928476892</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.15983809207327</v>
+        <v>28.9036567106406</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>50.23731144818011</v>
+        <v>47.10078345326863</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.48086587471662</v>
+        <v>25.97137832614295</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>41.20441892738215</v>
+        <v>37.35592172941458</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>57.86734755436287</v>
+        <v>54.39500557085867</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.617586198446425</v>
+        <v>5.098781834928786</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>39.18456013825178</v>
+        <v>34.1300117832134</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>49.37408048997995</v>
+        <v>41.72473983829897</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>13.81150938514999</v>
+        <v>11.36258625612694</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.63483840313913</v>
+        <v>25.60667732908967</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.77087349613309</v>
+        <v>34.49424986331697</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>3.383922985816071</v>
+        <v>2.466496346471189</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.32557525436469</v>
+        <v>25.26683001588347</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.82274029521412</v>
+        <v>32.08100695718108</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.398782548093099</v>
+        <v>6.999259887302788</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>43.1135615704721</v>
+        <v>42.72094673287292</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>53.72356909625123</v>
+        <v>49.3363878407705</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>53.10513943362237</v>
+        <v>51.33858315725031</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>58.35258127940033</v>
+        <v>55.89093638539663</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>69.81153082634029</v>
+        <v>65.72580117339814</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>4.885267427374544</v>
+        <v>4.041443169102937</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>37.61188377010792</v>
+        <v>33.25546955012977</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>57.63878217374462</v>
+        <v>54.03804731017334</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>16.71309698105055</v>
+        <v>17.03060938538496</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.68018674237749</v>
+        <v>23.83845464862532</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.32300412930719</v>
+        <v>34.27109575890061</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>5.837317475294075</v>
+        <v>3.675464624772683</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>42.59065229330255</v>
+        <v>42.85611875803604</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>47.43500474370185</v>
+        <v>44.84665745109753</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>14.80858531380576</v>
+        <v>12.81025590084656</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>65.11982955561732</v>
+        <v>64.43769931871782</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>66.26952563589194</v>
+        <v>64.89662717808471</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>59.98461880204688</v>
+        <v>57.43773560663425</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>58.80644398191599</v>
+        <v>56.73327513872215</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>62.60872974388172</v>
+        <v>60.33508777537418</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>15.84350857889051</v>
+        <v>16.02451544319836</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>22.14142197195455</v>
+        <v>21.03379147332195</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>66.57432618459596</v>
+        <v>62.90184394956185</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.7499238347098</v>
+        <v>24.86737252260914</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.8461447045133</v>
+        <v>35.20082155611433</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.79793945189354</v>
+        <v>35.84461370909935</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.436332403433763</v>
+        <v>3.877332697281759</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.68197894482445</v>
+        <v>30.05182141601134</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.94154606112657</v>
+        <v>34.43344435653478</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>10.69270902007903</v>
+        <v>10.05702773262494</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>49.21320989897493</v>
+        <v>49.22123974091639</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>57.5396036768463</v>
+        <v>53.79689460738908</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>51.09429011052867</v>
+        <v>49.83904825197906</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>56.59271421840056</v>
+        <v>56.52383533300151</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>62.83040500905784</v>
+        <v>57.1631012577224</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>19.81948021461789</v>
+        <v>21.89454490121615</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>52.5155504686846</v>
+        <v>47.94714435967443</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>57.88088939310004</v>
+        <v>52.87887996446565</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.59365392116474</v>
+        <v>25.78607745253794</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>39.26625914557835</v>
+        <v>35.84872161914207</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>43.93922894575044</v>
+        <v>40.16942364229795</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>4.674790775122432</v>
+        <v>3.769407502676955</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.58641319638353</v>
+        <v>34.64049572967088</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.3009298963003</v>
+        <v>38.12346671369916</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>12.61440518438201</v>
+        <v>10.04836040432571</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>60.1170829972359</v>
+        <v>57.95424188624479</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>70.39878018816346</v>
+        <v>66.45783070660906</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>68.19073742808091</v>
+        <v>64.3189227042453</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>73.4269398070093</v>
+        <v>69.1183234340342</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>81.1291917251767</v>
+        <v>75.15174286351854</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>17.94848351576913</v>
+        <v>18.34070172558535</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>60.29439470810017</v>
+        <v>58.46754081584294</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>69.97917530861262</v>
+        <v>65.27361218074628</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>7.700902153215704</v>
+        <v>6.285626324784904</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.46377368458203</v>
+        <v>23.4453428340517</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.15861354895254</v>
+        <v>31.59226973734748</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2.833658708782988</v>
+        <v>2.466531872242516</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.38804274456665</v>
+        <v>30.16472064968751</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.29776732035562</v>
+        <v>30.16428800821216</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>8.287964674287281</v>
+        <v>6.410493003090981</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>50.6557103288761</v>
+        <v>48.72199244742853</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>55.01850328935441</v>
+        <v>53.57075333772903</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>55.87442442142883</v>
+        <v>54.74651352882618</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>61.24858919009857</v>
+        <v>60.29191189360155</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>58.83491398053249</v>
+        <v>56.27473373687163</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>6.44612142857201</v>
+        <v>4.433664885935357</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.50422964648229</v>
+        <v>37.05514289367566</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.05045753675437</v>
+        <v>40.1436220057283</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>10.70056573585888</v>
+        <v>9.433890014649972</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.89017411777256</v>
+        <v>33.89489573518692</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.51578264810943</v>
+        <v>32.55897410585644</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>4.016806755714359</v>
+        <v>2.826481702889104</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.23090378202084</v>
+        <v>26.35656827259769</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.65354999452773</v>
+        <v>31.74502710769766</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>7.854933611461483</v>
+        <v>6.067830309183279</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>45.12512754741394</v>
+        <v>44.99943225318161</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>59.68693284571627</v>
+        <v>55.01146530607703</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>47.13705414993134</v>
+        <v>45.81440158964404</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>56.66255087868062</v>
+        <v>53.23052127434389</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>63.47208005314863</v>
+        <v>56.63142312186346</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>6.968001818276555</v>
+        <v>5.592514689807047</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>54.66469511291297</v>
+        <v>46.93314525970459</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.57983311262584</v>
+        <v>51.10164349695124</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>10.99395872183329</v>
+        <v>9.076472959258293</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>31.04916131506108</v>
+        <v>33.21823731556455</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>41.20274179283008</v>
+        <v>40.48866554963313</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>2.284183092922998</v>
+        <v>2.503330650193579</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.58310266943015</v>
+        <v>26.24687090627313</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.29907394957986</v>
+        <v>33.08061094344268</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.854836440836323</v>
+        <v>5.619061608514215</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>44.37924491600195</v>
+        <v>44.21683533692094</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>65.95978302410559</v>
+        <v>58.44098664307955</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>60.8130903598539</v>
+        <v>58.74712655323526</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>69.85135908519602</v>
+        <v>66.32135433313468</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>80.87902383212553</v>
+        <v>73.98636949673565</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>5.463369923307226</v>
+        <v>4.727532967240304</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>51.15659585320985</v>
+        <v>47.9122036371509</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>65.89814052606565</v>
+        <v>64.07395624837589</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.522</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.934</v>
+        <v>18.845</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.747</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.15</v>
+        <v>14.701</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.955</v>
+        <v>0.976</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.554854839316949</v>
+        <v>11.2116182222462</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.92936039493036</v>
+        <v>14.34213105940278</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13.92354093320614</v>
+        <v>15.60308393951808</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.543584895518364</v>
+        <v>4.898673714847082</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.84243909854515</v>
+        <v>14.46154347113837</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.50194447932568</v>
+        <v>15.17530773584855</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.219068732575323</v>
+        <v>8.19254207961006</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.56987062537303</v>
+        <v>20.60388511171432</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.30650833625477</v>
+        <v>23.2089317309352</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21.23414281771628</v>
+        <v>22.15992868399324</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.16282505435603</v>
+        <v>25.73795827149618</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.53718908770737</v>
+        <v>29.72270419558333</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.296813207485364</v>
+        <v>10.40101442839251</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.92304883600005</v>
+        <v>16.81403925056741</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16.50004444946779</v>
+        <v>17.71373827451646</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.983328644633474</v>
+        <v>10.65368400706769</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.81833789261304</v>
+        <v>27.92962718535609</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.24955800395607</v>
+        <v>39.8793274164172</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.58184208166643</v>
+        <v>5.47928108021118</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.81737191498178</v>
+        <v>15.46944708669434</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.52738154853647</v>
+        <v>30.23970073367876</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.852620358515349</v>
+        <v>6.06778985780425</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.60193346036268</v>
+        <v>26.27723725797186</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>55.08127752368215</v>
+        <v>53.93941492847848</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.26367513955503</v>
+        <v>29.43944250037501</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>49.71825725186223</v>
+        <v>47.91768746192078</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>71.57415350268062</v>
+        <v>68.19331158602337</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.358617879465754</v>
+        <v>7.879277847701651</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.16159660170005</v>
+        <v>41.86956560299848</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>60.14078537830669</v>
+        <v>58.53327932427801</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>12.87143791390562</v>
+        <v>14.31508253866589</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.19989218171015</v>
+        <v>33.87228640153813</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.43908285259286</v>
+        <v>41.81087840678967</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.270512878580703</v>
+        <v>6.003408635131994</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.12674436928168</v>
+        <v>27.37927723798485</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>38.28624981629429</v>
+        <v>38.52887709029581</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.555907197459888</v>
+        <v>5.851839456184045</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43.90442785422513</v>
+        <v>43.80430253256955</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>57.28505546638571</v>
+        <v>56.15910272775885</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>53.61077721678917</v>
+        <v>52.78933047006961</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>68.58517434904313</v>
+        <v>66.15955513142416</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>76.88246972346892</v>
+        <v>72.62370609362476</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>17.04823573702126</v>
+        <v>18.83457196299518</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>59.14574133870049</v>
+        <v>58.12234601202793</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>66.06956677822878</v>
+        <v>64.49760256221026</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.63830715233388</v>
+        <v>7.038113613290996</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.65023542935529</v>
+        <v>30.28337648357727</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.34447177804948</v>
+        <v>38.54546307422582</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.035700549346377</v>
+        <v>5.37019273007461</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>37.24086791316008</v>
+        <v>35.61693293604715</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40.09281901138218</v>
+        <v>38.92221962824395</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3.926485611047902</v>
+        <v>6.153259848184256</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>59.28950542033316</v>
+        <v>55.65450960496517</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>65.47984836495765</v>
+        <v>61.43294716666556</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>60.67845642494513</v>
+        <v>58.4983519451724</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>71.55153781659931</v>
+        <v>68.49952623933713</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>59.5206903328954</v>
+        <v>57.42238234639048</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5.771982088111471</v>
+        <v>7.882531463038816</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>42.22832128971581</v>
+        <v>40.40074347295187</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>49.39327730645212</v>
+        <v>47.30196615651304</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6.769002423473005</v>
+        <v>8.721859101761837</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>36.39754697300479</v>
+        <v>35.86800287035541</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.32909273020104</v>
+        <v>41.43519180140915</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.303863277488023</v>
+        <v>5.367475652322149</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.86019083679457</v>
+        <v>22.92068053661055</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.56280643340998</v>
+        <v>33.33084347182028</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2.669694816947779</v>
+        <v>5.540223869300114</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>43.97416246301312</v>
+        <v>41.79900849635048</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>58.44985462671033</v>
+        <v>57.00202478395485</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>46.40984939741483</v>
+        <v>43.93197511764888</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>64.7468672114117</v>
+        <v>61.78300184980638</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>72.28922668618624</v>
+        <v>68.93602009332074</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5.061648505454006</v>
+        <v>7.204007158783522</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>55.17988371030009</v>
+        <v>53.8173883811407</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>58.6719777584983</v>
+        <v>57.13229798898121</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>7.190568189204047</v>
+        <v>9.114718635039026</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>37.47155617369226</v>
+        <v>36.57674394542957</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.40614764303928</v>
+        <v>43.27651912336849</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3.04313247263833</v>
+        <v>5.367422440364034</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.11466609662081</v>
+        <v>35.10377344004296</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>39.86317117125425</v>
+        <v>39.69216017029191</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3.225819613281505</v>
+        <v>5.504884102522539</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>57.91803992772508</v>
+        <v>56.10457561735998</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>74.37855005666158</v>
+        <v>70.44549005711498</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>60.87951617265594</v>
+        <v>59.36795446761636</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>81.02162956718644</v>
+        <v>77.37961213082438</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>84.57835816790769</v>
+        <v>80.06251657780754</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5.592012878993362</v>
+        <v>8.077517759858431</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>67.90934659337799</v>
+        <v>65.79062922637719</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>71.82399894675463</v>
+        <v>69.28854655584298</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>15.21343956189234</v>
+        <v>16.26714518728041</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.59157287593828</v>
+        <v>29.79904338673732</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.21122859308689</v>
+        <v>36.25859354417485</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.930711311800568</v>
+        <v>5.778443284686826</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.17857022265446</v>
+        <v>34.4659554569504</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.22816694690553</v>
+        <v>36.43729696626049</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.85522112018305</v>
+        <v>7.106803359430874</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>60.55977287356597</v>
+        <v>58.46277043419586</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>58.92162956581235</v>
+        <v>56.73974779968096</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>49.0010013583873</v>
+        <v>48.22457659867078</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>58.76415623607588</v>
+        <v>57.24560754890089</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>56.13059429952958</v>
+        <v>54.91747547675227</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.31922176515434</v>
+        <v>12.70496242571156</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.90124049827539</v>
+        <v>33.97990519555682</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.39663611182843</v>
+        <v>37.10662205194659</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.71393274678294</v>
+        <v>23.23566578235304</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>40.93039233199131</v>
+        <v>38.91828822536633</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.59862981991054</v>
+        <v>42.57110098622891</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.045316193375513</v>
+        <v>5.805740709899798</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.20829563583609</v>
+        <v>32.52999502493797</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.99776979422451</v>
+        <v>35.0742482888711</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.63975608250826</v>
+        <v>7.03776909772985</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>56.47008288970065</v>
+        <v>54.65494795907883</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>60.48208834146321</v>
+        <v>58.38876870767393</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>56.12202363177022</v>
+        <v>54.13761569707579</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>68.19277031547666</v>
+        <v>64.63278274010111</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>72.45943220900537</v>
+        <v>69.09237333094434</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.98617289752342</v>
+        <v>20.82228215448704</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>55.76986506646141</v>
+        <v>54.44673896780925</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.56930333662388</v>
+        <v>60.51899270407303</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.5031269225983</v>
+        <v>22.20073299567591</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.31234223727476</v>
+        <v>41.29825159493755</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.9811640346251</v>
+        <v>43.25131708717019</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3.040997356862981</v>
+        <v>5.93368266860676</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.84016834848038</v>
+        <v>35.92549894121553</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.43027546736883</v>
+        <v>39.26849134977262</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4.235459721888159</v>
+        <v>6.404179418091303</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>64.061116543298</v>
+        <v>62.02537392754773</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>72.49581274330438</v>
+        <v>68.75336521372847</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.05113165203467</v>
+        <v>64.6062193703022</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.63433078967689</v>
+        <v>72.39718106432922</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>83.39584694239387</v>
+        <v>79.52644450067595</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>20.87400848477645</v>
+        <v>21.7498956796634</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>67.05011055821049</v>
+        <v>64.29297781662606</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>71.68563123070612</v>
+        <v>68.19908592478033</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>11.36272285573544</v>
+        <v>13.59144868583327</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14.89860381875196</v>
+        <v>16.2511829146569</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>15.42419669005159</v>
+        <v>16.69074837550532</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.834432666864451</v>
+        <v>6.348985500192509</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.33914093478537</v>
+        <v>13.1624818886856</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11.89315677907245</v>
+        <v>13.70481062763582</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.65081909788303</v>
+        <v>9.44158816957674</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.63974197066125</v>
+        <v>24.61120492357922</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>23.56200394509801</v>
+        <v>24.38619167800633</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.40399990560515</v>
+        <v>22.32651838977889</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>24.0490379076034</v>
+        <v>24.68145293523959</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.05274595789337</v>
+        <v>31.17607199174999</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>62.03978631012055</v>
+        <v>59.1149675125937</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>64.77026305390753</v>
+        <v>62.04524353152507</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>62.28454789706952</v>
+        <v>59.71546668290266</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>8.793533497338696</v>
+        <v>10.46172179295651</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.43053443749723</v>
+        <v>28.52211578769842</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40.64845261567075</v>
+        <v>39.76502387704452</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2.045051110984836</v>
+        <v>5.367515659403523</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>9.969799960697788</v>
+        <v>12.51944114022975</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.13814304643724</v>
+        <v>26.48210654937279</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.44260837688523</v>
+        <v>29.34316758563107</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>55.32117836406407</v>
+        <v>54.24779290631815</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.11827644582671</v>
+        <v>28.31975219193898</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>47.48492763326107</v>
+        <v>45.58098956814169</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>66.46323942222992</v>
+        <v>63.4428317484691</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>6.203659026593396</v>
+        <v>8.825719025559238</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>42.90028730007849</v>
+        <v>42.49407428104998</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>51.61365157806662</v>
+        <v>50.61794160001639</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>23.03523944146154</v>
+        <v>23.65031720018198</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.36553719063467</v>
+        <v>34.26772443863246</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.15494489976797</v>
+        <v>43.38118217343816</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3.686183592670844</v>
+        <v>6.324782402278778</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.73211622289978</v>
+        <v>18.90736824275181</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>27.84753591647327</v>
+        <v>29.10302541667521</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>8.380504745461291</v>
+        <v>10.64283259371782</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>40.70728701337127</v>
+        <v>40.99550197955348</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>61.78552874286312</v>
+        <v>60.09371612879698</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.50807188679998</v>
+        <v>39.64040707559495</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>55.4615857754828</v>
+        <v>53.90630470737258</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>75.76798691787641</v>
+        <v>72.80483081782043</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24.82066213728576</v>
+        <v>24.43847200369758</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>58.80306549293867</v>
+        <v>57.29577753911401</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>65.69213917475726</v>
+        <v>63.82398295830983</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>6.940425933956885</v>
+        <v>10.31909276413311</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.95616056584942</v>
+        <v>24.36455361702556</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.97329729323904</v>
+        <v>30.54165063500882</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3.37804608281639</v>
+        <v>5.700989415666381</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>30.53119386087494</v>
+        <v>30.72552975436245</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>38.29702796516477</v>
+        <v>38.41335911747414</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>8.56904661527593</v>
+        <v>10.36926029588907</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>60.65390785545843</v>
+        <v>58.78390612044912</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>63.26545537249045</v>
+        <v>61.05276082427274</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>48.71333668067572</v>
+        <v>48.42020155175959</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>61.45314128821926</v>
+        <v>60.18330989644368</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>62.45201354111256</v>
+        <v>61.2710206725892</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>12.25781126854044</v>
+        <v>13.639791515778</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.21178463366596</v>
+        <v>11.68311487626873</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>10.98975710918642</v>
+        <v>12.35773585534705</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.71425676680999</v>
+        <v>25.24532487571053</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>42.40841950829214</v>
+        <v>41.66210494962327</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>41.9102399002675</v>
+        <v>41.19044509942761</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>3.849182938417925</v>
+        <v>6.098500926540442</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>32.67845045569473</v>
+        <v>33.055699560352</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>39.55548876747785</v>
+        <v>39.15815100383304</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>59.55475938672484</v>
+        <v>57.73302671450206</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>62.65790163950511</v>
+        <v>60.75035657476049</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>61.40673965608786</v>
+        <v>59.27766587588987</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>72.52929094046127</v>
+        <v>69.07651747462565</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>76.59688784577203</v>
+        <v>72.65855996415759</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.98932498368976</v>
+        <v>33.07435687005358</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>62.05709885651656</v>
+        <v>60.27094340422869</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>65.08225878599883</v>
+        <v>58.08999465759934</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.29424735047857</v>
+        <v>25.80310358732044</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.71320861477795</v>
+        <v>41.76032298152467</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>44.57926787974088</v>
+        <v>43.54434348428163</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>3.747301571947069</v>
+        <v>6.06611253017164</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.99359661525522</v>
+        <v>29.09947135567364</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.10177579866491</v>
+        <v>36.66095850094583</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>8.947353262836572</v>
+        <v>11.92301476749242</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>58.70947391180533</v>
+        <v>57.24444539979778</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>69.18311769885746</v>
+        <v>66.05517065938834</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>66.04000690742484</v>
+        <v>64.07254288658434</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>75.32281469793452</v>
+        <v>71.04629356166606</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>79.66431222585494</v>
+        <v>74.97862947023839</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.1703196927613</v>
+        <v>33.43160246014185</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>68.01493137282412</v>
+        <v>66.08305119152094</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>73.3567500293907</v>
+        <v>70.06739526570142</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>5.243333370965665</v>
+        <v>7.446417677837459</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.7829128981699</v>
+        <v>20.72561277148372</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.63356293367426</v>
+        <v>30.70011683623335</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2.602245820754643</v>
+        <v>5.482830030061344</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>38.44128340144584</v>
+        <v>38.24055172824497</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.14367588179313</v>
+        <v>36.19913266384155</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8.687624629051133</v>
+        <v>10.71242977109269</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>64.30225581710501</v>
+        <v>60.70590576229528</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>65.53954647636192</v>
+        <v>62.99257905737383</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>49.67937980245236</v>
+        <v>49.3756579115794</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>63.11415472449215</v>
+        <v>61.75463455914264</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>65.34467658404886</v>
+        <v>63.92856048603981</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>7.208045547976145</v>
+        <v>9.021216166310786</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>7.155818276654205</v>
+        <v>8.938434049060881</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>7.700280561439065</v>
+        <v>9.36220602325276</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.79861684033854</v>
+        <v>17.79025347004637</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>44.7706186190498</v>
+        <v>43.62043081446492</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>46.03074903827236</v>
+        <v>44.86486020691126</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>3.163015513838321</v>
+        <v>5.476878302324526</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>38.92308759963505</v>
+        <v>38.56859869539493</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>46.02683832589982</v>
+        <v>45.36651947323833</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>3.605346410260207</v>
+        <v>5.863877113618297</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>65.50923189755858</v>
+        <v>62.97027549572451</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>68.24692777487624</v>
+        <v>65.70877327528424</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>53.34418211849566</v>
+        <v>51.36448022028284</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>67.92964837828069</v>
+        <v>64.76636549047407</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>77.341706954874</v>
+        <v>73.64445236792966</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>15.5599641500732</v>
+        <v>17.297702531207</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>66.0835464995715</v>
+        <v>63.87774887022792</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>69.52460738700979</v>
+        <v>67.01955573229203</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.46039508289148</v>
+        <v>21.30502490114839</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>3.24841918299893</v>
+        <v>5.676617781978177</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>36.89568923729517</v>
+        <v>37.02458199960527</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.44678385280513</v>
+        <v>38.41307493038686</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6.35350617462834</v>
+        <v>8.367575053539181</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>64.61163357267156</v>
+        <v>62.46942730328344</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>71.18954369709905</v>
+        <v>67.61821248916452</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>68.88048984564726</v>
+        <v>66.43804187515421</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>79.39519543600113</v>
+        <v>75.75586955446477</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>84.31752946887595</v>
+        <v>80.30564735227847</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>15.21374514143142</v>
+        <v>16.99107459070007</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>72.0141650565637</v>
+        <v>69.44092352136492</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>75.26004218856934</v>
+        <v>72.36076710848978</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>7.13013683544991</v>
+        <v>10.10649012265315</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>7.291289650698427</v>
+        <v>9.460501299183047</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8.442597285279227</v>
+        <v>10.11276681228164</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>2.318015363146973</v>
+        <v>5.966902920818963</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.57894744546435</v>
+        <v>12.33077672240242</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>10.37749538131328</v>
+        <v>12.22829865479475</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>5.290977781022363</v>
+        <v>8.893935612447905</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>16.34226742990413</v>
+        <v>17.50730268533862</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.82792027956837</v>
+        <v>20.22453616329079</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>23.50471828648665</v>
+        <v>24.65765486092929</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.02496728009312</v>
+        <v>28.00455622580053</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>32.35887924769303</v>
+        <v>32.84760999693086</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>6.413084592608318</v>
+        <v>8.809166214199021</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>7.946390210373121</v>
+        <v>10.20162263664306</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>9.959114453717056</v>
+        <v>11.89159317529741</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>8.646069098427915</v>
+        <v>10.31512543643237</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.80885025474407</v>
+        <v>27.79120070339172</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.4484262315592</v>
+        <v>33.57081974590439</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>3.15174396407458</v>
+        <v>5.459634760385232</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.21610282889417</v>
+        <v>19.4749024574598</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.76518738391426</v>
+        <v>29.92443858631459</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>7.509165470838045</v>
+        <v>9.38485256281141</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.88669550442047</v>
+        <v>33.55692063189188</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>51.39667855493303</v>
+        <v>50.21987590425039</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.47286258603478</v>
+        <v>35.11627980755509</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>49.98151246128522</v>
+        <v>47.78522889411601</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>55.54795577002314</v>
+        <v>53.47398108189108</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>7.624082887729823</v>
+        <v>9.860007889548683</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.52409776809904</v>
+        <v>41.88004592522724</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>50.52682560042444</v>
+        <v>49.74620429629823</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>8.789364108577637</v>
+        <v>11.06053520369444</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.47902336638942</v>
+        <v>28.75065778541618</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.07063307436249</v>
+        <v>38.6121645366816</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>2.539275371427529</v>
+        <v>5.43737678834427</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.73155067380376</v>
+        <v>27.52121295052693</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>35.79796540100936</v>
+        <v>36.14405925591507</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>6.907875292395719</v>
+        <v>9.235038236018379</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>48.1110008636638</v>
+        <v>47.5741642390968</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>58.86006136641146</v>
+        <v>57.33813627523257</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>59.18958882047598</v>
+        <v>57.56716746301684</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>72.38961682282719</v>
+        <v>69.48622235334014</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>72.0083947485909</v>
+        <v>68.04318672650641</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>10.14255151947842</v>
+        <v>12.49243643731697</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>58.43755612418651</v>
+        <v>57.25179613796033</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>68.9558076950964</v>
+        <v>66.9088801577674</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>4.003328690423945</v>
+        <v>7.3904818209163</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>12.16280603140377</v>
+        <v>13.8517903214018</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>12.50367004571622</v>
+        <v>15.08292458626956</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1.903062447035744</v>
+        <v>5.194295663091122</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>9.872101086178979</v>
+        <v>12.40740984676419</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.10624768014505</v>
+        <v>16.71714410011115</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>2.629776129502133</v>
+        <v>5.649377135348161</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.57203903518957</v>
+        <v>16.96069843069099</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>12.018770966557</v>
+        <v>13.61108643288432</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.32605692124324</v>
+        <v>14.74220401799673</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>15.08889874477911</v>
+        <v>16.27885162215438</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.21834712551598</v>
+        <v>16.39462936038343</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>7.25907503359587</v>
+        <v>9.229041541305374</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>14.07452545217842</v>
+        <v>16.5573211583468</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>14.15256476061296</v>
+        <v>16.64113190708851</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>1.767454809645162</v>
+        <v>5.360297576857786</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>6.742509793984937</v>
+        <v>8.725172685936162</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>17.00985903860909</v>
+        <v>17.88236789793798</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>1.767559933155017</v>
+        <v>5.356888549986159</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>5.060114526396479</v>
+        <v>7.39647996140339</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.5319430558987</v>
+        <v>14.97376141584612</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>4.096486228221004</v>
+        <v>6.278429775531716</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>7.908265318940096</v>
+        <v>10.27330591921026</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.96797172523031</v>
+        <v>30.50517512827332</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>10.61953944956268</v>
+        <v>12.22878247197865</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>22.32438654898826</v>
+        <v>22.50155160040509</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>41.38659747420577</v>
+        <v>40.44590533215398</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2.413191963564515</v>
+        <v>5.367694270452365</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.68800352313018</v>
+        <v>13.30737313474898</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>12.96383355188945</v>
+        <v>14.42582216484253</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>3.263334084164594</v>
+        <v>5.616467404915809</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.03965721284618</v>
+        <v>11.83964753166406</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>26.81599557792704</v>
+        <v>27.57680018248676</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1.61727872506809</v>
+        <v>5.367584096388068</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>7.147951456944696</v>
+        <v>9.252578599621824</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>24.48196696612299</v>
+        <v>25.72393048693995</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>3.295023794090241</v>
+        <v>6.791292976555926</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13.2222883119214</v>
+        <v>14.89055562941712</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>49.31346995145908</v>
+        <v>48.99785760531646</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>18.41071698184104</v>
+        <v>19.58232243354936</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>46.8560601928654</v>
+        <v>45.28996975698299</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>65.28965127424988</v>
+        <v>62.93122788652845</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>2.475735064481452</v>
+        <v>5.367215381007753</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>11.55290328737234</v>
+        <v>13.42559711382494</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>21.17919728279607</v>
+        <v>22.8358077193097</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>13.01239746724597</v>
+        <v>14.28421407188494</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>19.6523052483292</v>
+        <v>20.44955818423498</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>37.40203140169528</v>
+        <v>36.38608034136569</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>3.390954187895026</v>
+        <v>5.662889738839375</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>43.90954109889496</v>
+        <v>42.21696473706442</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>43.88891231355166</v>
+        <v>42.9202532486003</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>6.322916996016634</v>
+        <v>8.710823626435211</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>61.94996469954415</v>
+        <v>59.33709921642374</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>67.32861520427214</v>
+        <v>63.82035417601664</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>54.4235447437616</v>
+        <v>53.35482691441726</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>59.38324988169588</v>
+        <v>57.96988327125889</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>62.11556569592703</v>
+        <v>60.53245347303265</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.1536237515316</v>
+        <v>21.9896585001479</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.78216364784353</v>
+        <v>39.95458754069128</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>67.95133691483412</v>
+        <v>64.70495674886703</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>12.13442443274628</v>
+        <v>13.82603389611853</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.56720813817168</v>
+        <v>32.45920410567555</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.87865388435617</v>
+        <v>33.90635225509764</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2.906510304727973</v>
+        <v>5.716696147229761</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>30.51055456114289</v>
+        <v>30.79138246299623</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.58825920694585</v>
+        <v>32.7370065250609</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>6.670685294980935</v>
+        <v>9.154696888437673</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>49.2977574209002</v>
+        <v>47.98671677414452</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>53.00080312489746</v>
+        <v>51.947583712838</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>46.0503389254999</v>
+        <v>44.83370346512525</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>53.96721751375858</v>
+        <v>51.91673102014845</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>57.70365720327281</v>
+        <v>54.93659628160732</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>19.50979613303267</v>
+        <v>21.14268459791692</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>48.57668760669003</v>
+        <v>47.5187135571132</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>52.77599153910629</v>
+        <v>51.41207826234823</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>15.63274039293093</v>
+        <v>17.09343811692986</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.65043243306295</v>
+        <v>31.74378337072318</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>42.44114846651838</v>
+        <v>41.55659201804399</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>3.001012940903035</v>
+        <v>5.774241285789863</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.81757593550532</v>
+        <v>38.76530619378118</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>40.46187070036339</v>
+        <v>40.12549369473248</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.546162765709695</v>
+        <v>10.35912875401822</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>60.17288778647902</v>
+        <v>58.38475354700491</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>70.55502985561854</v>
+        <v>67.47650764662976</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>61.54778888381399</v>
+        <v>59.72405583623487</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>71.98412636106276</v>
+        <v>69.16868622047797</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>75.12749487295052</v>
+        <v>71.84084644446624</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>18.5673951631156</v>
+        <v>21.24786642337517</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>65.52103693697485</v>
+        <v>63.57317162434624</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>75.21264314212858</v>
+        <v>72.28581706726104</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>8.504267640765313</v>
+        <v>11.75040543956986</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>11.03030838346283</v>
+        <v>12.56875925553504</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>11.74886269844864</v>
+        <v>13.94615060104094</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>2.986340331915155</v>
+        <v>6.04247780821493</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.959161130739773</v>
+        <v>11.70617801158874</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.00980829245868</v>
+        <v>13.92887428259619</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>6.00101721907151</v>
+        <v>8.616566749270195</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.63448994565641</v>
+        <v>16.90204764514369</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.86301751951692</v>
+        <v>18.09692544558424</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.07364177063972</v>
+        <v>16.90964242036023</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>18.29918665291353</v>
+        <v>19.73197413979035</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.68198693122593</v>
+        <v>22.67102637855121</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>7.436580147994189</v>
+        <v>10.52257457698092</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>11.27585698033133</v>
+        <v>13.03517338988157</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>13.73638733942018</v>
+        <v>15.39817027224577</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>5.698978512887198</v>
+        <v>7.635762213419504</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>14.14506782292192</v>
+        <v>15.29755812693177</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.52060285904945</v>
+        <v>27.42839223562856</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>2.754839629895859</v>
+        <v>5.367299128743269</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>5.708138359786293</v>
+        <v>8.372163540906403</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.27789731961822</v>
+        <v>26.05472150043324</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>5.356107906617389</v>
+        <v>7.815768765715056</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>10.64198435021592</v>
+        <v>12.7883649214509</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>40.27200743516018</v>
+        <v>39.95610243893271</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>14.67576838045842</v>
+        <v>16.13379921808028</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.9158035977362</v>
+        <v>25.92634967739734</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>41.92817598576413</v>
+        <v>40.66315544960643</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>3.337580147926712</v>
+        <v>5.586691889682708</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>20.73777825976914</v>
+        <v>21.25621087695414</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.96369903783271</v>
+        <v>30.40357211388864</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>10.05843108504419</v>
+        <v>12.07394605161554</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.89385675357572</v>
+        <v>22.94914244869104</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.28044712288127</v>
+        <v>37.158873885867</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.094603239520847</v>
+        <v>5.963861542322938</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>14.46136721352551</v>
+        <v>16.64625485950253</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.76726514240857</v>
+        <v>31.39092263336822</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>10.29514008452204</v>
+        <v>13.39651835218746</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.55948919583635</v>
+        <v>27.58446629567897</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>51.86974608251923</v>
+        <v>51.10402290917978</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.68183140251456</v>
+        <v>30.55895943031314</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>38.18504401020859</v>
+        <v>37.39843526110923</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>64.66522933884063</v>
+        <v>62.77305747992177</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>19.41507146380873</v>
+        <v>20.60208325864686</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.52427287906986</v>
+        <v>34.0010006505978</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>50.25311184209718</v>
+        <v>49.53756257298618</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>2.057070799112736</v>
+        <v>5.367792966588389</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>2.552011304810446</v>
+        <v>5.440078097425918</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>8.449540556918119</v>
+        <v>11.7246606046251</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>1.67861011831312</v>
+        <v>5.361820745192965</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.466713393047034</v>
+        <v>5.367488805041155</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>3.934800317844001</v>
+        <v>6.887141709264714</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>7.622642410692698</v>
+        <v>9.58112460746392</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>9.347008280666827</v>
+        <v>11.12465010466861</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>9.620931906540836</v>
+        <v>11.65174814686912</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>3.555824116578503</v>
+        <v>5.868823920688097</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>3.874021923912427</v>
+        <v>6.265948442468176</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.1008913366161</v>
+        <v>21.51334584973601</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>1.767462829469203</v>
+        <v>5.367589863267984</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>2.466869219933919</v>
+        <v>5.367701123538371</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>2.770876948208002</v>
+        <v>5.467038925413</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.12316813745724</v>
+        <v>18.43362478610377</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>32.82556236383112</v>
+        <v>31.84141088582697</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.24200997747609</v>
+        <v>34.85678527312408</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>3.411069448153413</v>
+        <v>5.736492973705431</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.46587400640615</v>
+        <v>25.86665855582089</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.56227800616994</v>
+        <v>31.24828791072538</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>8.353325153817593</v>
+        <v>10.17394200011223</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.52829968911539</v>
+        <v>50.04550147559266</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>55.50351556848145</v>
+        <v>53.72845653850992</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>46.76248837630862</v>
+        <v>45.65620425473881</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>55.4760700256878</v>
+        <v>52.15787213995491</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>55.04886177564777</v>
+        <v>52.23383556590484</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>16.96251644975187</v>
+        <v>19.28305098770268</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.4850036311451</v>
+        <v>46.71103718151709</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.60974968171841</v>
+        <v>52.01963880503963</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.99451500002225</v>
+        <v>20.2114567680386</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.99354945334203</v>
+        <v>35.85615295301497</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>46.99175293421368</v>
+        <v>45.75666690490141</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>2.930713430324911</v>
+        <v>5.802108365523804</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>32.90091861669687</v>
+        <v>33.47959663994473</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.59069513585813</v>
+        <v>36.75338565259246</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>7.960524315790018</v>
+        <v>10.23443421946121</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>59.46834446498215</v>
+        <v>57.99873714188762</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>67.29652279227781</v>
+        <v>64.73030162139686</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>64.2864601432855</v>
+        <v>62.46217171840323</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>73.56279311368888</v>
+        <v>70.75184150351625</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>76.51800534492864</v>
+        <v>72.210082514756</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>13.64889064022555</v>
+        <v>15.66066868146301</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>63.48834785353134</v>
+        <v>62.01814445329157</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>67.42060431300619</v>
+        <v>65.29896301780906</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>12.25700822248465</v>
+        <v>13.688511064796</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>13.76221862772025</v>
+        <v>15.22049738805355</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>14.4969667790572</v>
+        <v>16.09687412761224</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>4.564544390978163</v>
+        <v>6.728900160427209</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.13298625018508</v>
+        <v>16.70697660589943</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.25637065383115</v>
+        <v>17.9690002903393</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>12.00671815289423</v>
+        <v>13.32135535611425</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.42555308817001</v>
+        <v>24.16469879672331</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.91143406538005</v>
+        <v>25.54650752591945</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.91703482945507</v>
+        <v>23.20676393774387</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.26906886367239</v>
+        <v>26.58636147008195</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.80773856422118</v>
+        <v>30.01469293182204</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>15.01915401854545</v>
+        <v>16.13647526303555</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>14.52014778552417</v>
+        <v>15.94768494902259</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>17.34408745008006</v>
+        <v>19.12265416630112</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>4.423634856452676</v>
+        <v>6.545062715573131</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.59526914021133</v>
+        <v>12.15524906417182</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.66312480246914</v>
+        <v>21.56223177009913</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>1.450583722127238</v>
+        <v>5.367718439164459</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>4.772533383413254</v>
+        <v>7.489953285248092</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>17.31883936628637</v>
+        <v>18.67105898893623</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1.408323278468735</v>
+        <v>5.360724925006657</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>8.267524685947862</v>
+        <v>10.67240819655138</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.48254587887259</v>
+        <v>29.08894119066738</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>11.72979189913002</v>
+        <v>13.22144416201868</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>18.36050945368186</v>
+        <v>19.15438609789584</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>30.7395232008245</v>
+        <v>30.71081733819774</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>3.438440826192718</v>
+        <v>5.721384472382748</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>12.69726060594387</v>
+        <v>14.82996630826888</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.62695296915199</v>
+        <v>22.48695007267688</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>17.95537842290034</v>
+        <v>18.93237519981851</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.86361947334065</v>
+        <v>29.04438082564647</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.31436439569987</v>
+        <v>33.25683398335527</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>3.478651108756484</v>
+        <v>5.875724970578215</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.10863599815977</v>
+        <v>22.57661474720068</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>23.72902584391168</v>
+        <v>25.52795219281285</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>8.394087964854194</v>
+        <v>10.33616710667608</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>37.50213106980051</v>
+        <v>36.79330761827862</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.98067480358749</v>
+        <v>47.80230694288838</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>40.0928011574337</v>
+        <v>40.08926363246314</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>43.19984341307207</v>
+        <v>42.96176982161349</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>59.82773345381089</v>
+        <v>57.96050565049582</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>12.59406742248638</v>
+        <v>15.3585561866373</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>36.9341769143949</v>
+        <v>37.39964330498182</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>40.91687731056436</v>
+        <v>40.49098457620801</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>4.019478103706128</v>
+        <v>6.235167016204375</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>5.644432310198539</v>
+        <v>8.963011419390639</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>5.62460851784078</v>
+        <v>7.788540627756479</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2.097671176179915</v>
+        <v>5.367673639614363</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.597534224738556</v>
+        <v>7.316800519216883</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>6.395066299620165</v>
+        <v>9.151161946330305</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>8.070859309335106</v>
+        <v>9.906130577340662</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.62852645926972</v>
+        <v>12.68681314040131</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.50435820853431</v>
+        <v>11.40600307223265</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>5.382351547880674</v>
+        <v>8.019314383197347</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.049927771192067</v>
+        <v>6.807527170762576</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.8193426383653</v>
+        <v>12.60050853975866</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>3.079698519588305</v>
+        <v>5.367581173747514</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.324538904821345</v>
+        <v>9.178891919207818</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>6.550468723309319</v>
+        <v>9.29322475566644</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.21010160280688</v>
+        <v>5.971391337420524</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>4.54075284749343</v>
+        <v>6.74336095455201</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>5.551776319896273</v>
+        <v>7.681438681150144</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>1.767486026924338</v>
+        <v>5.367534369263002</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>2.05945177680708</v>
+        <v>5.753639063555308</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.345935844112571</v>
+        <v>7.065558657278476</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>2.328286637606976</v>
+        <v>4.673476023656431</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.927497732632904</v>
+        <v>7.082764988416905</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.54672036243683</v>
+        <v>9.128575014716294</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>3.079877176445201</v>
+        <v>5.36751875613021</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.538826572940941</v>
+        <v>6.669407031187749</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>5.231468283171719</v>
+        <v>7.313235873614548</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>1.76752001924185</v>
+        <v>5.36784465842079</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.602175254686262</v>
+        <v>6.400039489327586</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>4.195099726120777</v>
+        <v>6.971741623332157</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>18.88632481609315</v>
+        <v>20.21899324990319</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.00815509654962</v>
+        <v>24.13364556481656</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.72469815073517</v>
+        <v>23.62559352287244</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>3.679613654726701</v>
+        <v>5.952703851565484</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.64908271357208</v>
+        <v>15.82439807532428</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>15.13927924958998</v>
+        <v>17.17271475202163</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>11.61424200857586</v>
+        <v>13.23055964679387</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.31433516177702</v>
+        <v>27.8769660452151</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.25278746652672</v>
+        <v>30.95573968908946</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.44742080890532</v>
+        <v>30.01762022198722</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.35102432498678</v>
+        <v>31.71142444914085</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.7617709150033</v>
+        <v>34.93956222050228</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>21.64478530558023</v>
+        <v>22.59283095268398</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.66822091038047</v>
+        <v>27.81191016730151</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.03721246711786</v>
+        <v>30.07927362976629</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>18.42881083480583</v>
+        <v>19.23716454777767</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.20656571173017</v>
+        <v>28.76849914131257</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>38.99164042148235</v>
+        <v>38.13903354147286</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>3.468136621516486</v>
+        <v>5.933674438376794</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.14659401827943</v>
+        <v>21.5920571918199</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.53665070788942</v>
+        <v>26.25671556350904</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>11.06395279742704</v>
+        <v>12.69217528309871</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>44.71714513662225</v>
+        <v>43.45366294776201</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>49.62330731230668</v>
+        <v>48.27068796867869</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>42.8118922903071</v>
+        <v>41.73805538560116</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>49.30981343441046</v>
+        <v>47.66926208708657</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>52.21833710625712</v>
+        <v>50.67505797825383</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.56211913405542</v>
+        <v>29.53271107154034</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>53.32897841355545</v>
+        <v>51.64871865748987</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>56.68920885481833</v>
+        <v>55.34840918648032</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>15.61970315442482</v>
+        <v>16.72036442897608</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.82033801088432</v>
+        <v>27.2044485057403</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>31.67814620432766</v>
+        <v>31.5791733882092</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>1.821408282891387</v>
+        <v>5.367492766315852</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.54148827942254</v>
+        <v>12.95802156110789</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.59608010256071</v>
+        <v>16.90879703192445</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>8.198907242938073</v>
+        <v>10.30911980481339</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.92978334340338</v>
+        <v>29.39538824972641</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.84212615284699</v>
+        <v>34.64168881161637</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.50024885885168</v>
+        <v>27.81442590531737</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.71319139841899</v>
+        <v>33.46661545360374</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>37.45790938169783</v>
+        <v>37.07419914399483</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>18.77793692777306</v>
+        <v>19.8284928702001</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>37.87881876192979</v>
+        <v>37.84882702757184</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>41.61808791154093</v>
+        <v>41.49740377065739</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.5232684527771</v>
+        <v>22.2540309581028</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>34.08462360203949</v>
+        <v>33.9061910277664</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>44.23939211404174</v>
+        <v>43.26144293690377</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>2.921651910633507</v>
+        <v>5.796019062957097</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.39997856728782</v>
+        <v>23.66046970177078</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.20560177876652</v>
+        <v>27.32702559623633</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>11.69412242984166</v>
+        <v>14.1639237147099</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>46.88097550678105</v>
+        <v>46.26077324450102</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>55.16641246193177</v>
+        <v>53.22065753938422</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>57.98796487902252</v>
+        <v>56.41941205770515</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>64.14167605517811</v>
+        <v>62.00551456208642</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>66.93711637818598</v>
+        <v>64.84798479316756</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.46955169035945</v>
+        <v>29.98646169184675</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>56.10534251099499</v>
+        <v>54.74481879317968</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>59.4063324293317</v>
+        <v>58.06782799555281</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>13.97638628782402</v>
+        <v>15.08797127294413</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.11002783097561</v>
+        <v>28.75515528339751</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>36.63013087928567</v>
+        <v>35.30493777511707</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>3.691107460271716</v>
+        <v>5.952239396015358</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>33.59094772753203</v>
+        <v>33.52530392579588</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.73783458349246</v>
+        <v>37.46973251046261</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.789780257684367</v>
+        <v>11.42357074354732</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>54.44452858389187</v>
+        <v>52.39689299748563</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>63.39116290029577</v>
+        <v>60.75689010665729</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>57.20336845166031</v>
+        <v>55.67697419070993</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>62.44177720364405</v>
+        <v>58.66371893024228</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>65.43136448644327</v>
+        <v>63.1241406090991</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.00667354127142</v>
+        <v>14.28619305187277</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>40.09618973916585</v>
+        <v>39.68859562661698</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>49.91755176563848</v>
+        <v>47.98495986909711</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>9.373865082996943</v>
+        <v>10.97209665411</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.83251773477913</v>
+        <v>32.30469673883435</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.04115993677268</v>
+        <v>35.15559422228678</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>3.043121049008853</v>
+        <v>5.367659672725022</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.65889054584435</v>
+        <v>23.41064240725727</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.5775912273917</v>
+        <v>33.73177982264259</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>5.704772767988342</v>
+        <v>7.783780523271133</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>42.87157842793134</v>
+        <v>41.96518860031667</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>50.25759076210257</v>
+        <v>48.26517301163406</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>44.88042187555489</v>
+        <v>43.63089814461355</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>51.17754141092277</v>
+        <v>48.85289440155422</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>58.47941112742238</v>
+        <v>55.94821021203359</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>6.812304328854633</v>
+        <v>8.741005764365422</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.70493059102541</v>
+        <v>42.13019810736105</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>51.39820649262497</v>
+        <v>50.34408627765206</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>7.261678578582757</v>
+        <v>9.588789744358593</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.74473904724961</v>
+        <v>30.8777872171035</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>39.08838351779011</v>
+        <v>37.70531283881419</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>2.849382790462521</v>
+        <v>5.367261885039749</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.75472491425168</v>
+        <v>26.59399516478022</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.46025532081331</v>
+        <v>39.25597706678739</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>5.872933023921949</v>
+        <v>7.945652387724436</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.01984378314636</v>
+        <v>42.78714880067839</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>63.60608109553048</v>
+        <v>60.07314408811577</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>54.23759016339088</v>
+        <v>52.73641330567283</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>66.99046706608438</v>
+        <v>64.34625350806472</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>78.36214552942909</v>
+        <v>73.97288058008628</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>5.291176638488434</v>
+        <v>7.906557769327026</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>54.38028229906747</v>
+        <v>53.15775920070129</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>66.04882957560575</v>
+        <v>63.93681379296987</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>8.561131017616532</v>
+        <v>10.11395780845806</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.27346439684728</v>
+        <v>22.93636251213793</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.93387862618343</v>
+        <v>34.35251135631666</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>3.04309986120516</v>
+        <v>5.367676422958578</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>42.27472028433566</v>
+        <v>41.37391153398353</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.57378234902524</v>
+        <v>45.32719675221612</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.891839724233407</v>
+        <v>10.64900739827601</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>63.83260310014403</v>
+        <v>59.74272848657677</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>65.4556065329906</v>
+        <v>62.52098220296686</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>59.12233902546632</v>
+        <v>57.69690311631936</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>58.00040388417186</v>
+        <v>56.65782389784449</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>60.59883233829215</v>
+        <v>59.22947729205944</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>7.667530962175036</v>
+        <v>9.294132216811715</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.71323314821483</v>
+        <v>30.68734222873015</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>61.47649925582762</v>
+        <v>57.70377942829026</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>14.24469557532076</v>
+        <v>15.580681417</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.24152626032543</v>
+        <v>33.76289208539141</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.2911469296846</v>
+        <v>35.76817075102079</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>3.114927419101694</v>
+        <v>5.476943704081958</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.79559369323322</v>
+        <v>28.35938293410355</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>32.75252476353404</v>
+        <v>32.86285170541359</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>5.323277567689622</v>
+        <v>9.011457689375561</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>46.79149728824286</v>
+        <v>45.85624221753505</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>49.7313873007776</v>
+        <v>48.82090548739504</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>44.56507331861043</v>
+        <v>43.52805265834924</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>51.60051713891974</v>
+        <v>49.80786752784302</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>55.90935248342336</v>
+        <v>53.82769393789065</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>10.38386741095761</v>
+        <v>12.06578706918502</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>44.26180265255424</v>
+        <v>44.30797996770182</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>49.75275963614152</v>
+        <v>48.92033475548532</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>12.23687047401748</v>
+        <v>14.46439264047348</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>32.7299816817754</v>
+        <v>32.82378648961343</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.42302300323467</v>
+        <v>39.58227680261326</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>3.055685388863044</v>
+        <v>5.367278592389635</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.06873548046474</v>
+        <v>34.33800283022696</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.02446920512851</v>
+        <v>39.39406642538823</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.64749861451017</v>
+        <v>8.876130105994665</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>54.43689678697714</v>
+        <v>53.103746642961</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>63.76506636285137</v>
+        <v>61.40229375735626</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>64.61940425919919</v>
+        <v>62.59012879929695</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>71.05103240654839</v>
+        <v>67.00762999824202</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>77.34517642138785</v>
+        <v>74.00183811306604</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>8.055777517706435</v>
+        <v>10.04362018745534</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>58.46703498356689</v>
+        <v>55.89736511639158</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>68.21934196105727</v>
+        <v>65.77964893066753</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>19.38864904533253</v>
+        <v>19.91542815710022</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>24.35242120597749</v>
+        <v>24.85500112925468</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>37.44499114919769</v>
+        <v>36.69051473759609</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>10.53479451498108</v>
+        <v>12.16982715573928</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>51.02161672761643</v>
+        <v>49.5331247418905</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>54.63157969857498</v>
+        <v>52.93637893670114</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>13.01846698500381</v>
+        <v>14.26355072680842</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>63.06106859892365</v>
+        <v>60.44456658708183</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>68.635272056204</v>
+        <v>64.25843267632767</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>56.79151982261185</v>
+        <v>55.70406005934304</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>57.08099814330899</v>
+        <v>55.9052231265626</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>57.79659596271321</v>
+        <v>56.71445108068173</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.98551016753462</v>
+        <v>17.55498834297493</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.70469385416256</v>
+        <v>30.22900805684323</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>48.8559710582296</v>
+        <v>47.76157187106587</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.90425155823269</v>
+        <v>25.34063211307765</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.87437279761401</v>
+        <v>34.61995866755117</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.26777723718409</v>
+        <v>37.57922289935742</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.96324238464062</v>
+        <v>37.39848599717878</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>51.17239202561932</v>
+        <v>49.69197324465685</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>55.19150994894431</v>
+        <v>53.36546626726445</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>9.620294770536553</v>
+        <v>11.53953695743376</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>45.91085605812859</v>
+        <v>45.24772851727975</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>53.84635048451728</v>
+        <v>51.55601324439517</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.14923548696477</v>
+        <v>45.94288991075973</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>51.4388995862838</v>
+        <v>49.6400784750178</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>54.64756391294351</v>
+        <v>52.64278747398538</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.00505426597675</v>
+        <v>26.49060014471634</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>46.45841747260289</v>
+        <v>44.73644851520821</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>52.05115530953424</v>
+        <v>49.73280952961342</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>24.45284479589832</v>
+        <v>25.07698872829217</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.62856439034167</v>
+        <v>33.66631656788243</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>40.2373549900325</v>
+        <v>39.59821289134618</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.16063700369315</v>
+        <v>38.5596203763908</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>57.66131273692291</v>
+        <v>55.79747346933722</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.41501442655311</v>
+        <v>55.73715034439345</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>11.71687902767037</v>
+        <v>14.38803105224742</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>58.71694689067984</v>
+        <v>55.99518793534692</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>66.44448241175732</v>
+        <v>63.80082336711219</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>68.97686632817236</v>
+        <v>65.70554149862774</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>72.2313617371731</v>
+        <v>69.32305451530604</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>77.6448051878979</v>
+        <v>74.3190561612427</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.13163190327179</v>
+        <v>27.71254680843605</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>58.26054291035081</v>
+        <v>56.90956856344616</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>69.5742945452518</v>
+        <v>67.16027702850469</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>6.027533635125376</v>
+        <v>7.972619046077945</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>24.3054802733199</v>
+        <v>25.06589203690473</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.69883678260892</v>
+        <v>33.25714862372288</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>2.503515198466769</v>
+        <v>5.367276601011365</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.56040551914987</v>
+        <v>28.5396080522632</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.55114075230124</v>
+        <v>30.17407128870493</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>6.389236878460196</v>
+        <v>8.404612993285298</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>52.06466298166725</v>
+        <v>50.44807882029357</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>56.77796627480896</v>
+        <v>54.01984106484113</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>57.49045794947088</v>
+        <v>55.76942453579891</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>57.36267717894207</v>
+        <v>55.86695804679547</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>59.90238908207077</v>
+        <v>58.20695979378651</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>4.576341063223108</v>
+        <v>6.727495105918837</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.27686065257473</v>
+        <v>35.93081869157536</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>41.71157721042788</v>
+        <v>41.17451467167203</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>8.56514386965199</v>
+        <v>10.74490129194672</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.05579441756844</v>
+        <v>31.96171516780493</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>33.49709364389602</v>
+        <v>32.74273619165299</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>2.503498525501602</v>
+        <v>5.367572064194455</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.66971827765164</v>
+        <v>27.18152853671631</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.15238486392073</v>
+        <v>31.58336410586216</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>5.11707250624908</v>
+        <v>7.743945667984189</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.45733868332979</v>
+        <v>39.59937316533783</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>48.40304192140084</v>
+        <v>46.34700996555436</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.51721327829243</v>
+        <v>41.09868036536935</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>50.55921038285354</v>
+        <v>48.85307753502451</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>53.39238596474851</v>
+        <v>50.36641599758821</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>5.662620301764001</v>
+        <v>8.202550705410591</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>43.97853351700945</v>
+        <v>42.3503043291409</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>49.9480341084619</v>
+        <v>48.98056587613038</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>7.426592105872757</v>
+        <v>9.516947022830323</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.20943909815576</v>
+        <v>31.3001232234936</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>38.91539385693083</v>
+        <v>37.17384312108258</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>2.502871901826495</v>
+        <v>5.367413062633325</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.8192862561745</v>
+        <v>27.99330192670006</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.4431719175022</v>
+        <v>35.70835432156564</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>5.832955146498922</v>
+        <v>8.220929766084804</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.65242197473628</v>
+        <v>43.25970339067493</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>59.93142684505217</v>
+        <v>57.76556283374138</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>56.64048896141457</v>
+        <v>55.29767229524195</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>71.76647086411238</v>
+        <v>68.57865760978393</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>75.26371867319341</v>
+        <v>70.96430942254237</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>5.055650992674678</v>
+        <v>7.689727836464005</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>55.9918941456349</v>
+        <v>54.62789029917658</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>65.34176370704667</v>
+        <v>62.21627959898596</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>12.81004341533762</v>
+        <v>14.80483838363237</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>14.74785500313921</v>
+        <v>16.53195408406712</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>15.62472404800998</v>
+        <v>16.97045711517519</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>4.245807568459917</v>
+        <v>6.444377167261781</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.14434187560939</v>
+        <v>15.09521081332711</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>14.32319665704015</v>
+        <v>15.89215213089506</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>11.92605829235543</v>
+        <v>13.42086776552623</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.93985486102116</v>
+        <v>23.6960251810455</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.76251606585103</v>
+        <v>25.44093741857974</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.83753646223466</v>
+        <v>23.26155385129184</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.11640307927826</v>
+        <v>26.26155309188282</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.0744504550625</v>
+        <v>29.02321160410106</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>11.88669875928588</v>
+        <v>13.49803563278609</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.78679530798763</v>
+        <v>17.16270057421884</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>19.42327351261984</v>
+        <v>20.50977893696903</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>7.481047629457986</v>
+        <v>9.595705514017137</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.73872635862489</v>
+        <v>22.41900861221674</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.54742444703322</v>
+        <v>30.69276742383505</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>2.602980745308798</v>
+        <v>5.566636534685887</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>11.08410867573761</v>
+        <v>13.45047402982771</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.91643200476418</v>
+        <v>25.57405648367461</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>4.308760972494763</v>
+        <v>6.982678161590716</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>21.25742208552097</v>
+        <v>22.69058606196742</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>43.48187925732033</v>
+        <v>43.2984875427869</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.6057286667442</v>
+        <v>27.44367252411293</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>37.26826353873072</v>
+        <v>36.7577913179787</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>48.71959846842513</v>
+        <v>47.6537308091866</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>4.186818381714733</v>
+        <v>6.930433805215753</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.53144769252207</v>
+        <v>31.07665095173252</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.5750327491365</v>
+        <v>40.55828293913505</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.9836167106927</v>
+        <v>16.43090206008529</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.97465994432159</v>
+        <v>31.57276524741756</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>37.17007861939682</v>
+        <v>36.20639878498068</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>2.834715775189267</v>
+        <v>5.708029642032908</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>23.04267944086716</v>
+        <v>23.47803841964139</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>32.48002893114624</v>
+        <v>32.30930289775198</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>7.382463549059022</v>
+        <v>9.585140407022774</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.73092194324953</v>
+        <v>38.47509697014371</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>54.80683220804941</v>
+        <v>53.76354292078821</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.45508032511457</v>
+        <v>46.71932296150289</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>55.30642507603442</v>
+        <v>53.8841628559472</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>61.94214490327084</v>
+        <v>60.50884325178834</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>4.754256411847329</v>
+        <v>7.26639480359632</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.57902935478801</v>
+        <v>40.47590191772425</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>59.56121783509704</v>
+        <v>58.23455262982958</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>15.51829092130363</v>
+        <v>16.72425852991261</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.36276781643433</v>
+        <v>23.55412513427262</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.42194143409044</v>
+        <v>27.11333612494292</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>3.451732651111758</v>
+        <v>5.736770100303794</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>27.2658343834417</v>
+        <v>28.00894588237565</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.51927856855288</v>
+        <v>28.22062348821155</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>14.35497343632575</v>
+        <v>15.27029689138098</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>44.67830755815795</v>
+        <v>44.03622910715831</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>46.12315076626182</v>
+        <v>45.42345642725645</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>32.29918173867197</v>
+        <v>32.53803949744081</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>36.35597530039378</v>
+        <v>36.35134726722257</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.30935814005898</v>
+        <v>41.92697097299872</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>12.35816350283031</v>
+        <v>14.06310092337909</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.07246464674527</v>
+        <v>37.42621796201216</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.7755742897288</v>
+        <v>41.70594323263084</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>7.321729700252543</v>
+        <v>9.360096814376735</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.66167942621636</v>
+        <v>25.39462120045727</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.77913491124286</v>
+        <v>34.54013239585374</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>2.46656485967285</v>
+        <v>5.367253745316649</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>16.74796227564142</v>
+        <v>18.21283270193532</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>39.17919013929584</v>
+        <v>39.32810596453085</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>5.71185928476892</v>
+        <v>7.881960358582425</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.9036567106406</v>
+        <v>30.01738479610365</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>47.10078345326863</v>
+        <v>46.00327709011469</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.97137832614295</v>
+        <v>26.66379324623407</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>37.35592172941458</v>
+        <v>36.6655590272003</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>54.39500557085867</v>
+        <v>52.80388783290866</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>5.098781834928786</v>
+        <v>7.763170491535188</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.1300117832134</v>
+        <v>34.64878585486608</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.72473983829897</v>
+        <v>41.10980366272732</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>11.36258625612694</v>
+        <v>13.33825152187764</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.60667732908967</v>
+        <v>26.14784883151941</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.49424986331697</v>
+        <v>34.6821120910131</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2.466496346471189</v>
+        <v>5.367325997990385</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.26683001588347</v>
+        <v>26.16578599843125</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.08100695718108</v>
+        <v>32.58633910115287</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>6.999259887302788</v>
+        <v>8.976959054395831</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.72094673287292</v>
+        <v>42.72649046967969</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>49.3363878407705</v>
+        <v>49.03019721525627</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>51.33858315725031</v>
+        <v>49.85175244683442</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>55.89093638539663</v>
+        <v>53.95721843614116</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>65.72580117339814</v>
+        <v>63.75018768204218</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>4.041443169102937</v>
+        <v>6.306847844088722</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>33.25546955012977</v>
+        <v>34.00415811341796</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>54.03804731017334</v>
+        <v>53.2760972115869</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>17.03060938538496</v>
+        <v>17.81759161170186</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.83845464862532</v>
+        <v>24.84814770219235</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.27109575890061</v>
+        <v>33.78126190829737</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>3.675464624772683</v>
+        <v>5.918090745201805</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>42.85611875803604</v>
+        <v>41.924179277516</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>44.84665745109753</v>
+        <v>42.55047253734769</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>12.81025590084656</v>
+        <v>14.09518854188816</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>64.43769931871782</v>
+        <v>61.60181306656723</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>64.89662717808471</v>
+        <v>62.02947387105449</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>57.43773560663425</v>
+        <v>56.20589266762947</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>56.73327513872215</v>
+        <v>55.5096752492124</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>60.33508777537418</v>
+        <v>58.99209829031989</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>16.02451544319836</v>
+        <v>16.60223652627268</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>21.03379147332195</v>
+        <v>21.72479849606925</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>62.90184394956185</v>
+        <v>59.4848567739473</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>24.86737252260914</v>
+        <v>25.27742737680799</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>35.20082155611433</v>
+        <v>34.51470446279392</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>35.84461370909935</v>
+        <v>35.29350990785103</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>3.877332697281759</v>
+        <v>6.529651528461887</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>30.05182141601134</v>
+        <v>30.53640496285968</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.43344435653478</v>
+        <v>34.54542907920283</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>10.05702773262494</v>
+        <v>12.14668487205354</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>49.22123974091639</v>
+        <v>48.07906974119575</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>53.79689460738908</v>
+        <v>52.35722596708612</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>49.83904825197906</v>
+        <v>48.44892298885915</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>56.52383533300151</v>
+        <v>54.16884649779972</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>57.1631012577224</v>
+        <v>53.60986744461087</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>21.89454490121615</v>
+        <v>22.65037864081416</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>47.94714435967443</v>
+        <v>46.22693789780755</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>52.87887996446565</v>
+        <v>50.23862195094566</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>25.78607745253794</v>
+        <v>26.07008268006196</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>35.84872161914207</v>
+        <v>35.21531375836035</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>40.16942364229795</v>
+        <v>39.37605646485193</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>3.769407502676955</v>
+        <v>6.547454529051478</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.64049572967088</v>
+        <v>34.91923231879638</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>38.12346671369916</v>
+        <v>38.05872416673589</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>10.04836040432571</v>
+        <v>12.20271414068705</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>57.95424188624479</v>
+        <v>56.39677020715763</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>66.45783070660906</v>
+        <v>62.69071486078923</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>64.3189227042453</v>
+        <v>62.41052823533707</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>69.1183234340342</v>
+        <v>65.23667148198206</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>75.15174286351854</v>
+        <v>70.67063222984058</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>18.34070172558535</v>
+        <v>20.26669547101829</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>58.46754081584294</v>
+        <v>56.75934682496815</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>65.27361218074628</v>
+        <v>62.97943526338624</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>6.285626324784904</v>
+        <v>8.213942692024315</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>23.4453428340517</v>
+        <v>23.40006951721054</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>31.59226973734748</v>
+        <v>31.01530844483315</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2.466531872242516</v>
+        <v>5.223564048937295</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.16472064968751</v>
+        <v>30.53698631601363</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.16428800821216</v>
+        <v>30.92082489425396</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>6.410493003090981</v>
+        <v>8.916046696431131</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>48.72199244742853</v>
+        <v>47.64608544271731</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>53.57075333772903</v>
+        <v>52.17580795947913</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>54.74651352882618</v>
+        <v>53.3079196005615</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>60.29191189360155</v>
+        <v>58.92300478394846</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>56.27473373687163</v>
+        <v>53.72114296666207</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>4.433664885935357</v>
+        <v>6.600209272420315</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.05514289367566</v>
+        <v>36.99797894382667</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.1436220057283</v>
+        <v>39.76305519556492</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>9.433890014649972</v>
+        <v>11.20676588067801</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>33.89489573518692</v>
+        <v>33.76284323117459</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>32.55897410585644</v>
+        <v>32.54282616658637</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>2.826481702889104</v>
+        <v>5.367437444401865</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.35656827259769</v>
+        <v>26.93434907215063</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>31.74502710769766</v>
+        <v>32.19231444856251</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>6.067830309183279</v>
+        <v>8.087490892276403</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>44.99943225318161</v>
+        <v>43.94878120820205</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>55.01146530607703</v>
+        <v>52.17043157170583</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>45.81440158964404</v>
+        <v>44.53028998167957</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>53.23052127434389</v>
+        <v>51.1614081778344</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>56.63142312186346</v>
+        <v>53.93741239437065</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>5.592514689807047</v>
+        <v>8.101931325839455</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>46.93314525970459</v>
+        <v>44.88920583367698</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>51.10164349695124</v>
+        <v>48.61816808661948</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>9.076472959258293</v>
+        <v>10.78218358580793</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>33.21823731556455</v>
+        <v>32.9933866285356</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>40.48866554963313</v>
+        <v>39.7633844708475</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>2.503330650193579</v>
+        <v>5.367838106282477</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.24687090627313</v>
+        <v>27.40936915781013</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.08061094344268</v>
+        <v>32.42447405741554</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.619061608514215</v>
+        <v>8.108977464896494</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>44.21683533692094</v>
+        <v>43.81282813958962</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>58.44098664307955</v>
+        <v>56.79034886313765</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>58.74712655323526</v>
+        <v>57.0213848994001</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>66.32135433313468</v>
+        <v>63.49606584229471</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>73.98636949673565</v>
+        <v>69.78510953336038</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>4.727532967240304</v>
+        <v>7.365358640106326</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>47.9122036371509</v>
+        <v>47.45076577740919</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>64.07395624837589</v>
+        <v>61.974309290064</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.428</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.845</v>
+        <v>16.487</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.727</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.701</v>
+        <v>14.282</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.976</v>
+        <v>4.038</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.2116182222462</v>
+        <v>6.228772889769825</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14.34213105940278</v>
+        <v>11.4587142157695</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.60308393951808</v>
+        <v>16.22650807562051</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.898673714847082</v>
+        <v>-1.702648646937345</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14.46154347113837</v>
+        <v>15.07001583576707</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.17530773584855</v>
+        <v>16.63672181340841</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.19254207961006</v>
+        <v>1.784639721413633</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20.60388511171432</v>
+        <v>23.00915624009759</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.2089317309352</v>
+        <v>25.77238657555923</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.15992868399324</v>
+        <v>22.24978697609974</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.73795827149618</v>
+        <v>26.3209935233169</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.72270419558333</v>
+        <v>30.85941127026648</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.40101442839251</v>
+        <v>6.245976152193332</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.81403925056741</v>
+        <v>16.84327565380882</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>17.71373827451646</v>
+        <v>19.8775532575151</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.65368400706769</v>
+        <v>10.77877339705251</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.92962718535609</v>
+        <v>27.01601142230546</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.8793274164172</v>
+        <v>37.87123147309848</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.47928108021118</v>
+        <v>3.529805547703326</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.46944708669434</v>
+        <v>16.74905733739767</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.23970073367876</v>
+        <v>31.57950104525072</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.06778985780425</v>
+        <v>3.929885537101377</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.27723725797186</v>
+        <v>26.6602771839619</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>53.93941492847848</v>
+        <v>53.41117641477194</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.43944250037501</v>
+        <v>30.73200888436941</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>47.91768746192078</v>
+        <v>50.8548795421614</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>68.19331158602337</v>
+        <v>69.17830222703058</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>7.879277847701651</v>
+        <v>6.607769138282542</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.86956560299848</v>
+        <v>41.12844971596475</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>58.53327932427801</v>
+        <v>59.30490989586239</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.31508253866589</v>
+        <v>14.42311581596323</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.87228640153813</v>
+        <v>33.58939525600928</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41.81087840678967</v>
+        <v>42.3979951335284</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6.003408635131994</v>
+        <v>2.769667279509186</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.37927723798485</v>
+        <v>26.88300282354268</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>38.52887709029581</v>
+        <v>36.59317539369154</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.851839456184045</v>
+        <v>4.092010284630934</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43.80430253256955</v>
+        <v>42.20011763078895</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>56.15910272775885</v>
+        <v>56.16920222154042</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>52.78933047006961</v>
+        <v>55.48307154967203</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>66.15955513142416</v>
+        <v>71.53834426229383</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>72.62370609362476</v>
+        <v>78.00574528735109</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>18.83457196299518</v>
+        <v>14.03853994030958</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>58.12234601202793</v>
+        <v>57.9359481595831</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>64.49760256221026</v>
+        <v>65.08349470561964</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.038113613290996</v>
+        <v>7.750837181240055</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.28337648357727</v>
+        <v>31.41303391357795</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>38.54546307422582</v>
+        <v>38.201534561419</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.37019273007461</v>
+        <v>5.616057060939447</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>35.61693293604715</v>
+        <v>39.50560796540198</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.92221962824395</v>
+        <v>41.17360534273688</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.153259848184256</v>
+        <v>7.036472936045886</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>55.65450960496517</v>
+        <v>61.55133195809358</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>61.43294716666556</v>
+        <v>66.54525900720165</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>58.4983519451724</v>
+        <v>58.47783006418662</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>68.49952623933713</v>
+        <v>71.16450175792536</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>57.42238234639048</v>
+        <v>61.67125945062059</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>7.882531463038816</v>
+        <v>7.560788823584343</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40.40074347295187</v>
+        <v>45.09620141023052</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>47.30196615651304</v>
+        <v>52.83232537057727</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.721859101761837</v>
+        <v>9.309666186209675</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.86800287035541</v>
+        <v>33.16769811793939</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>41.43519180140915</v>
+        <v>39.40930258699603</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.367475652322149</v>
+        <v>4.419072827155606</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.92068053661055</v>
+        <v>24.2751755976958</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.33084347182028</v>
+        <v>35.85748625546655</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.540223869300114</v>
+        <v>4.205973101993333</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>41.79900849635048</v>
+        <v>42.60699046995178</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>57.00202478395485</v>
+        <v>58.03008460941412</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>43.93197511764888</v>
+        <v>46.83914868134003</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>61.78300184980638</v>
+        <v>61.99256314183401</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>68.93602009332074</v>
+        <v>69.85207953877354</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>7.204007158783522</v>
+        <v>6.586301086967609</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>53.8173883811407</v>
+        <v>54.27853881353677</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>57.13229798898121</v>
+        <v>59.84155461394054</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.114718635039026</v>
+        <v>10.30328422952341</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.57674394542957</v>
+        <v>35.777386661961</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>43.27651912336849</v>
+        <v>45.05528833920162</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5.367422440364034</v>
+        <v>4.491980601884023</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.10377344004296</v>
+        <v>33.19509532431999</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>39.69216017029191</v>
+        <v>42.6052627165433</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5.504884102522539</v>
+        <v>5.512008117247838</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>56.10457561735998</v>
+        <v>56.53405314006434</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>70.44549005711498</v>
+        <v>75.95349003424559</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>59.36795446761636</v>
+        <v>62.66302864007026</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>77.37961213082438</v>
+        <v>80.99900805801485</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>80.06251657780754</v>
+        <v>85.3298479906323</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8.077517759858431</v>
+        <v>7.281931412473252</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>65.79062922637719</v>
+        <v>67.23302352358466</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>69.28854655584298</v>
+        <v>72.14683890454468</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16.26714518728041</v>
+        <v>14.29099690697791</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.79904338673732</v>
+        <v>29.20882725138262</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.25859354417485</v>
+        <v>34.12636967140896</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5.778443284686826</v>
+        <v>3.314735484740662</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.4659554569504</v>
+        <v>33.8295771168464</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.43729696626049</v>
+        <v>34.65558507558653</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.106803359430874</v>
+        <v>6.882708414404398</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>58.46277043419586</v>
+        <v>58.50995578627604</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56.73974779968096</v>
+        <v>56.33660393419321</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>48.22457659867078</v>
+        <v>47.71736130419171</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>57.24560754890089</v>
+        <v>57.88096981375586</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>54.91747547675227</v>
+        <v>55.09287006426432</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.70496242571156</v>
+        <v>12.5870475486334</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.97990519555682</v>
+        <v>36.21249574402096</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.10662205194659</v>
+        <v>40.11742853453075</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.23566578235304</v>
+        <v>18.57268735894655</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.91828822536633</v>
+        <v>39.43455211153382</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.57110098622891</v>
+        <v>42.4883552537224</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5.805740709899798</v>
+        <v>4.8905011947252</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.52999502493797</v>
+        <v>31.05621702967353</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.0742482888711</v>
+        <v>37.80853650800169</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>7.03776909772985</v>
+        <v>5.855388966166295</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>54.65494795907883</v>
+        <v>53.95537805345464</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>58.38876870767393</v>
+        <v>61.99300565233999</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.13761569707579</v>
+        <v>55.35506696061439</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>64.63278274010111</v>
+        <v>66.6185548907952</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>69.09237333094434</v>
+        <v>69.99033744120638</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.82228215448704</v>
+        <v>17.52607882824001</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>54.44673896780925</v>
+        <v>56.80614340998642</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60.51899270407303</v>
+        <v>59.97327349411865</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.20073299567591</v>
+        <v>18.31008430103496</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>41.29825159493755</v>
+        <v>41.39634060093968</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.25131708717019</v>
+        <v>48.3595654228652</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>5.93368266860676</v>
+        <v>3.124390079046613</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.92549894121553</v>
+        <v>37.29435352531438</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.26849134977262</v>
+        <v>41.72419004530786</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6.404179418091303</v>
+        <v>5.196394113647923</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>62.02537392754773</v>
+        <v>62.54765286012166</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>68.75336521372847</v>
+        <v>74.3684434307432</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>64.6062193703022</v>
+        <v>69.78362124877289</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>72.39718106432922</v>
+        <v>77.85672020925944</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>79.52644450067595</v>
+        <v>84.8629510128151</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>21.7498956796634</v>
+        <v>16.42466302610672</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>64.29297781662606</v>
+        <v>66.62602329109706</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>68.19908592478033</v>
+        <v>71.38729516561858</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>13.59144868583327</v>
+        <v>9.373418773555244</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>16.2511829146569</v>
+        <v>13.43946718691012</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>16.69074837550532</v>
+        <v>18.39454755172408</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6.348985500192509</v>
+        <v>1.2335195138931</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.1624818886856</v>
+        <v>14.42361526163698</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.70481062763582</v>
+        <v>14.68242132835728</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9.44158816957674</v>
+        <v>5.753329059039782</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.61120492357922</v>
+        <v>26.24904794968282</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.38619167800633</v>
+        <v>27.04570527589419</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.32651838977889</v>
+        <v>22.40564767372101</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>24.68145293523959</v>
+        <v>25.18526578467925</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.17607199174999</v>
+        <v>32.38362677336315</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>59.1149675125937</v>
+        <v>61.62789513791174</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>62.04524353152507</v>
+        <v>62.03636085521791</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>59.71546668290266</v>
+        <v>59.49551173047722</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>10.46172179295651</v>
+        <v>9.74765519553193</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.52211578769842</v>
+        <v>25.1191643876588</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>39.76502387704452</v>
+        <v>38.6149329061823</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>5.367515659403523</v>
+        <v>3.107607415869349</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.51944114022975</v>
+        <v>12.14801027836024</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.48210654937279</v>
+        <v>28.53258188750498</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.34316758563107</v>
+        <v>29.68923205115683</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>54.24779290631815</v>
+        <v>54.25496056663741</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.31975219193898</v>
+        <v>29.55519387047699</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>45.58098956814169</v>
+        <v>44.38405625701084</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>63.4428317484691</v>
+        <v>64.28319231284905</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>8.825719025559238</v>
+        <v>7.325802406025375</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>42.49407428104998</v>
+        <v>41.5337684802195</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>50.61794160001639</v>
+        <v>50.51688273083943</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>23.65031720018198</v>
+        <v>20.73554548170253</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.26772443863246</v>
+        <v>32.62953022163096</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.38118217343816</v>
+        <v>42.93190692999332</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>6.324782402278778</v>
+        <v>4.922153695752051</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.90736824275181</v>
+        <v>18.07935571404647</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.10302541667521</v>
+        <v>30.51946406618445</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>10.64283259371782</v>
+        <v>9.877658019166827</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>40.99550197955348</v>
+        <v>41.16119306510065</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>60.09371612879698</v>
+        <v>60.81250312331598</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.64040707559495</v>
+        <v>41.00803272038162</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>53.90630470737258</v>
+        <v>57.85308932511753</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>72.80483081782043</v>
+        <v>75.32898014330939</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24.43847200369758</v>
+        <v>23.49994477727368</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>57.29577753911401</v>
+        <v>56.9487712518671</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>63.82398295830983</v>
+        <v>64.01741233803293</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>10.31909276413311</v>
+        <v>7.921514242461928</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24.36455361702556</v>
+        <v>22.31300312274777</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.54165063500882</v>
+        <v>30.09637099635829</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>5.700989415666381</v>
+        <v>3.828319865566197</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>30.72552975436245</v>
+        <v>32.18473069401788</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>38.41335911747414</v>
+        <v>36.76195004852514</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10.36926029588907</v>
+        <v>9.25294861298395</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>58.78390612044912</v>
+        <v>60.2374394627503</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>61.05276082427274</v>
+        <v>60.22760776845764</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>48.42020155175959</v>
+        <v>48.21380783751933</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>60.18330989644368</v>
+        <v>60.3765130116231</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>61.2710206725892</v>
+        <v>61.28250188420112</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>13.639791515778</v>
+        <v>13.14592024586067</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.68311487626873</v>
+        <v>11.07438759634875</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>12.35773585534705</v>
+        <v>11.89795296516352</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.24532487571053</v>
+        <v>20.70527768952377</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>41.66210494962327</v>
+        <v>39.78609107717989</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>41.19044509942761</v>
+        <v>43.63009764638415</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>6.098500926540442</v>
+        <v>5.794289728927012</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>33.055699560352</v>
+        <v>32.90355113516192</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>39.15815100383304</v>
+        <v>41.09136704601889</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>57.73302671450206</v>
+        <v>58.19417517126892</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>60.75035657476049</v>
+        <v>63.09664540464946</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>59.27766587588987</v>
+        <v>60.89738020614479</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>69.07651747462565</v>
+        <v>70.71276707576732</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>72.65855996415759</v>
+        <v>74.72879105090344</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>33.07435687005358</v>
+        <v>31.12801971062868</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>60.27094340422869</v>
+        <v>64.0240360031257</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>58.08999465759934</v>
+        <v>66.81842875428273</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.80310358732044</v>
+        <v>22.79750640810612</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.76032298152467</v>
+        <v>41.694649457843</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>43.54434348428163</v>
+        <v>47.56850007112462</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>6.06611253017164</v>
+        <v>4.404307031021531</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.09947135567364</v>
+        <v>31.46503346999144</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.66095850094583</v>
+        <v>40.1819790284333</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>11.92301476749242</v>
+        <v>11.16831563996897</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>57.24444539979778</v>
+        <v>60.15398515263021</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>66.05517065938834</v>
+        <v>71.53032656481776</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>64.07254288658434</v>
+        <v>69.80105310750839</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>71.04629356166606</v>
+        <v>79.38338230314417</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>74.97862947023839</v>
+        <v>82.29733109849286</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.43160246014185</v>
+        <v>31.65420782174803</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>66.08305119152094</v>
+        <v>67.19531889045479</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>70.06739526570142</v>
+        <v>73.69399125727428</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>7.446417677837459</v>
+        <v>6.810942884058655</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>20.72561277148372</v>
+        <v>19.3982295043239</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.70011683623335</v>
+        <v>31.00745727223672</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.482830030061344</v>
+        <v>3.747344896676498</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>38.24055172824497</v>
+        <v>36.82711871206446</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.19913266384155</v>
+        <v>37.64431435378786</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>10.71242977109269</v>
+        <v>8.580085625657009</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>60.70590576229528</v>
+        <v>65.26867793990522</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>62.99257905737383</v>
+        <v>64.46551152357794</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>49.3756579115794</v>
+        <v>49.05133524395308</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>61.75463455914264</v>
+        <v>62.04386367746066</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>63.92856048603981</v>
+        <v>64.26899025642024</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>9.021216166310786</v>
+        <v>8.236197350801877</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>8.938434049060881</v>
+        <v>7.870326500965213</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>9.36220602325276</v>
+        <v>8.481126831650663</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>17.79025347004637</v>
+        <v>16.76200384532569</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.62043081446492</v>
+        <v>41.84302925125165</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.86486020691126</v>
+        <v>44.16986161249939</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>5.476878302324526</v>
+        <v>5.690895762550131</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>38.56859869539493</v>
+        <v>37.54801593743007</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>45.36651947323833</v>
+        <v>43.42972003277732</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>5.863877113618297</v>
+        <v>5.860193297058341</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>62.97027549572451</v>
+        <v>64.19574728508192</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>65.70877327528424</v>
+        <v>66.96250280223823</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>51.36448022028284</v>
+        <v>50.13900170126021</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>64.76636549047407</v>
+        <v>65.24661870533404</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>73.64445236792966</v>
+        <v>75.00620973520822</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.297702531207</v>
+        <v>17.64792522327865</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>63.87774887022792</v>
+        <v>65.47818231603071</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>67.01955573229203</v>
+        <v>69.02529021103815</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.30502490114839</v>
+        <v>20.09566653490924</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>5.676617781978177</v>
+        <v>4.955682524795098</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>37.02458199960527</v>
+        <v>36.04440903700969</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.41307493038686</v>
+        <v>41.71945913956949</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.367575053539181</v>
+        <v>8.977247062852321</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>62.46942730328344</v>
+        <v>64.86797561787748</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>67.61821248916452</v>
+        <v>73.24863492017414</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>66.43804187515421</v>
+        <v>68.39713635849321</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>75.75586955446477</v>
+        <v>78.20148724806685</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>80.30564735227847</v>
+        <v>84.59165875169668</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.99107459070007</v>
+        <v>16.7204509811754</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>69.44092352136492</v>
+        <v>71.53058141288025</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>72.36076710848978</v>
+        <v>74.91792420798888</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>10.10649012265315</v>
+        <v>2.88290845874058</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.460501299183047</v>
+        <v>8.299832012857618</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>10.11276681228164</v>
+        <v>9.719924895535613</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>5.966902920818963</v>
+        <v>-2.184425012949909</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.33077672240242</v>
+        <v>13.49093541187438</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.22829865479475</v>
+        <v>13.31368801759513</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>8.893935612447905</v>
+        <v>0.727077430138003</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>17.50730268533862</v>
+        <v>19.02713015983715</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.22453616329079</v>
+        <v>21.47642262072385</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.65765486092929</v>
+        <v>22.21755236447872</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.00455622580053</v>
+        <v>27.86828553782949</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>32.84760999693086</v>
+        <v>28.81758345153022</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>8.809166214199021</v>
+        <v>3.74017019016274</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>10.20162263664306</v>
+        <v>8.624509295238539</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>11.89159317529741</v>
+        <v>10.9403022911111</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>10.31512543643237</v>
+        <v>9.433360865849885</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.79120070339172</v>
+        <v>25.286791368401</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.57081974590439</v>
+        <v>31.95923821028374</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>5.459634760385232</v>
+        <v>5.282223193227338</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.4749024574598</v>
+        <v>21.00961413493463</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.92443858631459</v>
+        <v>29.63008505330126</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>9.38485256281141</v>
+        <v>8.265825732140971</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>33.55692063189188</v>
+        <v>32.72136035737162</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>50.21987590425039</v>
+        <v>49.51263943298827</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.11627980755509</v>
+        <v>34.47508588431528</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>47.78522889411601</v>
+        <v>47.61006026867724</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>53.47398108189108</v>
+        <v>52.94509724432569</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>9.860007889548683</v>
+        <v>8.569945208164437</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.88004592522724</v>
+        <v>39.76124925142634</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>49.74620429629823</v>
+        <v>47.13911101855313</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>11.06053520369444</v>
+        <v>9.710759361138305</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.75065778541618</v>
+        <v>29.43686368519119</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>38.6121645366816</v>
+        <v>37.30471609865499</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>5.43737678834427</v>
+        <v>2.95253573903948</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.52121295052693</v>
+        <v>28.83545349962238</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.14405925591507</v>
+        <v>34.17695352569982</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>9.235038236018379</v>
+        <v>7.289561929667531</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.5741642390968</v>
+        <v>46.80589403701356</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>57.33813627523257</v>
+        <v>57.24199982414558</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>57.56716746301684</v>
+        <v>58.31783367305634</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>69.48622235334014</v>
+        <v>69.97815437381962</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>68.04318672650641</v>
+        <v>74.54160555592404</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>12.49243643731697</v>
+        <v>10.755920738611</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>57.25179613796033</v>
+        <v>57.35243471670611</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>66.9088801577674</v>
+        <v>68.20912560157632</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>7.3904818209163</v>
+        <v>2.371288899058879</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>13.8517903214018</v>
+        <v>6.663373133950188</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>15.08292458626956</v>
+        <v>11.99139235683434</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>5.194295663091122</v>
+        <v>-1.648979295116476</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>12.40740984676419</v>
+        <v>10.20047018019343</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>16.71714410011115</v>
+        <v>12.96731605536544</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>5.649377135348161</v>
+        <v>1.306223347928348</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.96069843069099</v>
+        <v>16.99419659655184</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>13.61108643288432</v>
+        <v>15.25247874046033</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.74220401799673</v>
+        <v>14.18025243107656</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.27885162215438</v>
+        <v>16.05695155626768</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.39462936038343</v>
+        <v>16.18632299463477</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>9.229041541305374</v>
+        <v>5.247693668450307</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>16.5573211583468</v>
+        <v>11.53940500096456</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>16.64113190708851</v>
+        <v>12.23649541652004</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>5.360297576857786</v>
+        <v>2.442700506659197</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>8.725172685936162</v>
+        <v>8.981457198437024</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>17.88236789793798</v>
+        <v>18.12090638446472</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>5.356888549986159</v>
+        <v>-1.680744663929723</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>7.39647996140339</v>
+        <v>4.653137754971741</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.97376141584612</v>
+        <v>12.81446751980182</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>6.278429775531716</v>
+        <v>1.03435222772082</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.27330591921026</v>
+        <v>10.28575327056361</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>30.50517512827332</v>
+        <v>26.25036266869708</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>12.22878247197865</v>
+        <v>13.59461474941816</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>22.50155160040509</v>
+        <v>23.99439067895015</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>40.44590533215398</v>
+        <v>40.08097002725923</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>5.367694270452365</v>
+        <v>0.0329465241686151</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.30737313474898</v>
+        <v>13.00019942497134</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>14.42582216484253</v>
+        <v>13.78997711530437</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5.616467404915809</v>
+        <v>6.316249644242077</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>11.83964753166406</v>
+        <v>13.17850119943061</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>27.57680018248676</v>
+        <v>28.67140997862098</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>5.367584096388068</v>
+        <v>-3.622485511282239</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>9.252578599621824</v>
+        <v>6.519667127797579</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.72393048693995</v>
+        <v>22.48506151456523</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>6.791292976555926</v>
+        <v>-0.396571656937315</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.89055562941712</v>
+        <v>13.9169347743829</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>48.99785760531646</v>
+        <v>47.86428699507054</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.58232243354936</v>
+        <v>19.3249555755664</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>45.28996975698299</v>
+        <v>47.81252558284822</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>62.93122788652845</v>
+        <v>63.47628583791616</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>5.367215381007753</v>
+        <v>-1.752166557465792</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>13.42559711382494</v>
+        <v>12.12930916570749</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>22.8358077193097</v>
+        <v>22.72497038004245</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>14.28421407188494</v>
+        <v>10.67707115372556</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>20.44955818423498</v>
+        <v>21.53569310252807</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>36.38608034136569</v>
+        <v>34.07312639220879</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>5.662889738839375</v>
+        <v>6.360435338339737</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>42.21696473706442</v>
+        <v>42.08451123723408</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>42.9202532486003</v>
+        <v>43.9791339434157</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>8.710823626435211</v>
+        <v>8.329662655336172</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>59.33709921642374</v>
+        <v>60.77182413205333</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>63.82035417601664</v>
+        <v>65.40797489742951</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>53.35482691441726</v>
+        <v>53.34654756393719</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>57.96988327125889</v>
+        <v>59.98097172964039</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>60.53245347303265</v>
+        <v>61.22043050580244</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>21.9896585001479</v>
+        <v>23.82042885828212</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>39.95458754069128</v>
+        <v>39.54810944203463</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>64.70495674886703</v>
+        <v>65.48247534132067</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>13.82603389611853</v>
+        <v>10.08148795932357</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.45920410567555</v>
+        <v>30.82056375225293</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>33.90635225509764</v>
+        <v>34.73154841244384</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>5.716696147229761</v>
+        <v>5.290915269263561</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>30.79138246299623</v>
+        <v>28.79046222836277</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.7370065250609</v>
+        <v>34.36253970316614</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>9.154696888437673</v>
+        <v>6.553475481906592</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>47.98671677414452</v>
+        <v>46.78532347013231</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>51.947583712838</v>
+        <v>53.69177425652629</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>44.83370346512525</v>
+        <v>44.53696054266409</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>51.91673102014845</v>
+        <v>52.606244928854</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>54.93659628160732</v>
+        <v>58.60707416968121</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.14268459791692</v>
+        <v>16.10826549628428</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>47.5187135571132</v>
+        <v>50.57030286288987</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>51.41207826234823</v>
+        <v>55.47886581719173</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>17.09343811692986</v>
+        <v>15.22552069092943</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.74378337072318</v>
+        <v>35.09238465407187</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>41.55659201804399</v>
+        <v>43.19491376010846</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>5.774241285789863</v>
+        <v>4.829524604965098</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.76530619378118</v>
+        <v>37.38374388586702</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>40.12549369473248</v>
+        <v>41.86944835302695</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>10.35912875401822</v>
+        <v>9.764530278260104</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>58.38475354700491</v>
+        <v>59.74030719637157</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>67.47650764662976</v>
+        <v>71.65040008865338</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>59.72405583623487</v>
+        <v>63.04512225363094</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>69.16868622047797</v>
+        <v>73.68320550853302</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>71.84084644446624</v>
+        <v>77.73374858684306</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>21.24786642337517</v>
+        <v>17.99099408183285</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>63.57317162434624</v>
+        <v>64.78077636558163</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>72.28581706726104</v>
+        <v>74.80803508475913</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>11.75040543956986</v>
+        <v>4.836176329883678</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>12.56875925553504</v>
+        <v>11.69747639749478</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>13.94615060104094</v>
+        <v>14.0388214373523</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.04247780821493</v>
+        <v>-1.046475569424192</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>11.70617801158874</v>
+        <v>10.47674507050996</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>13.92887428259619</v>
+        <v>11.54348655972631</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>8.616566749270195</v>
+        <v>2.275244514178954</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.90204764514369</v>
+        <v>18.57583017511401</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>18.09692544558424</v>
+        <v>19.66740860543111</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.90964242036023</v>
+        <v>16.63559429099674</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>19.73197413979035</v>
+        <v>20.15526520437927</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.67102637855121</v>
+        <v>23.3873563796878</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>10.52257457698092</v>
+        <v>4.756533770682658</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>13.03517338988157</v>
+        <v>13.75578496988521</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>15.39817027224577</v>
+        <v>15.90607814998029</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>7.635762213419504</v>
+        <v>6.576364755326711</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>15.29755812693177</v>
+        <v>15.14463187862479</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.42839223562856</v>
+        <v>26.96528354221412</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>5.367299128743269</v>
+        <v>1.050179647930104</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>8.372163540906403</v>
+        <v>7.561744130388046</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.05472150043324</v>
+        <v>23.4827059056769</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>7.815768765715056</v>
+        <v>2.230344754072824</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>12.7883649214509</v>
+        <v>11.97817953235323</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>39.95610243893271</v>
+        <v>38.85378733216324</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>16.13379921808028</v>
+        <v>15.78347852096909</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.92634967739734</v>
+        <v>27.44115112809201</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>40.66315544960643</v>
+        <v>38.51380678686656</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>5.586691889682708</v>
+        <v>3.70899984724079</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>21.25621087695414</v>
+        <v>24.01698493139993</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>30.40357211388864</v>
+        <v>32.31525278275173</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>12.07394605161554</v>
+        <v>11.39364588474471</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>22.94914244869104</v>
+        <v>23.56915888190444</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.158873885867</v>
+        <v>35.91616415855381</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>5.963861542322938</v>
+        <v>3.581746758968713</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.64625485950253</v>
+        <v>15.30420952885399</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.39092263336822</v>
+        <v>28.00943972689358</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>13.39651835218746</v>
+        <v>9.05178666609995</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.58446629567897</v>
+        <v>27.59873943165433</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>51.10402290917978</v>
+        <v>50.6567395111475</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.55895943031314</v>
+        <v>30.89648651752174</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>37.39843526110923</v>
+        <v>40.51107718446568</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>62.77305747992177</v>
+        <v>63.9315697470519</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.60208325864686</v>
+        <v>15.10791873561818</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.0010006505978</v>
+        <v>36.2610636874559</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>49.53756257298618</v>
+        <v>48.99650314131575</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>5.367792966588389</v>
+        <v>0.7243864579297004</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.440078097425918</v>
+        <v>3.936151377456365</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>11.7246606046251</v>
+        <v>7.762919599700211</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>5.361820745192965</v>
+        <v>-3.590622446921735</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>5.367488805041155</v>
+        <v>3.062703279872043</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.887141709264714</v>
+        <v>5.28997829247761</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.58112460746392</v>
+        <v>3.765380027669114</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>11.12465010466861</v>
+        <v>12.36680888871823</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.65174814686912</v>
+        <v>12.69842018897632</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>5.868823920688097</v>
+        <v>4.01681342554258</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.265948442468176</v>
+        <v>4.348280496466906</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.51334584973601</v>
+        <v>17.6577387497996</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>5.367589863267984</v>
+        <v>-1.459893678042178</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>5.367701123538371</v>
+        <v>3.346318421660349</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>5.467038925413</v>
+        <v>5.73010998830193</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>18.43362478610377</v>
+        <v>16.55175426868704</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.84141088582697</v>
+        <v>33.60863011021263</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>34.85678527312408</v>
+        <v>36.73455426778451</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>5.736492973705431</v>
+        <v>5.673963006874473</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.86665855582089</v>
+        <v>25.45401953078118</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.24828791072538</v>
+        <v>32.55811379993201</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>10.17394200011223</v>
+        <v>10.12371045150861</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>50.04550147559266</v>
+        <v>48.86562357347039</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>53.72845653850992</v>
+        <v>54.43807424419079</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.65620425473881</v>
+        <v>45.85114254591876</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>52.15787213995491</v>
+        <v>52.96459273887191</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>52.23383556590484</v>
+        <v>57.55480423333118</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>19.28305098770268</v>
+        <v>15.20949594612756</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>46.71103718151709</v>
+        <v>47.77321012429882</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>52.01963880503963</v>
+        <v>50.64313647737961</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.2114567680386</v>
+        <v>18.89039200517421</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.85615295301497</v>
+        <v>38.27687390401954</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.75666690490141</v>
+        <v>46.3103469280815</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>5.802108365523804</v>
+        <v>3.354467838649356</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>33.47959663994473</v>
+        <v>32.16780969133116</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.75338565259246</v>
+        <v>37.35817671728246</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>10.23443421946121</v>
+        <v>8.612426414896191</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>57.99873714188762</v>
+        <v>58.55113359943633</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>64.73030162139686</v>
+        <v>65.94444031551201</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>62.46217171840323</v>
+        <v>63.49146906987375</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>70.75184150351625</v>
+        <v>73.63956119539861</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>72.210082514756</v>
+        <v>77.98757526862248</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>15.66066868146301</v>
+        <v>14.41410204502088</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>62.01814445329157</v>
+        <v>62.47473547704092</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>65.29896301780906</v>
+        <v>66.64517326397802</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>13.688511064796</v>
+        <v>8.990607894030024</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>15.22049738805355</v>
+        <v>14.82814580445922</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>16.09687412761224</v>
+        <v>17.46135840903541</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>6.728900160427209</v>
+        <v>0.9019841812779497</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.70697660589943</v>
+        <v>15.88332314014946</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.9690002903393</v>
+        <v>16.09229214572112</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>13.32135535611425</v>
+        <v>9.294588935046864</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.16469879672331</v>
+        <v>25.490768380595</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.54650752591945</v>
+        <v>24.2553323238493</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.20676393774387</v>
+        <v>23.35584323021779</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.58636147008195</v>
+        <v>27.08786033444963</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.01469293182204</v>
+        <v>28.73376418367647</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>16.13647526303555</v>
+        <v>11.30362542895298</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>15.94768494902259</v>
+        <v>16.99498608086213</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>19.12265416630112</v>
+        <v>20.06116017405509</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>6.545062715573131</v>
+        <v>3.624072779356332</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.15524906417182</v>
+        <v>12.57332399420744</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>21.56223177009913</v>
+        <v>19.36442353154953</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.367718439164459</v>
+        <v>-3.591058718952045</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>7.489953285248092</v>
+        <v>4.882435719475904</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>18.67105898893623</v>
+        <v>13.80436140438499</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>5.360724925006657</v>
+        <v>-2.831816948697693</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>10.67240819655138</v>
+        <v>9.624689911755112</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.08894119066738</v>
+        <v>26.65840188538098</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.22144416201868</v>
+        <v>12.68761164968736</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>19.15438609789584</v>
+        <v>19.79932349859892</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>30.71081733819774</v>
+        <v>28.42237167138235</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>5.721384472382748</v>
+        <v>-1.809012998008097</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.82996630826888</v>
+        <v>14.46211632399165</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>22.48695007267688</v>
+        <v>20.30690624699201</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>18.93237519981851</v>
+        <v>14.9055810631584</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.04438082564647</v>
+        <v>28.31910741887089</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.25683398335527</v>
+        <v>33.86807990724699</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>5.875724970578215</v>
+        <v>0.7412265522046191</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.57661474720068</v>
+        <v>19.88646548394755</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.52795219281285</v>
+        <v>24.04596060951513</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>10.33616710667608</v>
+        <v>5.628166551805048</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>36.79330761827862</v>
+        <v>36.00390261282466</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>47.80230694288838</v>
+        <v>47.21829009397044</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>40.08926363246314</v>
+        <v>41.79863827221286</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>42.96176982161349</v>
+        <v>46.36516133028644</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>57.96050565049582</v>
+        <v>59.00822360106592</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>15.3585561866373</v>
+        <v>11.05869602975631</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.39964330498182</v>
+        <v>38.31010759898309</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>40.49098457620801</v>
+        <v>42.3826064944991</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>6.235167016204375</v>
+        <v>3.52981524424397</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>8.963011419390639</v>
+        <v>6.593097742402339</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>7.788540627756479</v>
+        <v>7.448624436946456</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.367673639614363</v>
+        <v>-1.875348441589637</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>7.316800519216883</v>
+        <v>6.430286921986887</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>9.151161946330305</v>
+        <v>6.305955805306979</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>9.906130577340662</v>
+        <v>4.858853833399859</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.68681314040131</v>
+        <v>11.62511346168264</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.40600307223265</v>
+        <v>11.16598839725016</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>8.019314383197347</v>
+        <v>5.960087387006006</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.807527170762576</v>
+        <v>4.65816310603882</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>12.60050853975866</v>
+        <v>11.60032950535947</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.367581173747514</v>
+        <v>5.237433276034785</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>9.178891919207818</v>
+        <v>7.676371614220425</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>9.29322475566644</v>
+        <v>7.912945854307299</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>5.971391337420524</v>
+        <v>0.8383283231477563</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.74336095455201</v>
+        <v>7.084800022868485</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.681438681150144</v>
+        <v>7.764147546169472</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>5.367534369263002</v>
+        <v>-3.160977019884708</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>5.753639063555308</v>
+        <v>-0.0228751890700174</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7.065558657278476</v>
+        <v>3.996108354911588</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>4.673476023656431</v>
+        <v>-2.439966049150172</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7.082764988416905</v>
+        <v>5.867976208691449</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.128575014716294</v>
+        <v>7.094435684420919</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>5.36751875613021</v>
+        <v>4.449338262323749</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>6.669407031187749</v>
+        <v>7.541310001395921</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>7.313235873614548</v>
+        <v>7.271603546340486</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>5.36784465842079</v>
+        <v>-3.190964187947756</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>6.400039489327586</v>
+        <v>4.066623016079518</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>6.971741623332157</v>
+        <v>4.658274842894233</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>20.21899324990319</v>
+        <v>14.92302301794019</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.13364556481656</v>
+        <v>23.02853046516343</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.62559352287244</v>
+        <v>25.66220703079249</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.952703851565484</v>
+        <v>1.466831079515341</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>15.82439807532428</v>
+        <v>13.82440612566579</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>17.17271475202163</v>
+        <v>15.90954617147954</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>13.23055964679387</v>
+        <v>7.388069993554918</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.8769660452151</v>
+        <v>28.53927928706587</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.95573968908946</v>
+        <v>31.91485951192762</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.01762022198722</v>
+        <v>31.7112101109615</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.71142444914085</v>
+        <v>32.92850735637296</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.93956222050228</v>
+        <v>39.24223868356781</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>22.59283095268398</v>
+        <v>19.9334325572655</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.81191016730151</v>
+        <v>27.73825692294171</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.07927362976629</v>
+        <v>30.1843743520277</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>19.23716454777767</v>
+        <v>18.66140604297345</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.76849914131257</v>
+        <v>29.12929166162159</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>38.13903354147286</v>
+        <v>35.43266580948588</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.933674438376794</v>
+        <v>4.932819877103878</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.5920571918199</v>
+        <v>22.90220370230275</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.25671556350904</v>
+        <v>28.57333634739576</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>12.69217528309871</v>
+        <v>13.00718321271876</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>43.45366294776201</v>
+        <v>42.98504410218523</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>48.27068796867869</v>
+        <v>47.34292349289368</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>41.73805538560116</v>
+        <v>39.27560515170858</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>47.66926208708657</v>
+        <v>46.00859939156118</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>50.67505797825383</v>
+        <v>48.78822766115634</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.53271107154034</v>
+        <v>28.15159858128315</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>51.64871865748987</v>
+        <v>52.57643219844935</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>55.34840918648032</v>
+        <v>55.72626108844062</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>16.72036442897608</v>
+        <v>11.40519879033646</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.2044485057403</v>
+        <v>24.09653520162882</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>31.5791733882092</v>
+        <v>30.24664744281216</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>5.367492766315852</v>
+        <v>-0.6809785494446388</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>12.95802156110789</v>
+        <v>11.26053287700606</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>16.90879703192445</v>
+        <v>15.47550997370776</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>10.30911980481339</v>
+        <v>3.583829558537872</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.39538824972641</v>
+        <v>25.492620193025</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.64168881161637</v>
+        <v>35.85596839393137</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.81442590531737</v>
+        <v>28.07922503197513</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.46661545360374</v>
+        <v>33.77371484458877</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>37.07419914399483</v>
+        <v>41.04510249684526</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>19.8284928702001</v>
+        <v>15.00653878668475</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>37.84882702757184</v>
+        <v>37.4549902135799</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>41.49740377065739</v>
+        <v>42.82394690246299</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.2540309581028</v>
+        <v>20.54301550995712</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>33.9061910277664</v>
+        <v>35.65567093772404</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>43.26144293690377</v>
+        <v>44.55449318313796</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>5.796019062957097</v>
+        <v>3.484906057811248</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.66046970177078</v>
+        <v>24.3384906567336</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.32702559623633</v>
+        <v>29.36968451656013</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>14.1639237147099</v>
+        <v>11.5569196172621</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>46.26077324450102</v>
+        <v>45.65133544771692</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>53.22065753938422</v>
+        <v>57.82264632633235</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>56.41941205770515</v>
+        <v>56.56796832861388</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>62.00551456208642</v>
+        <v>63.59028773151172</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>64.84798479316756</v>
+        <v>67.62233328565583</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.98646169184675</v>
+        <v>26.49332513424341</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>54.74481879317968</v>
+        <v>54.27955778939439</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>58.06782799555281</v>
+        <v>61.59129498060025</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>15.08797127294413</v>
+        <v>14.98389569063577</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.75515528339751</v>
+        <v>31.829122209382</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>35.30493777511707</v>
+        <v>36.41812922528489</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>5.952239396015358</v>
+        <v>6.653430497820953</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>33.52530392579588</v>
+        <v>36.07432262255757</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.46973251046261</v>
+        <v>37.00272785763575</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>11.42357074354732</v>
+        <v>13.04275212841293</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>52.39689299748563</v>
+        <v>56.85658928964891</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>60.75689010665729</v>
+        <v>60.60251558871658</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>55.67697419070993</v>
+        <v>58.24653040406147</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>58.66371893024228</v>
+        <v>64.77807303656698</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>63.1241406090991</v>
+        <v>64.42847922628988</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>14.28619305187277</v>
+        <v>13.94876049372761</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>39.68859562661698</v>
+        <v>40.01942532292846</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>47.98495986909711</v>
+        <v>48.54515603666289</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>10.97209665411</v>
+        <v>10.18929697344863</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.30469673883435</v>
+        <v>29.1128428023177</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.15559422228678</v>
+        <v>33.85375113857107</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>5.367659672725022</v>
+        <v>5.221631492882217</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.41064240725727</v>
+        <v>23.18103761790194</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.73177982264259</v>
+        <v>31.95053518557956</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>7.783780523271133</v>
+        <v>8.069558144354943</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>41.96518860031667</v>
+        <v>39.31195409264841</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>48.26517301163406</v>
+        <v>50.78446577248405</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>43.63089814461355</v>
+        <v>42.87422549581289</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>48.85289440155422</v>
+        <v>50.06393729540815</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>55.94821021203359</v>
+        <v>57.14194957659443</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>8.741005764365422</v>
+        <v>7.470504073963461</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.13019810736105</v>
+        <v>44.29935960213729</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>50.34408627765206</v>
+        <v>50.35891280248013</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.588789744358593</v>
+        <v>9.744119882299479</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.8777872171035</v>
+        <v>30.4819287455326</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>37.70531283881419</v>
+        <v>39.23774776094667</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>5.367261885039749</v>
+        <v>4.49245402464782</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.59399516478022</v>
+        <v>28.39340547738173</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.25597706678739</v>
+        <v>37.35353049418141</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>7.945652387724436</v>
+        <v>7.99990694227483</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>42.78714880067839</v>
+        <v>45.55596249022102</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>60.07314408811577</v>
+        <v>63.70967380327224</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>52.73641330567283</v>
+        <v>53.17451284449847</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>64.34625350806472</v>
+        <v>65.19514506051043</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>73.97288058008628</v>
+        <v>77.40713493263971</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>7.906557769327026</v>
+        <v>6.289521281778235</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>53.15775920070129</v>
+        <v>53.23587859442256</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>63.93681379296987</v>
+        <v>64.05839895064877</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>10.11395780845806</v>
+        <v>9.422842919380518</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.93636251213793</v>
+        <v>23.76184548074749</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.35251135631666</v>
+        <v>34.56573651636796</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>5.367676422958578</v>
+        <v>5.978778470684293</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>41.37391153398353</v>
+        <v>40.36524728785019</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>45.32719675221612</v>
+        <v>46.54159108859159</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>10.64900739827601</v>
+        <v>9.022872350815447</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>59.74272848657677</v>
+        <v>65.82625663097676</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>62.52098220296686</v>
+        <v>65.74721434259799</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>57.69690311631936</v>
+        <v>58.18872333972359</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>56.65782389784449</v>
+        <v>57.02500245956635</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>59.22947729205944</v>
+        <v>59.58226584162826</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.294132216811715</v>
+        <v>10.4102407295735</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.68734222873015</v>
+        <v>32.19339655665804</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>57.70377942829026</v>
+        <v>64.05506341076581</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>15.580681417</v>
+        <v>10.91434638145642</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.76289208539141</v>
+        <v>31.24614506209262</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>35.76817075102079</v>
+        <v>37.21801113334644</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>5.476943704081958</v>
+        <v>4.274946719223642</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.35938293410355</v>
+        <v>25.36193835637156</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>32.86285170541359</v>
+        <v>34.47242640419087</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>9.011457689375561</v>
+        <v>3.708112729643975</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>45.85624221753505</v>
+        <v>45.55896000459427</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>48.82090548739504</v>
+        <v>53.20117600692397</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>43.52805265834924</v>
+        <v>42.33130687000364</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>49.80786752784302</v>
+        <v>52.31980498703973</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>53.82769393789065</v>
+        <v>59.62804073850329</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>12.06578706918502</v>
+        <v>7.94663751703597</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>44.30797996770182</v>
+        <v>46.59519311483857</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>48.92033475548532</v>
+        <v>54.40263543143543</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>14.46439264047348</v>
+        <v>14.16342217346381</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>32.82378648961343</v>
+        <v>34.17024175918425</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>39.58227680261326</v>
+        <v>43.42121494686089</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>5.367278592389635</v>
+        <v>4.363263815082533</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.33800283022696</v>
+        <v>32.40640290539403</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.39406642538823</v>
+        <v>41.06372455898376</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>8.876130105994665</v>
+        <v>5.639517843895259</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>53.103746642961</v>
+        <v>53.48234186408108</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>61.40229375735626</v>
+        <v>66.00160537932315</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>62.59012879929695</v>
+        <v>63.94498947338673</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>67.00762999824202</v>
+        <v>74.84191854357616</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>74.00183811306604</v>
+        <v>79.93320934370118</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>10.04362018745534</v>
+        <v>9.268721345611404</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>55.89736511639158</v>
+        <v>58.93037858844105</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>65.77964893066753</v>
+        <v>68.87918703645963</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>19.91542815710022</v>
+        <v>17.61842442483201</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>24.85500112925468</v>
+        <v>24.27163207465274</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.69051473759609</v>
+        <v>36.39195162545342</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.16982715573928</v>
+        <v>13.75988123921365</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>49.5331247418905</v>
+        <v>49.12748050339091</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>52.93637893670114</v>
+        <v>52.31669775785754</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>14.26355072680842</v>
+        <v>16.45919236285718</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>60.44456658708183</v>
+        <v>65.61103068913054</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>64.25843267632767</v>
+        <v>70.20809297650788</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>55.70406005934304</v>
+        <v>55.68083183271901</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>55.9052231265626</v>
+        <v>56.01780663082992</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>56.71445108068173</v>
+        <v>56.64709592218522</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>17.55498834297493</v>
+        <v>18.27418162129725</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.22900805684323</v>
+        <v>29.67848169221319</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>47.76157187106587</v>
+        <v>49.23070910461523</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.34063211307765</v>
+        <v>22.84515640859732</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.61995866755117</v>
+        <v>34.08536305428885</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>37.57922289935742</v>
+        <v>40.41573956654404</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.39848599717878</v>
+        <v>34.38332503231452</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>49.69197324465685</v>
+        <v>47.91543495565169</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>53.36546626726445</v>
+        <v>57.26029279998269</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>11.53953695743376</v>
+        <v>12.66179594671435</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>45.24772851727975</v>
+        <v>46.30413029733801</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>51.55601324439517</v>
+        <v>57.69895480463849</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>45.94288991075973</v>
+        <v>44.59767735032669</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>49.6400784750178</v>
+        <v>53.19660834106266</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>52.64278747398538</v>
+        <v>57.45761596101863</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.49060014471634</v>
+        <v>24.30494654640924</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>44.73644851520821</v>
+        <v>48.2429113698561</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>49.73280952961342</v>
+        <v>55.78362712823577</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.07698872829217</v>
+        <v>22.76783766627593</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.66631656788243</v>
+        <v>38.0219196311465</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>39.59821289134618</v>
+        <v>43.11189772135504</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>38.5596203763908</v>
+        <v>35.57984799769822</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.79747346933722</v>
+        <v>54.46961515912301</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>55.73715034439345</v>
+        <v>59.05486116508972</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>14.38803105224742</v>
+        <v>16.30815855736108</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>55.99518793534692</v>
+        <v>60.33222756443305</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>63.80082336711219</v>
+        <v>68.81704980680345</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>65.70554149862774</v>
+        <v>71.76530270414256</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>69.32305451530604</v>
+        <v>75.86961225532818</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>74.3190561612427</v>
+        <v>80.20438246260538</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.71254680843605</v>
+        <v>25.43061489867317</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>56.90956856344616</v>
+        <v>61.8123217900407</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>67.16027702850469</v>
+        <v>71.81823994951847</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>7.972619046077945</v>
+        <v>8.912778771813365</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.06589203690473</v>
+        <v>25.50957073898052</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.25714862372288</v>
+        <v>35.08001327804248</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>5.367276601011365</v>
+        <v>3.241291084475275</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.5396080522632</v>
+        <v>24.68620143548536</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.17407128870493</v>
+        <v>31.77752885379431</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.404612993285298</v>
+        <v>8.728641829139953</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>50.44807882029357</v>
+        <v>50.49097631585131</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>54.01984106484113</v>
+        <v>55.17975430852402</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>55.76942453579891</v>
+        <v>56.31565652270189</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>55.86695804679547</v>
+        <v>56.63246110788587</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>58.20695979378651</v>
+        <v>58.19251192979612</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>6.727495105918837</v>
+        <v>7.679463431852977</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>35.93081869157536</v>
+        <v>38.98140869283182</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>41.17451467167203</v>
+        <v>42.1101914161234</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.74490129194672</v>
+        <v>10.63973089551484</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.96171516780493</v>
+        <v>30.92051557118727</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>32.74273619165299</v>
+        <v>34.90115349574822</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>5.367572064194455</v>
+        <v>4.234429325352643</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.18152853671631</v>
+        <v>24.41122554995357</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.58336410586216</v>
+        <v>31.41905127015952</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>7.743945667984189</v>
+        <v>5.961215273263001</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>39.59937316533783</v>
+        <v>41.0370175299804</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>46.34700996555436</v>
+        <v>51.19516844362616</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.09868036536935</v>
+        <v>41.06550449515501</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>48.85307753502451</v>
+        <v>50.30959991183067</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>50.36641599758821</v>
+        <v>57.33372452824525</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>8.202550705410591</v>
+        <v>6.792014505867037</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>42.3503043291409</v>
+        <v>40.83139933340067</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>48.98056587613038</v>
+        <v>49.99070676966169</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>9.516947022830323</v>
+        <v>9.877925034715894</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.3001232234936</v>
+        <v>30.8011138826417</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>37.17384312108258</v>
+        <v>40.06716822539664</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>5.367413062633325</v>
+        <v>2.103251510331756</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>27.99330192670006</v>
+        <v>26.32061857528966</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.70835432156564</v>
+        <v>34.05433048585763</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>8.220929766084804</v>
+        <v>4.828283521873853</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.25970339067493</v>
+        <v>43.83112171248493</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>57.76556283374138</v>
+        <v>61.93604665780669</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>55.29767229524195</v>
+        <v>55.10405128386864</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>68.57865760978393</v>
+        <v>69.2045546435086</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>70.96430942254237</v>
+        <v>76.37773294407253</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>7.689727836464005</v>
+        <v>5.713515746619301</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>54.62789029917658</v>
+        <v>55.10722405673381</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>62.21627959898596</v>
+        <v>64.65742557005896</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>14.80483838363237</v>
+        <v>9.716494651194559</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>16.53195408406712</v>
+        <v>14.33220701461992</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>16.97045711517519</v>
+        <v>17.60850756374435</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>6.444377167261781</v>
+        <v>1.504709510587642</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>15.09521081332711</v>
+        <v>15.39691207898212</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>15.89215213089506</v>
+        <v>16.99974148138925</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>13.42086776552623</v>
+        <v>8.113381110778953</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.6960251810455</v>
+        <v>26.26519437506709</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.44093741857974</v>
+        <v>28.30867290009117</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.26155385129184</v>
+        <v>22.93619478318678</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.26155309188282</v>
+        <v>26.33341782994552</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.02321160410106</v>
+        <v>29.2386610960552</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>13.49803563278609</v>
+        <v>12.14631317595892</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.16270057421884</v>
+        <v>18.04916652180614</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>20.50977893696903</v>
+        <v>22.82275645291305</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>9.595705514017137</v>
+        <v>8.52142744360243</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.41900861221674</v>
+        <v>20.82939551466812</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.69276742383505</v>
+        <v>28.73876759568943</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>5.566636534685887</v>
+        <v>3.207959273131131</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.45047402982771</v>
+        <v>13.82365612026597</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.57405648367461</v>
+        <v>25.70351440974438</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>6.982678161590716</v>
+        <v>4.597629778372021</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>22.69058606196742</v>
+        <v>23.70537528450843</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>43.2984875427869</v>
+        <v>42.04477840986334</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.44367252411293</v>
+        <v>27.38335347198229</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.7577913179787</v>
+        <v>36.90082015111058</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>47.6537308091866</v>
+        <v>48.58586277572403</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>6.930433805215753</v>
+        <v>5.818929758358436</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.07665095173252</v>
+        <v>31.09322259919614</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.55828293913505</v>
+        <v>41.39533005582656</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.43090206008529</v>
+        <v>14.56902492888713</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.57276524741756</v>
+        <v>27.99732594616696</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>36.20639878498068</v>
+        <v>37.22881001854689</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>5.708029642032908</v>
+        <v>3.321479190507279</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>23.47803841964139</v>
+        <v>22.06676447856533</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>32.30930289775198</v>
+        <v>33.01670137839074</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.585140407022774</v>
+        <v>8.131261349440486</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.47509697014371</v>
+        <v>35.95822332324003</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>53.76354292078821</v>
+        <v>53.78460309667247</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.71932296150289</v>
+        <v>43.92454520857918</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>53.8841628559472</v>
+        <v>52.63167015249191</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>60.50884325178834</v>
+        <v>62.35447482376744</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>7.26639480359632</v>
+        <v>5.336894866162758</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.47590191772425</v>
+        <v>36.7631323901288</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>58.23455262982958</v>
+        <v>58.55955201785717</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>16.72425852991261</v>
+        <v>14.62558741727632</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.55412513427262</v>
+        <v>19.58746577553191</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.11333612494292</v>
+        <v>24.71820367742415</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>5.736770100303794</v>
+        <v>3.067630481277284</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.00894588237565</v>
+        <v>27.37321829905987</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.22062348821155</v>
+        <v>28.68990404452446</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>15.27029689138098</v>
+        <v>12.67284051779151</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>44.03622910715831</v>
+        <v>43.44923796679215</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>45.42345642725645</v>
+        <v>44.87351162322284</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>32.53803949744081</v>
+        <v>33.53957754820452</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>36.35134726722257</v>
+        <v>37.67415090139469</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>41.92697097299872</v>
+        <v>40.98490231424151</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>14.06310092337909</v>
+        <v>11.59986451193673</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.42621796201216</v>
+        <v>35.42902329184217</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.70594323263084</v>
+        <v>40.30979111323993</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>9.360096814376735</v>
+        <v>10.48504545597807</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.39462120045727</v>
+        <v>23.90872336434454</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.54013239585374</v>
+        <v>33.25700145459734</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>5.367253745316649</v>
+        <v>4.11013783283008</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>18.21283270193532</v>
+        <v>19.83335054110641</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>39.32810596453085</v>
+        <v>37.64361625139288</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>7.881960358582425</v>
+        <v>2.739583382833967</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.01738479610365</v>
+        <v>30.125811678462</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>46.00327709011469</v>
+        <v>44.95532817523906</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.66379324623407</v>
+        <v>27.37951248421369</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>36.6655590272003</v>
+        <v>39.29649663429285</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>52.80388783290866</v>
+        <v>54.31035092066452</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>7.763170491535188</v>
+        <v>6.867037563610317</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.64878585486608</v>
+        <v>35.716901931268</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.10980366272732</v>
+        <v>45.31123729249839</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>13.33825152187764</v>
+        <v>13.68650260485597</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.14784883151941</v>
+        <v>27.49134136890764</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.6821120910131</v>
+        <v>33.87774499649895</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>5.367325997990385</v>
+        <v>3.626032185319403</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.16578599843125</v>
+        <v>24.4497965126755</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.58633910115287</v>
+        <v>33.48176918817155</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>8.976959054395831</v>
+        <v>6.77660809746736</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.72649046967969</v>
+        <v>39.86538792087466</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>49.03019721525627</v>
+        <v>49.48339175066495</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>49.85175244683442</v>
+        <v>47.91679611508389</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>53.95721843614116</v>
+        <v>54.08868420883238</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>63.75018768204218</v>
+        <v>66.13588706038146</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>6.306847844088722</v>
+        <v>4.688730278193951</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>34.00415811341796</v>
+        <v>33.36663454472094</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.2760972115869</v>
+        <v>52.78009424109379</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>17.81759161170186</v>
+        <v>17.65900063407438</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>24.84814770219235</v>
+        <v>28.13921438478856</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>33.78126190829737</v>
+        <v>35.87400026465072</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>5.918090745201805</v>
+        <v>6.651561758228219</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>41.924179277516</v>
+        <v>41.14009303001437</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>42.55047253734769</v>
+        <v>46.13073110704651</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>14.09518854188816</v>
+        <v>15.53001248156791</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>61.60181306656723</v>
+        <v>63.04737466965415</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>62.02947387105449</v>
+        <v>64.2378270793551</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>56.20589266762947</v>
+        <v>56.41039382640456</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>55.5096752492124</v>
+        <v>55.70525940028656</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>58.99209829031989</v>
+        <v>59.30468950895408</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>16.60223652627268</v>
+        <v>17.32539710385781</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>21.72479849606925</v>
+        <v>22.17392880954372</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>59.4848567739473</v>
+        <v>65.25404792778534</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.27742737680799</v>
+        <v>21.45328668051586</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>34.51470446279392</v>
+        <v>35.09668778132603</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>35.29350990785103</v>
+        <v>38.90218981621845</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>6.529651528461887</v>
+        <v>6.238766754238714</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>30.53640496285968</v>
+        <v>28.96663997287706</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.54542907920283</v>
+        <v>35.69986164850985</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>12.14668487205354</v>
+        <v>11.1506123547267</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>48.07906974119575</v>
+        <v>47.21483348816081</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>52.35722596708612</v>
+        <v>54.2774412060145</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>48.44892298885915</v>
+        <v>48.45205473402997</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>54.16884649779972</v>
+        <v>54.12625294264402</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>53.60986744461087</v>
+        <v>59.24313391956143</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>22.65037864081416</v>
+        <v>19.49038028744472</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>46.22693789780755</v>
+        <v>49.50645064476597</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>50.23862195094566</v>
+        <v>54.93173078163343</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>26.07008268006196</v>
+        <v>22.18710201040421</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>35.21531375836035</v>
+        <v>37.76957837031387</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>39.37605646485193</v>
+        <v>42.84019672086392</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>6.547454529051478</v>
+        <v>5.221313524934775</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.91923231879638</v>
+        <v>33.06072018647711</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>38.05872416673589</v>
+        <v>38.86830428784889</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>12.20271414068705</v>
+        <v>12.25912225972235</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>56.39677020715763</v>
+        <v>57.12008380485335</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>62.69071486078923</v>
+        <v>67.1236929938031</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>62.41052823533707</v>
+        <v>63.59183003306338</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>65.23667148198206</v>
+        <v>69.55647926963411</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>70.67063222984058</v>
+        <v>77.74996260583742</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>20.26669547101829</v>
+        <v>17.53040954528842</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>56.75934682496815</v>
+        <v>57.05291528401745</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>62.97943526338624</v>
+        <v>66.44392256527837</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>8.213942692024315</v>
+        <v>8.212045633421649</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>23.40006951721054</v>
+        <v>23.57619804127318</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>31.01530844483315</v>
+        <v>31.45728822630032</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>5.223564048937295</v>
+        <v>3.031534767463832</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.53698631601363</v>
+        <v>27.98286187461466</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.92082489425396</v>
+        <v>30.365733332856</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>8.916046696431131</v>
+        <v>8.152180305705375</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>47.64608544271731</v>
+        <v>47.77954019345621</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>52.17580795947913</v>
+        <v>52.71603994695952</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>53.3079196005615</v>
+        <v>52.33127619123001</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>58.92300478394846</v>
+        <v>57.60784757175762</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>53.72114296666207</v>
+        <v>54.73647419615045</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>6.600209272420315</v>
+        <v>7.22940238628037</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.99797894382667</v>
+        <v>35.68325015514713</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>39.76305519556492</v>
+        <v>38.81170515940467</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.20676588067801</v>
+        <v>11.30299814345852</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>33.76284323117459</v>
+        <v>31.04660485958783</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>32.54282616658637</v>
+        <v>34.46020616615293</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>5.367437444401865</v>
+        <v>4.687952083635818</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.93434907215063</v>
+        <v>24.56910744333369</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.19231444856251</v>
+        <v>32.74191684405644</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>8.087490892276403</v>
+        <v>8.025622795823697</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>43.94878120820205</v>
+        <v>42.86520882885532</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>52.17043157170583</v>
+        <v>55.36008758685958</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>44.53028998167957</v>
+        <v>44.12521225684519</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>51.1614081778344</v>
+        <v>52.59719419179086</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>53.93741239437065</v>
+        <v>59.38100488094331</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>8.101931325839455</v>
+        <v>7.270906248042738</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>44.88920583367698</v>
+        <v>51.34280353319511</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>48.61816808661948</v>
+        <v>51.26070735433063</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>10.78218358580793</v>
+        <v>10.93140689519733</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>32.9933866285356</v>
+        <v>30.11043531605493</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>39.7633844708475</v>
+        <v>39.24999795483343</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>5.367838106282477</v>
+        <v>2.757100015539145</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>27.40936915781013</v>
+        <v>25.23691740583923</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>32.42447405741554</v>
+        <v>33.58580418537917</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>8.108977464896494</v>
+        <v>5.371135257767932</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>43.81282813958962</v>
+        <v>41.26951205094169</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>56.79034886313765</v>
+        <v>60.80193442058267</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>57.0213848994001</v>
+        <v>55.91978069978568</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>63.49606584229471</v>
+        <v>65.2345127801027</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>69.78510953336038</v>
+        <v>75.2371298794305</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>7.365358640106326</v>
+        <v>5.431962767853335</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>47.45076577740919</v>
+        <v>47.61194131941078</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>61.974309290064</v>
+        <v>62.27944651269108</v>
       </c>
     </row>
   </sheetData>
